--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9632478A-8290-47D5-9E14-BAC4C3A2E148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B318361-A6FE-427A-B971-2D4FF81A1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,15 +644,6 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -946,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,18 +1013,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,21 +1046,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FFFFC1C1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC1C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1225,189 +1203,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC1C1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC1C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFDDFFDD"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDDFFDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9EDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9999"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1755,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP24" sqref="AP24"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2090,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2275,10 +2085,10 @@
         <v>-2</v>
       </c>
       <c r="L22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N22" s="22">
         <v>-2</v>
@@ -2287,13 +2097,13 @@
         <v>-2</v>
       </c>
       <c r="P22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S22" s="22">
         <v>-2</v>
@@ -2308,7 +2118,7 @@
         <v>-2</v>
       </c>
       <c r="W22" s="22">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="X22" s="22">
         <v>-2</v>
@@ -2626,10 +2436,10 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="22">
         <v>-2</v>
@@ -2678,7 +2488,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2746,10 +2556,10 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X25" s="22">
         <v>-2</v>
@@ -2773,25 +2583,25 @@
         <v>-2</v>
       </c>
       <c r="AE25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="22">
         <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2825,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2917,16 +2727,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF26" s="22">
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2956,7 +2766,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -3057,16 +2867,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF27" s="22">
         <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="22">
         <v>-2</v>
@@ -3090,10 +2900,10 @@
         <v>-2</v>
       </c>
       <c r="AO27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="22">
         <v>-2</v>
@@ -3176,19 +2986,19 @@
         <v>-2</v>
       </c>
       <c r="W28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
@@ -3197,7 +3007,7 @@
         <v>-2</v>
       </c>
       <c r="AD28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="22">
         <v>-2</v>
@@ -3206,7 +3016,7 @@
         <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -3215,37 +3025,37 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3292,10 +3102,10 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="22">
         <v>-2</v>
@@ -3304,10 +3114,10 @@
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="22">
         <v>-2</v>
@@ -3355,10 +3165,10 @@
         <v>-2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AL29" s="22">
         <v>-2</v>
@@ -3367,7 +3177,7 @@
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>
@@ -3376,7 +3186,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -3385,7 +3195,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3423,10 +3233,10 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N30" s="22">
         <v>-2</v>
@@ -3519,7 +3329,7 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="22">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AS30" s="22">
         <v>-2</v>
@@ -3542,7 +3352,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="22">
         <v>-2</v>
@@ -3554,7 +3364,7 @@
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3563,10 +3373,10 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
@@ -3673,16 +3483,16 @@
         <v>-2</v>
       </c>
       <c r="B32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="C32" s="22">
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F32" s="22">
         <v>-2</v>
@@ -3691,10 +3501,10 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
@@ -3703,13 +3513,13 @@
         <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="N32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O32" s="22">
         <v>0</v>
@@ -3718,67 +3528,67 @@
         <v>0</v>
       </c>
       <c r="Q32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
         <v>-2</v>
@@ -3787,25 +3597,25 @@
         <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AR32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AS32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3825,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3837,112 +3647,112 @@
         <v>0</v>
       </c>
       <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
         <v>1</v>
       </c>
-      <c r="K33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
+      <c r="N33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>0</v>
+      </c>
+      <c r="R33" s="22">
+        <v>0</v>
+      </c>
+      <c r="S33" s="22">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>1</v>
+      </c>
+      <c r="V33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W33" s="22">
+        <v>0</v>
+      </c>
+      <c r="X33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AL33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN33" s="22">
+        <v>13</v>
+      </c>
+      <c r="AO33" s="22">
         <v>44</v>
       </c>
-      <c r="N33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="P33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>44</v>
-      </c>
-      <c r="R33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U33" s="22">
-        <v>44</v>
-      </c>
-      <c r="V33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AG33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AJ33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL33" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AO33" s="22">
-        <v>-2</v>
-      </c>
       <c r="AP33" s="22">
         <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT33" s="22">
         <v>-2</v>
@@ -3953,7 +3763,7 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
@@ -3962,7 +3772,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="22">
         <v>-1</v>
@@ -3971,121 +3781,121 @@
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J34" s="22">
         <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="L34" s="22">
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
         <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AM34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AR34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AS34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AT34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4111,7 +3921,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="22">
         <v>-1</v>
@@ -4126,43 +3936,43 @@
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
         <v>-1</v>
@@ -4183,10 +3993,10 @@
         <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
         <v>-1</v>
@@ -4201,31 +4011,31 @@
         <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AN35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS35" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AT35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4251,13 +4061,13 @@
         <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="K36" s="22">
         <v>-1</v>
@@ -4266,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
         <v>-1</v>
@@ -4311,10 +4121,10 @@
         <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
         <v>-1</v>
@@ -4344,28 +4154,28 @@
         <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AO36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4397,22 +4207,22 @@
         <v>-1</v>
       </c>
       <c r="J37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="22">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P37" s="22">
         <v>0</v>
@@ -4433,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
@@ -4487,25 +4297,25 @@
         <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AP37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR37" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AS37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4564,13 +4374,13 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
         <v>-1</v>
@@ -4597,16 +4407,16 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="22">
         <v>-1</v>
@@ -4630,22 +4440,22 @@
         <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4659,16 +4469,16 @@
         <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="22">
         <v>-1</v>
@@ -4707,10 +4517,10 @@
         <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
         <v>-1</v>
@@ -4776,7 +4586,7 @@
         <v>-1</v>
       </c>
       <c r="AQ39" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AR39" s="22">
         <v>-1</v>
@@ -4790,31 +4600,31 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40" s="22">
         <v>-1</v>
@@ -4826,10 +4636,10 @@
         <v>-1</v>
       </c>
       <c r="M40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O40" s="22">
         <v>-1</v>
@@ -4841,10 +4651,10 @@
         <v>-1</v>
       </c>
       <c r="R40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" s="22">
         <v>-1</v>
@@ -4862,19 +4672,19 @@
         <v>0</v>
       </c>
       <c r="Y40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD40" s="22">
         <v>-1</v>
@@ -4883,10 +4693,10 @@
         <v>-1</v>
       </c>
       <c r="AF40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH40" s="22">
         <v>-1</v>
@@ -4933,7 +4743,7 @@
         <v>-1</v>
       </c>
       <c r="B41" s="22">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="C41" s="22">
         <v>-1</v>
@@ -4996,13 +4806,13 @@
         <v>-1</v>
       </c>
       <c r="W41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Y41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="22">
         <v>-1</v>
@@ -5047,19 +4857,19 @@
         <v>-1</v>
       </c>
       <c r="AN41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS41" s="22">
         <v>-1</v>
@@ -5136,10 +4946,10 @@
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
@@ -5190,7 +5000,7 @@
         <v>-1</v>
       </c>
       <c r="AO42" s="22">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -5210,13 +5020,13 @@
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" s="22">
         <v>-1</v>
@@ -5228,10 +5038,10 @@
         <v>-1</v>
       </c>
       <c r="G43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43" s="22">
         <v>-1</v>
@@ -5329,7 +5139,7 @@
       <c r="AN43" s="22">
         <v>-1</v>
       </c>
-      <c r="AO43" s="25">
+      <c r="AO43" s="22">
         <v>-1</v>
       </c>
       <c r="AP43" s="22">
@@ -5389,7 +5199,7 @@
         <v>-1</v>
       </c>
       <c r="N44" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="O44" s="22">
         <v>-1</v>
@@ -5407,7 +5217,7 @@
         <v>-1</v>
       </c>
       <c r="T44" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="U44" s="22">
         <v>-1</v>
@@ -5425,7 +5235,7 @@
         <v>-1</v>
       </c>
       <c r="Z44" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA44" s="22">
         <v>-1</v>
@@ -5443,7 +5253,7 @@
         <v>-1</v>
       </c>
       <c r="AF44" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AG44" s="22">
         <v>-1</v>
@@ -5505,7 +5315,7 @@
         <v>-1</v>
       </c>
       <c r="F45" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G45" s="22">
         <v>-1</v>
@@ -5844,53 +5654,53 @@
     <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5904,7 +5714,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:G59"/>
     </sheetView>
   </sheetViews>
@@ -5914,13 +5724,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6166,15 +5976,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6218,21 +6028,21 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
         <v>24</v>
       </c>
@@ -6245,22 +6055,22 @@
       <c r="F34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="10">
         <v>255</v>
       </c>
@@ -6273,13 +6083,13 @@
       <c r="F36" s="10">
         <v>255</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="10">
         <v>255</v>
       </c>
@@ -6292,13 +6102,13 @@
       <c r="F37" s="10">
         <v>255</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="10">
         <v>255</v>
       </c>
@@ -6311,13 +6121,13 @@
       <c r="F38" s="10">
         <v>255</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="10">
         <v>255</v>
       </c>
@@ -6330,13 +6140,13 @@
       <c r="F39" s="10">
         <v>255</v>
       </c>
-      <c r="G39" s="34"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="10">
         <v>255</v>
       </c>
@@ -6349,13 +6159,13 @@
       <c r="F40" s="10">
         <v>255</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="10">
         <v>255</v>
       </c>
@@ -6368,27 +6178,27 @@
       <c r="F41" s="10">
         <v>255</v>
       </c>
-      <c r="G41" s="34"/>
+      <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
@@ -6400,553 +6210,553 @@
     </row>
     <row r="46" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="I47" s="26" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="I47" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="28"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="I48" s="32" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="I48" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="34"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="29">
         <v>1</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33" t="s">
+      <c r="C49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="34"/>
-      <c r="I49" s="32" t="s">
+      <c r="G49" s="30"/>
+      <c r="I49" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="29">
         <v>1</v>
       </c>
-      <c r="K49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33" t="s">
+      <c r="K49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="34"/>
+      <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="34"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="I51" s="32" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="I51" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="34"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="29">
         <v>5</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="29">
         <v>10</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="29">
         <v>5</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="29">
         <v>10</v>
       </c>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33" t="s">
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O52" s="34" t="s">
+      <c r="O52" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="29">
         <v>5</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="29">
         <v>10</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33" t="s">
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I53" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="29">
         <v>1</v>
       </c>
-      <c r="K53" s="33">
-        <v>0</v>
-      </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33" t="s">
+      <c r="K53" s="29">
+        <v>0</v>
+      </c>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O53" s="34" t="s">
+      <c r="O53" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="29">
         <v>1</v>
       </c>
-      <c r="C54" s="33">
-        <v>0</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33" t="s">
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="29">
         <v>120</v>
       </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33" t="s">
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="O54" s="34"/>
+      <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
-      <c r="I55" s="32" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="I55" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="34"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="34"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="I57" s="39" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="I57" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="38"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
     </row>
     <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58"/>
     </row>
     <row r="59" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
-      <c r="I59" s="26" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="I59" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="28"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34"/>
-      <c r="I60" s="32" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+      <c r="I60" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="34"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="30"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="29">
         <v>1</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33" t="s">
+      <c r="C61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="34"/>
-      <c r="I61" s="32" t="s">
+      <c r="G61" s="30"/>
+      <c r="I61" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="29">
         <v>1</v>
       </c>
-      <c r="K61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33" t="s">
+      <c r="K61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="34"/>
+      <c r="O61" s="30"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="34"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="34"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="34"/>
-      <c r="I63" s="32" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="I63" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="33" t="s">
+      <c r="J63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="34"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="29">
         <v>5</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="29">
         <v>10</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33" t="s">
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G64" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="29">
         <v>5</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="29">
         <v>10</v>
       </c>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33" t="s">
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O64" s="34" t="s">
+      <c r="O64" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="29">
         <v>5</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="29">
         <v>10</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33" t="s">
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G65" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="29">
         <v>5</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="29">
         <v>10</v>
       </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33" t="s">
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="O65" s="34" t="s">
+      <c r="O65" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="29">
         <v>1</v>
       </c>
-      <c r="C66" s="33">
-        <v>0</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33" t="s">
+      <c r="C66" s="29">
+        <v>0</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I66" s="32" t="s">
+      <c r="I66" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="29">
         <v>1</v>
       </c>
-      <c r="K66" s="33">
-        <v>0</v>
-      </c>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33" t="s">
+      <c r="K66" s="29">
+        <v>0</v>
+      </c>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O66" s="34" t="s">
+      <c r="O66" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="34"/>
-      <c r="I67" s="32" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+      <c r="I67" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="34"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A68" s="32"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="34"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="34"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="30"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="30"/>
     </row>
     <row r="69" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="I69" s="39" t="s">
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="I69" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="38"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="I59:O59"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="I47:O47"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="I59:O59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B318361-A6FE-427A-B971-2D4FF81A1ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B48A73-94E5-4296-9CE2-5FB51C973D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2118,17 +2118,17 @@
         <v>-2</v>
       </c>
       <c r="W22" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X22" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z22" s="22">
         <v>5</v>
       </c>
-      <c r="X22" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z22" s="22">
-        <v>-2</v>
-      </c>
       <c r="AA22" s="22">
         <v>-2</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>-2</v>
       </c>
       <c r="AF22" s="22">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="AG22" s="22">
         <v>-2</v>
@@ -2415,13 +2415,13 @@
         <v>-2</v>
       </c>
       <c r="X24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="22">
         <v>-2</v>
@@ -2430,28 +2430,28 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="22">
         <v>0</v>
       </c>
       <c r="AF24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG24" s="22">
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="22">
         <v>-2</v>
@@ -2583,10 +2583,10 @@
         <v>-2</v>
       </c>
       <c r="AE25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG25" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2727,16 +2727,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="22">
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2766,10 +2766,10 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR26" s="22">
         <v>97</v>
-      </c>
-      <c r="AR26" s="22">
-        <v>-2</v>
       </c>
       <c r="AS26" s="22">
         <v>-2</v>
@@ -2828,13 +2828,13 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2867,16 +2867,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="22">
         <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
         <v>-2</v>
@@ -2968,13 +2968,13 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2986,19 +2986,19 @@
         <v>-2</v>
       </c>
       <c r="W28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
@@ -3007,7 +3007,7 @@
         <v>-2</v>
       </c>
       <c r="AD28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE28" s="22">
         <v>-2</v>
@@ -3016,7 +3016,7 @@
         <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -3025,13 +3025,13 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>0</v>
@@ -3144,10 +3144,10 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="22">
         <v>-2</v>
@@ -3165,37 +3165,37 @@
         <v>-2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="22">
         <v>31</v>
       </c>
-      <c r="AL29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AM29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AN29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP29" s="22">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR29" s="22">
         <v>31</v>
       </c>
-      <c r="AO29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ29" s="22">
-        <v>31</v>
-      </c>
-      <c r="AR29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AS29" s="22">
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3242,10 +3242,10 @@
         <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="22">
         <v>-2</v>
@@ -3254,10 +3254,10 @@
         <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="T30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="22">
         <v>-2</v>
@@ -3382,7 +3382,7 @@
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3397,10 +3397,10 @@
         <v>-2</v>
       </c>
       <c r="T31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3525,22 +3525,22 @@
         <v>0</v>
       </c>
       <c r="P32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3680,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
         <v>1</v>
       </c>
-      <c r="V33" s="22">
-        <v>-2</v>
-      </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
         <v>0</v>
@@ -3719,40 +3719,40 @@
         <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
         <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AN33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO33" s="22">
+        <v>12</v>
+      </c>
+      <c r="AP33" s="22">
         <v>13</v>
       </c>
-      <c r="AO33" s="22">
+      <c r="AQ33" s="22">
         <v>44</v>
       </c>
-      <c r="AP33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ33" s="22">
-        <v>-2</v>
-      </c>
       <c r="AR33" s="22">
         <v>-2</v>
       </c>
       <c r="AS33" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT33" s="22">
         <v>-2</v>
@@ -3826,10 +3826,10 @@
         <v>-1</v>
       </c>
       <c r="W34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y34" s="22">
         <v>-1</v>
@@ -3838,10 +3838,10 @@
         <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AC34" s="22">
         <v>-1</v>
@@ -3850,28 +3850,28 @@
         <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AF34" s="22">
         <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AH34" s="22">
         <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="22">
         <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
         <v>-2</v>
@@ -3966,7 +3966,7 @@
         <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="22">
         <v>-1</v>
@@ -3978,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="22">
         <v>-1</v>
@@ -3996,10 +3996,10 @@
         <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="22">
         <v>-1</v>
@@ -4011,13 +4011,13 @@
         <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AO35" s="22">
         <v>-2</v>
@@ -4032,7 +4032,7 @@
         <v>-2</v>
       </c>
       <c r="AS35" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT35" s="22">
         <v>-2</v>
@@ -4118,7 +4118,7 @@
         <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="22">
         <v>-1</v>
@@ -4130,10 +4130,10 @@
         <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="22">
         <v>-1</v>
@@ -4154,13 +4154,13 @@
         <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AP36" s="22">
         <v>-2</v>
@@ -4258,16 +4258,16 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AC37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="22">
         <v>-1</v>
@@ -4297,22 +4297,22 @@
         <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="22">
         <v>31</v>
       </c>
-      <c r="AP37" s="22">
-        <v>-2</v>
-      </c>
       <c r="AQ37" s="22">
         <v>-2</v>
       </c>
       <c r="AR37" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4374,13 +4374,13 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="22">
         <v>-1</v>
@@ -4398,25 +4398,25 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="22">
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
         <v>-1</v>
@@ -4440,7 +4440,7 @@
         <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4517,10 +4517,10 @@
         <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
         <v>-1</v>
@@ -4586,7 +4586,7 @@
         <v>-1</v>
       </c>
       <c r="AQ39" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AR39" s="22">
         <v>-1</v>
@@ -4666,19 +4666,19 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB40" s="22">
         <v>-1</v>
@@ -4729,7 +4729,7 @@
         <v>-1</v>
       </c>
       <c r="AR40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AS40" s="22">
         <v>-1</v>
@@ -4806,19 +4806,19 @@
         <v>-1</v>
       </c>
       <c r="W41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X41" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Y41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z41" s="22">
         <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="22">
         <v>-1</v>
@@ -4827,10 +4827,10 @@
         <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4842,10 +4842,10 @@
         <v>-1</v>
       </c>
       <c r="AI41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="22">
         <v>-1</v>
@@ -4857,10 +4857,10 @@
         <v>-1</v>
       </c>
       <c r="AN41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="22">
         <v>-1</v>
@@ -4946,10 +4946,10 @@
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
@@ -4958,7 +4958,7 @@
         <v>-1</v>
       </c>
       <c r="AA42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="22">
         <v>-1</v>
@@ -5098,7 +5098,7 @@
         <v>-1</v>
       </c>
       <c r="AA43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="22">
         <v>-1</v>
@@ -5238,7 +5238,7 @@
         <v>-1</v>
       </c>
       <c r="AA44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="22">
         <v>-1</v>
@@ -5378,7 +5378,7 @@
         <v>-1</v>
       </c>
       <c r="AA45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="22">
         <v>-1</v>
@@ -5390,7 +5390,7 @@
         <v>-1</v>
       </c>
       <c r="AE45" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AF45" s="22">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AM45" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AN45" s="22">
         <v>-1</v>
@@ -5491,7 +5491,7 @@
         <v>-1</v>
       </c>
       <c r="R46" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S46" s="22">
         <v>-1</v>
@@ -5518,7 +5518,7 @@
         <v>-1</v>
       </c>
       <c r="AA46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B48A73-94E5-4296-9CE2-5FB51C973D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C31ED-54FC-4172-8383-AE80DDD12E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX40" sqref="AX40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2127,7 +2127,7 @@
         <v>-2</v>
       </c>
       <c r="Z22" s="22">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="AA22" s="22">
         <v>-2</v>
@@ -2145,7 +2145,7 @@
         <v>-2</v>
       </c>
       <c r="AF22" s="22">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="AG22" s="22">
         <v>-2</v>
@@ -2415,49 +2415,49 @@
         <v>-2</v>
       </c>
       <c r="X24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA24" s="22">
         <v>-2</v>
       </c>
       <c r="AB24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="22">
         <v>0</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="22">
         <v>0</v>
       </c>
       <c r="AI24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="22">
         <v>-2</v>
@@ -2616,7 +2616,7 @@
         <v>-2</v>
       </c>
       <c r="AP25" s="22">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AQ25" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2769,7 +2769,7 @@
         <v>-2</v>
       </c>
       <c r="AR26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AS26" s="22">
         <v>-2</v>
@@ -2828,10 +2828,10 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="22">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S28" s="22">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
         <v>0</v>
@@ -3105,97 +3105,97 @@
         <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22">
+        <v>12</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="22">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AI29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="22">
+        <v>21</v>
+      </c>
+      <c r="AP29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ29" s="22">
         <v>31</v>
       </c>
-      <c r="R29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="V29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AJ29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="22">
-        <v>31</v>
-      </c>
-      <c r="AN29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP29" s="22">
-        <v>21</v>
-      </c>
-      <c r="AQ29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AR29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS29" s="22">
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3245,16 +3245,16 @@
         <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R30" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="S30" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="22">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="22">
         <v>-2</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="22">
         <v>-2</v>
@@ -3394,10 +3394,10 @@
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="U31" s="22">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3501,19 +3501,19 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3549,13 +3549,13 @@
         <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="22">
         <v>-2</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33" s="22">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K34" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="L34" s="22">
         <v>0</v>
@@ -3805,19 +3805,19 @@
         <v>-1</v>
       </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="22">
         <v>-1</v>
@@ -3829,46 +3829,46 @@
         <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="22">
         <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="22">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG34" s="22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="22">
         <v>0</v>
@@ -3924,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L35" s="22">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S35" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -3996,10 +3996,10 @@
         <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
         <v>-1</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="22">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
         <v>-1</v>
@@ -4097,7 +4097,7 @@
         <v>-1</v>
       </c>
       <c r="T36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
@@ -4130,10 +4130,10 @@
         <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
         <v>-1</v>
@@ -4207,10 +4207,10 @@
         <v>-1</v>
       </c>
       <c r="J37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L37" s="22">
         <v>0</v>
@@ -4222,19 +4222,19 @@
         <v>-1</v>
       </c>
       <c r="O37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="22">
         <v>0</v>
       </c>
       <c r="Q37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37" s="22">
         <v>0</v>
@@ -4261,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AC37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
         <v>-1</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38" s="22">
         <v>-1</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="AR39" s="22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AS39" s="22">
         <v>-1</v>
@@ -4651,7 +4651,7 @@
         <v>-1</v>
       </c>
       <c r="R40" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="S40" s="22">
         <v>-1</v>
@@ -4729,7 +4729,7 @@
         <v>-1</v>
       </c>
       <c r="AR40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AS40" s="22">
         <v>-1</v>
@@ -4818,7 +4818,7 @@
         <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB41" s="22">
         <v>-1</v>
@@ -4827,10 +4827,10 @@
         <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4842,10 +4842,10 @@
         <v>-1</v>
       </c>
       <c r="AI41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK41" s="22">
         <v>-1</v>
@@ -4857,10 +4857,10 @@
         <v>-1</v>
       </c>
       <c r="AN41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP41" s="22">
         <v>-1</v>
@@ -4958,7 +4958,7 @@
         <v>-1</v>
       </c>
       <c r="AA42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB42" s="22">
         <v>-1</v>
@@ -5098,7 +5098,7 @@
         <v>-1</v>
       </c>
       <c r="AA43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43" s="22">
         <v>-1</v>
@@ -5238,7 +5238,7 @@
         <v>-1</v>
       </c>
       <c r="AA44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB44" s="22">
         <v>-1</v>
@@ -5378,7 +5378,7 @@
         <v>-1</v>
       </c>
       <c r="AA45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB45" s="22">
         <v>-1</v>
@@ -5390,7 +5390,7 @@
         <v>-1</v>
       </c>
       <c r="AE45" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AF45" s="22">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AM45" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AN45" s="22">
         <v>-1</v>
@@ -5518,7 +5518,7 @@
         <v>-1</v>
       </c>
       <c r="AA46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C31ED-54FC-4172-8383-AE80DDD12E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA75ACC-2891-4D1B-90C4-97FDBF0BBDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX40" sqref="AX40"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2295,16 +2295,16 @@
         <v>-2</v>
       </c>
       <c r="AG23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="22">
         <v>-2</v>
@@ -2427,10 +2427,10 @@
         <v>-2</v>
       </c>
       <c r="AB24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD24" s="22">
         <v>-2</v>
@@ -2439,25 +2439,25 @@
         <v>-2</v>
       </c>
       <c r="AF24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG24" s="22">
         <v>0</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
       </c>
       <c r="AJ24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM24" s="22">
         <v>-2</v>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2589,7 +2589,7 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="22">
         <v>-2</v>
@@ -2598,7 +2598,7 @@
         <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
         <v>-2</v>
@@ -2616,7 +2616,7 @@
         <v>-2</v>
       </c>
       <c r="AP25" s="22">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AQ25" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2736,16 +2736,16 @@
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AI26" s="22">
         <v>-2</v>
       </c>
       <c r="AJ26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="22">
         <v>-2</v>
@@ -2754,7 +2754,7 @@
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AN26" s="22">
         <v>-2</v>
@@ -2834,7 +2834,7 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2876,7 +2876,7 @@
         <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="22">
         <v>-2</v>
@@ -2885,7 +2885,7 @@
         <v>-2</v>
       </c>
       <c r="AJ27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="22">
         <v>-2</v>
@@ -2971,10 +2971,10 @@
         <v>-2</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -3016,10 +3016,10 @@
         <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AI28" s="22">
         <v>-2</v>
@@ -3028,16 +3028,16 @@
         <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
@@ -3111,13 +3111,13 @@
         <v>-2</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U29" s="22">
         <v>-2</v>
@@ -3129,10 +3129,10 @@
         <v>-2</v>
       </c>
       <c r="X29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
@@ -3156,13 +3156,13 @@
         <v>-2</v>
       </c>
       <c r="AG29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="22">
         <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3174,19 +3174,19 @@
         <v>-2</v>
       </c>
       <c r="AM29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO29" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AP29" s="22">
         <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -3195,7 +3195,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3242,22 +3242,22 @@
         <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="S30" s="22">
         <v>-2</v>
       </c>
       <c r="T30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U30" s="22">
         <v>-2</v>
@@ -3269,10 +3269,10 @@
         <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
         <v>-2</v>
@@ -3284,16 +3284,16 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3329,7 +3329,7 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="22">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="AS30" s="22">
         <v>-2</v>
@@ -3352,10 +3352,10 @@
         <v>-2</v>
       </c>
       <c r="E31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="22">
         <v>-2</v>
@@ -3364,7 +3364,7 @@
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3379,61 +3379,61 @@
         <v>-2</v>
       </c>
       <c r="N31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>0</v>
+      </c>
+      <c r="R31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="22">
         <v>22</v>
       </c>
-      <c r="Q31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="R31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S31" s="22">
-        <v>22</v>
-      </c>
-      <c r="T31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U31" s="22">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AD31" s="22">
-        <v>-2</v>
-      </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3489,49 +3489,49 @@
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E32" s="22">
         <v>0</v>
       </c>
       <c r="F32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="L32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
         <v>2</v>
       </c>
-      <c r="J32" s="22">
+      <c r="P32" s="22">
         <v>2</v>
       </c>
-      <c r="K32" s="22">
-        <v>2</v>
-      </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="N32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="22">
-        <v>0</v>
-      </c>
-      <c r="P32" s="22">
-        <v>-2</v>
-      </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="22">
         <v>-2</v>
@@ -3540,7 +3540,7 @@
         <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3549,13 +3549,13 @@
         <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA32" s="22">
         <v>-2</v>
@@ -3564,7 +3564,7 @@
         <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
@@ -3635,121 +3635,121 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>0</v>
+      </c>
+      <c r="R33" s="22">
+        <v>0</v>
+      </c>
+      <c r="S33" s="22">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
+        <v>0</v>
+      </c>
+      <c r="W33" s="22">
+        <v>0</v>
+      </c>
+      <c r="X33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22">
         <v>1</v>
       </c>
-      <c r="G33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>33</v>
-      </c>
-      <c r="J33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="K33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>0</v>
-      </c>
-      <c r="R33" s="22">
-        <v>0</v>
-      </c>
-      <c r="S33" s="22">
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22">
-        <v>1</v>
-      </c>
-      <c r="W33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>0</v>
-      </c>
       <c r="AB33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ33" s="22">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
         <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM33" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="22">
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AP33" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3772,40 +3772,40 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="22">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U34" s="22">
         <v>-1</v>
@@ -3829,52 +3829,52 @@
         <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AE34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF34" s="22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AG34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI34" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="22">
         <v>-2</v>
@@ -3886,7 +3886,7 @@
         <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="22">
         <v>-2</v>
@@ -3915,49 +3915,49 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
       </c>
       <c r="N35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="22">
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -3978,46 +3978,46 @@
         <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
         <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN35" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
         <v>-2</v>
@@ -4061,19 +4061,19 @@
         <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="22">
         <v>-1</v>
@@ -4085,7 +4085,7 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
         <v>-1</v>
@@ -4097,7 +4097,7 @@
         <v>-1</v>
       </c>
       <c r="T36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
@@ -4118,49 +4118,49 @@
         <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="22">
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO36" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
         <v>-2</v>
@@ -4213,7 +4213,7 @@
         <v>-1</v>
       </c>
       <c r="L37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="22">
         <v>-1</v>
@@ -4222,10 +4222,10 @@
         <v>-1</v>
       </c>
       <c r="O37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q37" s="22">
         <v>-1</v>
@@ -4237,10 +4237,10 @@
         <v>-1</v>
       </c>
       <c r="T37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37" s="22">
         <v>-1</v>
@@ -4258,7 +4258,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
@@ -4276,34 +4276,34 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP37" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
         <v>-2</v>
@@ -4312,7 +4312,7 @@
         <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4398,7 +4398,7 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4422,25 +4422,25 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>-1</v>
       </c>
       <c r="AR39" s="22">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AS39" s="22">
         <v>-1</v>
@@ -4651,7 +4651,7 @@
         <v>-1</v>
       </c>
       <c r="R40" s="22">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="S40" s="22">
         <v>-1</v>
@@ -4714,7 +4714,7 @@
         <v>-1</v>
       </c>
       <c r="AM40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -5491,7 +5491,7 @@
         <v>-1</v>
       </c>
       <c r="R46" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="S46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA75ACC-2891-4D1B-90C4-97FDBF0BBDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B5A5AE-4645-428B-BAB1-17BAB6591F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3159,34 +3159,34 @@
         <v>0</v>
       </c>
       <c r="AH29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AI29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL29" s="22">
         <v>44</v>
       </c>
-      <c r="AJ29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AM29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP29" s="22">
         <v>44</v>
       </c>
-      <c r="AN29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AQ29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -3195,7 +3195,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AH30" s="22">
         <v>-2</v>
@@ -3615,7 +3615,7 @@
         <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3856,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="AG34" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="22">
         <v>-2</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B5A5AE-4645-428B-BAB1-17BAB6591F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA024554-9175-47F0-A3B7-BD1EFE92AA2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3859,7 +3859,7 @@
         <v>13</v>
       </c>
       <c r="AH34" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AI34" s="22">
         <v>44</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA024554-9175-47F0-A3B7-BD1EFE92AA2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E0E00-E052-427B-BDD4-4D9326211973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1842,7 +1842,7 @@
         <v>-2</v>
       </c>
       <c r="AC20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="22">
         <v>-2</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1989,10 +1989,10 @@
         <v>-2</v>
       </c>
       <c r="AC21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AE21" s="22">
         <v>-2</v>
@@ -2136,7 +2136,7 @@
         <v>-2</v>
       </c>
       <c r="AC22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="22">
         <v>-2</v>
@@ -2283,28 +2283,28 @@
         <v>-2</v>
       </c>
       <c r="AC23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23" s="22">
         <v>-2</v>
@@ -2430,10 +2430,10 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AE24" s="22">
         <v>-2</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="AH24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
       </c>
       <c r="AJ24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK24" s="22">
         <v>-2</v>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2577,7 +2577,7 @@
         <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2598,7 +2598,7 @@
         <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK25" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2724,7 +2724,7 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="22">
         <v>-2</v>
@@ -2739,13 +2739,13 @@
         <v>0</v>
       </c>
       <c r="AH26" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
         <v>-2</v>
       </c>
       <c r="AJ26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK26" s="22">
         <v>-2</v>
@@ -2754,7 +2754,7 @@
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AN26" s="22">
         <v>-2</v>
@@ -2828,34 +2828,34 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -2864,10 +2864,10 @@
         <v>-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AE27" s="22">
         <v>-2</v>
@@ -2885,7 +2885,7 @@
         <v>-2</v>
       </c>
       <c r="AJ27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK27" s="22">
         <v>-2</v>
@@ -2968,10 +2968,10 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="S28" s="22">
         <v>-2</v>
@@ -2980,7 +2980,7 @@
         <v>-2</v>
       </c>
       <c r="U28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="V28" s="22">
         <v>-2</v>
@@ -2989,13 +2989,13 @@
         <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Y28" s="22">
         <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
         <v>-2</v>
@@ -3004,7 +3004,7 @@
         <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="22">
         <v>-2</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
         <v>-2</v>
@@ -3028,10 +3028,10 @@
         <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
@@ -3135,7 +3135,7 @@
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3144,7 +3144,7 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="22">
         <v>-2</v>
@@ -3159,35 +3159,35 @@
         <v>0</v>
       </c>
       <c r="AH29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AI29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="22">
         <v>44</v>
       </c>
-      <c r="AI29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AJ29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL29" s="22">
-        <v>44</v>
-      </c>
-      <c r="AM29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP29" s="22">
-        <v>44</v>
-      </c>
-      <c r="AQ29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AR29" s="22">
         <v>-2</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3239,16 +3239,16 @@
         <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
@@ -3269,13 +3269,13 @@
         <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="22">
         <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3287,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="22">
         <v>-2</v>
@@ -3323,7 +3323,7 @@
         <v>-2</v>
       </c>
       <c r="AP30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="22">
         <v>-2</v>
@@ -3355,22 +3355,22 @@
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="22">
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
         <v>-2</v>
@@ -3382,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="S31" s="22">
         <v>-2</v>
@@ -3400,7 +3400,7 @@
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3409,13 +3409,13 @@
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Y31" s="22">
         <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="AD31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3463,7 +3463,7 @@
         <v>-2</v>
       </c>
       <c r="AP31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="22">
         <v>-2</v>
@@ -3483,127 +3483,127 @@
         <v>-2</v>
       </c>
       <c r="B32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="22">
         <v>90</v>
       </c>
-      <c r="C32" s="22">
-        <v>-2</v>
-      </c>
       <c r="D32" s="22">
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="22">
         <v>0</v>
       </c>
       <c r="G32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="22">
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
         <v>0</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <v>-2</v>
       </c>
       <c r="M32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N32" s="22">
         <v>0</v>
       </c>
       <c r="O32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG32" s="22">
+        <v>11</v>
+      </c>
+      <c r="AH32" s="22">
         <v>2</v>
       </c>
-      <c r="P32" s="22">
+      <c r="AI32" s="22">
         <v>2</v>
       </c>
-      <c r="Q32" s="22">
-        <v>0</v>
-      </c>
-      <c r="R32" s="22">
-        <v>0</v>
-      </c>
-      <c r="S32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="V32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC32" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI32" s="22">
-        <v>-2</v>
-      </c>
       <c r="AJ32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AQ32" s="22">
         <v>-2</v>
@@ -3615,7 +3615,7 @@
         <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3659,49 +3659,49 @@
         <v>0</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
         <v>31</v>
@@ -3740,16 +3740,16 @@
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AP33" s="22">
         <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3763,19 +3763,19 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="22">
         <v>91</v>
       </c>
-      <c r="C34" s="22">
-        <v>-1</v>
-      </c>
       <c r="D34" s="22">
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
@@ -3784,10 +3784,10 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="22">
         <v>-1</v>
@@ -3796,97 +3796,97 @@
         <v>-1</v>
       </c>
       <c r="M34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="22">
         <v>0</v>
       </c>
       <c r="O34" s="22">
+        <v>22</v>
+      </c>
+      <c r="P34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>33</v>
+      </c>
+      <c r="R34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="22">
+        <v>33</v>
+      </c>
+      <c r="U34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="V34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W34" s="22">
+        <v>33</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="22">
+        <v>11</v>
+      </c>
+      <c r="AE34" s="22">
         <v>2</v>
       </c>
-      <c r="P34" s="22">
+      <c r="AF34" s="22">
         <v>2</v>
       </c>
-      <c r="Q34" s="22">
-        <v>0</v>
-      </c>
-      <c r="R34" s="22">
-        <v>0</v>
-      </c>
-      <c r="S34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="X34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>22</v>
-      </c>
-      <c r="AE34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF34" s="22">
-        <v>12</v>
-      </c>
       <c r="AG34" s="22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AP34" s="22">
         <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR34" s="22">
         <v>-2</v>
@@ -3915,7 +3915,7 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -3924,7 +3924,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -3948,7 +3948,7 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
@@ -3975,7 +3975,7 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="22">
         <v>-1</v>
@@ -3984,46 +3984,46 @@
         <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="22">
         <v>-2</v>
@@ -4079,13 +4079,13 @@
         <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
         <v>-1</v>
@@ -4115,7 +4115,7 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="22">
         <v>-1</v>
@@ -4124,46 +4124,46 @@
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
         <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="22">
         <v>-2</v>
@@ -4228,34 +4228,34 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="X37" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="Y37" s="22">
         <v>-1</v>
       </c>
       <c r="Z37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="22">
         <v>-1</v>
@@ -4276,43 +4276,43 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AR37" s="22">
         <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4371,7 +4371,7 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="22">
         <v>-1</v>
@@ -4380,13 +4380,13 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
         <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
@@ -4395,7 +4395,7 @@
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4422,25 +4422,25 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4520,22 +4520,22 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
         <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
       </c>
       <c r="Z39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="22">
         <v>-1</v>
@@ -4666,16 +4666,16 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="22">
         <v>-1</v>
@@ -4714,25 +4714,25 @@
         <v>-1</v>
       </c>
       <c r="AM40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AN40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AO40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AP40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AQ40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AR40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AS40" s="22">
         <v>97</v>
-      </c>
-      <c r="AN40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AO40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AP40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AQ40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AR40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AS40" s="22">
-        <v>-1</v>
       </c>
       <c r="AT40" s="22">
         <v>-1</v>
@@ -4815,7 +4815,7 @@
         <v>-1</v>
       </c>
       <c r="Z41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="22">
         <v>-1</v>
@@ -4955,7 +4955,7 @@
         <v>-1</v>
       </c>
       <c r="Z42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="22">
         <v>-1</v>
@@ -5095,7 +5095,7 @@
         <v>-1</v>
       </c>
       <c r="Z43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="22">
         <v>-1</v>
@@ -5235,7 +5235,7 @@
         <v>-1</v>
       </c>
       <c r="Z44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="22">
         <v>-1</v>
@@ -5375,7 +5375,7 @@
         <v>-1</v>
       </c>
       <c r="Z45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="22">
         <v>-1</v>
@@ -5515,7 +5515,7 @@
         <v>-1</v>
       </c>
       <c r="Z46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="22">
         <v>-1</v>
@@ -5714,7 +5714,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:G59"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E0E00-E052-427B-BDD4-4D9326211973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC17DB1-10F2-41B2-8F31-905BC03E50A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2882,7 +2882,7 @@
         <v>-2</v>
       </c>
       <c r="AI27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="22">
         <v>-2</v>
@@ -3022,22 +3022,22 @@
         <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="22">
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
         <v>-2</v>
@@ -3165,10 +3165,10 @@
         <v>-2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL29" s="22">
         <v>-2</v>
@@ -3177,7 +3177,7 @@
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC17DB1-10F2-41B2-8F31-905BC03E50A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99278270-FECD-4329-BEB8-158224B73879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -937,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1054,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,8 +1568,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1842,7 +1845,7 @@
         <v>-2</v>
       </c>
       <c r="AC20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD20" s="22">
         <v>-2</v>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1989,10 +1992,10 @@
         <v>-2</v>
       </c>
       <c r="AC21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD21" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AE21" s="22">
         <v>-2</v>
@@ -2136,7 +2139,7 @@
         <v>-2</v>
       </c>
       <c r="AC22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD22" s="22">
         <v>-2</v>
@@ -2283,31 +2286,31 @@
         <v>-2</v>
       </c>
       <c r="AC23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="22">
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2430,10 +2433,10 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
         <v>-2</v>
@@ -2442,19 +2445,19 @@
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AJ24" s="22">
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2577,7 +2580,7 @@
         <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2589,10 +2592,10 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2601,7 +2604,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2724,7 +2727,7 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="22">
         <v>-2</v>
@@ -2736,19 +2739,19 @@
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AJ26" s="22">
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2766,7 +2769,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2828,34 +2831,34 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -2864,10 +2867,10 @@
         <v>-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
         <v>-2</v>
@@ -2876,19 +2879,19 @@
         <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="22">
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -2962,25 +2965,25 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="22">
         <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V28" s="22">
         <v>-2</v>
@@ -2989,13 +2992,13 @@
         <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Y28" s="22">
         <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
         <v>-2</v>
@@ -3004,7 +3007,7 @@
         <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD28" s="22">
         <v>-2</v>
@@ -3016,16 +3019,16 @@
         <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
         <v>-2</v>
@@ -3034,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="22">
         <v>0</v>
@@ -3102,25 +3105,25 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="22">
         <v>-2</v>
@@ -3135,7 +3138,7 @@
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3144,7 +3147,7 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="22">
         <v>-2</v>
@@ -3156,13 +3159,13 @@
         <v>-2</v>
       </c>
       <c r="AG29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3171,22 +3174,22 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AQ29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -3195,7 +3198,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3239,16 +3242,16 @@
         <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
@@ -3260,7 +3263,7 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="22">
         <v>-2</v>
@@ -3269,13 +3272,13 @@
         <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="22">
         <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3284,23 +3287,23 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="39">
         <v>33</v>
       </c>
-      <c r="AE30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="22">
-        <v>-2</v>
-      </c>
       <c r="AI30" s="22">
         <v>-2</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>-2</v>
       </c>
       <c r="AP30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ30" s="22">
         <v>-2</v>
@@ -3355,22 +3358,22 @@
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="22">
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="22">
         <v>-2</v>
@@ -3379,10 +3382,10 @@
         <v>-2</v>
       </c>
       <c r="N31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3391,16 +3394,16 @@
         <v>-2</v>
       </c>
       <c r="R31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3409,34 +3412,34 @@
         <v>-2</v>
       </c>
       <c r="X31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="22">
         <v>22</v>
       </c>
-      <c r="Y31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="22">
-        <v>-2</v>
-      </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AG31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3463,7 +3466,7 @@
         <v>-2</v>
       </c>
       <c r="AP31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ31" s="22">
         <v>-2</v>
@@ -3483,34 +3486,34 @@
         <v>-2</v>
       </c>
       <c r="B32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="C32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="D32" s="22">
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="22">
         <v>0</v>
       </c>
       <c r="G32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="22">
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <v>0</v>
       </c>
       <c r="K32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="22">
         <v>-2</v>
@@ -3519,13 +3522,13 @@
         <v>-2</v>
       </c>
       <c r="N32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="22">
         <v>-2</v>
@@ -3540,7 +3543,7 @@
         <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3558,64 +3561,64 @@
         <v>0</v>
       </c>
       <c r="AA32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AC32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AF32" s="22">
         <v>-2</v>
       </c>
       <c r="AG32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH32" s="22">
+        <v>31</v>
+      </c>
+      <c r="AI32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK32" s="22">
+        <v>31</v>
+      </c>
+      <c r="AL32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN32" s="22">
+        <v>31</v>
+      </c>
+      <c r="AO32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ32" s="22">
+        <v>31</v>
+      </c>
+      <c r="AR32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AS32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AT32" s="22">
         <v>11</v>
-      </c>
-      <c r="AH32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AI32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AL32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AM32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AN32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AO32" s="22">
-        <v>2</v>
-      </c>
-      <c r="AP32" s="22">
-        <v>13</v>
-      </c>
-      <c r="AQ32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AR32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AS32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AT32" s="22">
-        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3659,43 +3662,43 @@
         <v>0</v>
       </c>
       <c r="N33" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="T33" s="22">
         <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="22">
         <v>0</v>
@@ -3740,16 +3743,16 @@
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AP33" s="22">
         <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3763,19 +3766,19 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="C34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="22">
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
@@ -3784,10 +3787,10 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
         <v>-1</v>
@@ -3799,94 +3802,94 @@
         <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="22">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>11</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="22">
         <v>22</v>
       </c>
-      <c r="P34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>33</v>
-      </c>
-      <c r="R34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>33</v>
-      </c>
-      <c r="U34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="22">
-        <v>33</v>
-      </c>
-      <c r="X34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>11</v>
-      </c>
       <c r="AE34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF34" s="22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AG34" s="22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AI34" s="22">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AL34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AM34" s="22">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP34" s="22">
         <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="22">
         <v>-2</v>
@@ -3915,7 +3918,7 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -3924,7 +3927,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -3939,13 +3942,13 @@
         <v>-1</v>
       </c>
       <c r="N35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -3954,10 +3957,10 @@
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -3975,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
         <v>-1</v>
@@ -3984,46 +3987,46 @@
         <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ35" s="22">
         <v>-2</v>
@@ -4079,10 +4082,10 @@
         <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P36" s="22">
         <v>0</v>
@@ -4094,7 +4097,7 @@
         <v>-1</v>
       </c>
       <c r="S36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
@@ -4115,7 +4118,7 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
         <v>-1</v>
@@ -4124,46 +4127,46 @@
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="22">
         <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ36" s="22">
         <v>-2</v>
@@ -4228,34 +4231,34 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="X37" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="Y37" s="22">
         <v>-1</v>
       </c>
       <c r="Z37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37" s="22">
         <v>-1</v>
@@ -4276,43 +4279,43 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AR37" s="22">
         <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4371,7 +4374,7 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S38" s="22">
         <v>-1</v>
@@ -4380,13 +4383,13 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="22">
         <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
@@ -4395,7 +4398,7 @@
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4422,25 +4425,25 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4520,22 +4523,22 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
         <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
       </c>
       <c r="Z39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39" s="22">
         <v>-1</v>
@@ -4666,16 +4669,16 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="22">
         <v>-1</v>
@@ -4726,13 +4729,13 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
       </c>
       <c r="AS40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AT40" s="22">
         <v>-1</v>
@@ -4815,7 +4818,7 @@
         <v>-1</v>
       </c>
       <c r="Z41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41" s="22">
         <v>-1</v>
@@ -4955,7 +4958,7 @@
         <v>-1</v>
       </c>
       <c r="Z42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42" s="22">
         <v>-1</v>
@@ -5095,7 +5098,7 @@
         <v>-1</v>
       </c>
       <c r="Z43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43" s="22">
         <v>-1</v>
@@ -5235,7 +5238,7 @@
         <v>-1</v>
       </c>
       <c r="Z44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44" s="22">
         <v>-1</v>
@@ -5375,7 +5378,7 @@
         <v>-1</v>
       </c>
       <c r="Z45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45" s="22">
         <v>-1</v>
@@ -5515,7 +5518,7 @@
         <v>-1</v>
       </c>
       <c r="Z46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99278270-FECD-4329-BEB8-158224B73879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BE642-06B7-4EA3-BC52-67CE3599DC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -937,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,9 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR33" sqref="AR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1761,19 +1758,19 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="22">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="F20" s="22">
         <v>-2</v>
@@ -1903,24 +1900,24 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B21" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="C21" s="22">
         <v>-2</v>
       </c>
       <c r="D21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="22">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="F21" s="22">
         <v>-2</v>
@@ -2055,7 +2052,7 @@
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="22">
         <v>-2</v>
@@ -2064,7 +2061,7 @@
         <v>-2</v>
       </c>
       <c r="D22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="22">
         <v>-2</v>
@@ -2169,7 +2166,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -2202,16 +2199,16 @@
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="C23" s="22">
         <v>-2</v>
       </c>
       <c r="D23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="22">
         <v>-2</v>
@@ -2220,37 +2217,37 @@
         <v>-2</v>
       </c>
       <c r="G23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2301,16 +2298,16 @@
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2349,16 +2346,16 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="22">
         <v>-2</v>
@@ -2367,34 +2364,34 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="22">
         <v>-2</v>
@@ -2448,16 +2445,16 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ24" s="22">
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2491,12 +2488,12 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="22">
         <v>-2</v>
@@ -2550,7 +2547,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2595,7 +2592,7 @@
         <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2604,19 +2601,19 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2638,12 +2635,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2697,7 +2694,7 @@
         <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2742,16 +2739,16 @@
         <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="22">
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2769,7 +2766,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2783,7 +2780,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="22">
         <v>-2</v>
@@ -2792,7 +2789,7 @@
         <v>-2</v>
       </c>
       <c r="D27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="22">
         <v>-2</v>
@@ -2831,13 +2828,13 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2846,7 +2843,7 @@
         <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2882,7 +2879,7 @@
         <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -2891,7 +2888,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -2923,16 +2920,16 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="22">
         <v>-2</v>
@@ -2965,28 +2962,28 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="22">
         <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
         <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -2995,13 +2992,13 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
@@ -3022,10 +3019,10 @@
         <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
@@ -3034,31 +3031,31 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3108,25 +3105,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -3135,16 +3132,16 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
@@ -3162,10 +3159,10 @@
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3174,7 +3171,7 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
@@ -3186,7 +3183,7 @@
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3198,7 +3195,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3233,16 +3230,16 @@
         <v>-2</v>
       </c>
       <c r="K30" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
@@ -3251,22 +3248,22 @@
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="22">
         <v>-2</v>
@@ -3275,10 +3272,10 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3287,22 +3284,22 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="39">
-        <v>33</v>
+        <v>-2</v>
+      </c>
+      <c r="AH30" s="22">
+        <v>-2</v>
       </c>
       <c r="AI30" s="22">
         <v>-2</v>
@@ -3358,7 +3355,7 @@
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
         <v>-2</v>
@@ -3367,46 +3364,46 @@
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
@@ -3415,7 +3412,7 @@
         <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3424,19 +3421,19 @@
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3448,7 +3445,7 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
@@ -3460,7 +3457,7 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3472,7 +3469,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3486,19 +3483,19 @@
         <v>-2</v>
       </c>
       <c r="B32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="E32" s="22">
         <v>90</v>
       </c>
-      <c r="C32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="D32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
       <c r="F32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
@@ -3507,16 +3504,16 @@
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3525,100 +3522,100 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P32" s="22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="W32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="Z32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="22">
         <v>-2</v>
       </c>
       <c r="AD32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AK32" s="22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AR32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AS32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3659,103 +3656,103 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T33" s="22">
+        <v>33</v>
+      </c>
+      <c r="U33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W33" s="22">
+        <v>33</v>
+      </c>
+      <c r="X33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>12</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AH33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AI33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AK33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AN33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AQ33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AS33" s="22">
         <v>21</v>
-      </c>
-      <c r="T33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22">
-        <v>0</v>
-      </c>
-      <c r="W33" s="22">
-        <v>0</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AG33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AJ33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AM33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AP33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AR33" s="22">
-        <v>31</v>
-      </c>
-      <c r="AS33" s="22">
-        <v>-2</v>
       </c>
       <c r="AT33" s="22">
         <v>-2</v>
@@ -3766,46 +3763,46 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="22">
         <v>91</v>
       </c>
-      <c r="C34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="D34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
@@ -3817,13 +3814,13 @@
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
         <v>-1</v>
@@ -3841,64 +3838,64 @@
         <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="22">
         <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AG34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3918,7 +3915,7 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -3927,25 +3924,25 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <v>-1</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
         <v>0</v>
@@ -3957,10 +3954,10 @@
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -3978,67 +3975,67 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AA35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="22">
         <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4079,7 +4076,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
         <v>-1</v>
@@ -4091,28 +4088,28 @@
         <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="22">
         <v>-1</v>
@@ -4121,64 +4118,64 @@
         <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="22">
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4237,7 +4234,7 @@
         <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
         <v>-1</v>
@@ -4261,7 +4258,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
@@ -4279,46 +4276,46 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4326,13 +4323,13 @@
         <v>-1</v>
       </c>
       <c r="B38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="22">
         <v>-1</v>
@@ -4377,10 +4374,10 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="U38" s="22">
         <v>-1</v>
@@ -4389,19 +4386,19 @@
         <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4410,10 +4407,10 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="22">
         <v>-1</v>
@@ -4425,10 +4422,10 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
         <v>0</v>
@@ -4437,28 +4434,28 @@
         <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
         <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4469,7 +4466,7 @@
         <v>-1</v>
       </c>
       <c r="C39" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="D39" s="22">
         <v>-1</v>
@@ -4478,7 +4475,7 @@
         <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="22">
         <v>-1</v>
@@ -4517,22 +4514,22 @@
         <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
@@ -4562,10 +4559,10 @@
         <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="22">
         <v>-1</v>
@@ -4586,7 +4583,7 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="22">
         <v>-1</v>
@@ -4624,7 +4621,7 @@
         <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="22">
         <v>-1</v>
@@ -4729,7 +4726,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4770,7 +4767,7 @@
         <v>-1</v>
       </c>
       <c r="J41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="22">
         <v>-1</v>
@@ -4916,10 +4913,10 @@
         <v>-1</v>
       </c>
       <c r="L42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="22">
         <v>-1</v>
@@ -4997,13 +4994,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -5059,7 +5056,7 @@
         <v>-1</v>
       </c>
       <c r="M43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="22">
         <v>-1</v>
@@ -5068,7 +5065,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BE642-06B7-4EA3-BC52-67CE3599DC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D5978-164C-4246-B0A4-18C93171624E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -79,9 +79,6 @@
   <si>
     <t>Start</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>End</t>
   </si>
   <si>
     <t>SetStage</t>
@@ -595,6 +592,33 @@
   </si>
   <si>
     <t>EndDogInfo</t>
+  </si>
+  <si>
+    <t>胴体の高さ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尻</t>
+    <rPh sb="0" eb="1">
+      <t>シリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetDogInfo</t>
   </si>
 </sst>
 </file>
@@ -937,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1078,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1563,16 +1602,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR33" sqref="AR33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I56" sqref="I55:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="3.19921875" style="10" customWidth="1"/>
-    <col min="5" max="46" width="3.19921875" customWidth="1"/>
+    <col min="5" max="5" width="3.09765625" customWidth="1"/>
+    <col min="6" max="46" width="3.19921875" customWidth="1"/>
     <col min="47" max="47" width="3.69921875" customWidth="1"/>
     <col min="50" max="50" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="4.69921875" bestFit="1" customWidth="1"/>
@@ -1589,7 +1629,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -1597,7 +1637,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="10">
         <v>27</v>
@@ -1608,19 +1648,19 @@
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1629,7 +1669,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -1646,7 +1686,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10">
         <v>255</v>
@@ -1667,7 +1707,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="10">
         <v>255</v>
@@ -1684,7 +1724,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10">
         <v>52</v>
@@ -1701,7 +1741,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -1721,7 +1761,7 @@
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1744,33 +1784,33 @@
     </row>
     <row r="17" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="22">
         <v>-2</v>
@@ -1896,28 +1936,28 @@
         <v>-2</v>
       </c>
       <c r="AX20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B21" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="C21" s="22">
         <v>-2</v>
       </c>
       <c r="D21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E21" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="F21" s="22">
         <v>-2</v>
@@ -2043,7 +2083,7 @@
         <v>-2</v>
       </c>
       <c r="AX21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$20:$AT$46,11,$A$20:$AT$46,12,A20:$AT$46,13)</f>
@@ -2052,7 +2092,7 @@
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B22" s="22">
         <v>-2</v>
@@ -2061,7 +2101,7 @@
         <v>-2</v>
       </c>
       <c r="D22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E22" s="22">
         <v>-2</v>
@@ -2166,7 +2206,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -2190,7 +2230,7 @@
         <v>-2</v>
       </c>
       <c r="AX22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$20:$AT$46,21,$A$20:$AT$46,22)</f>
@@ -2199,16 +2239,16 @@
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B23" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="C23" s="22">
         <v>-2</v>
       </c>
       <c r="D23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E23" s="22">
         <v>-2</v>
@@ -2217,37 +2257,37 @@
         <v>-2</v>
       </c>
       <c r="G23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O23" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2337,7 +2377,7 @@
         <v>-2</v>
       </c>
       <c r="AX23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AY23">
         <f>COUNTIFS($A$20:$AT$46,31,$A$20:$AT$46,33)</f>
@@ -2346,16 +2386,16 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E24" s="22">
         <v>-2</v>
@@ -2364,34 +2404,34 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q24" s="22">
         <v>-2</v>
@@ -2433,10 +2473,10 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
@@ -2484,16 +2524,16 @@
         <v>-2</v>
       </c>
       <c r="AX24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B25" s="22">
         <v>-2</v>
@@ -2547,7 +2587,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2574,10 +2614,10 @@
         <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2598,7 +2638,7 @@
         <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AK25" s="22">
         <v>-2</v>
@@ -2607,13 +2647,13 @@
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2631,16 +2671,16 @@
         <v>-2</v>
       </c>
       <c r="AX25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2694,7 +2734,7 @@
         <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2733,10 +2773,10 @@
         <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2780,7 +2820,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="22">
         <v>-2</v>
@@ -2789,7 +2829,7 @@
         <v>-2</v>
       </c>
       <c r="D27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="22">
         <v>-2</v>
@@ -2828,7 +2868,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2837,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
         <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2852,10 +2892,10 @@
         <v>-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -2873,63 +2913,63 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="22">
         <v>-2</v>
@@ -2968,13 +3008,13 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2983,7 +3023,7 @@
         <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -2995,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
         <v>0</v>
@@ -3013,10 +3053,10 @@
         <v>-2</v>
       </c>
       <c r="AF28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -3025,7 +3065,7 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AK28" s="22">
         <v>-2</v>
@@ -3034,13 +3074,13 @@
         <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AP28" s="22">
         <v>-2</v>
@@ -3049,7 +3089,7 @@
         <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS28" s="22">
         <v>-2</v>
@@ -3102,28 +3142,28 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V29" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -3132,16 +3172,16 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AA29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
@@ -3153,7 +3193,7 @@
         <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
@@ -3230,70 +3270,70 @@
         <v>-2</v>
       </c>
       <c r="K30" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="22">
         <v>0</v>
       </c>
       <c r="W30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="22">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3370,49 +3410,49 @@
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="Y31" s="22">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3424,10 +3464,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3436,7 +3476,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3445,10 +3485,10 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AL31" s="22">
         <v>-2</v>
@@ -3457,10 +3497,10 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AP31" s="22">
         <v>-2</v>
@@ -3469,7 +3509,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3492,11 +3532,11 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="22">
         <v>90</v>
       </c>
-      <c r="F32" s="22">
-        <v>-2</v>
-      </c>
       <c r="G32" s="22">
         <v>-2</v>
       </c>
@@ -3510,10 +3550,10 @@
         <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3522,37 +3562,37 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="22">
         <v>-2</v>
@@ -3564,58 +3604,58 @@
         <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="AD32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AR32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AS32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3656,58 +3696,58 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="22">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R33" s="22">
         <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="V33" s="22">
         <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="Y33" s="22">
         <v>-2</v>
       </c>
       <c r="Z33" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AA33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AB33" s="22">
         <v>-2</v>
       </c>
       <c r="AC33" s="22">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="AD33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
         <v>-2</v>
@@ -3716,7 +3756,7 @@
         <v>-2</v>
       </c>
       <c r="AG33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
         <v>-2</v>
@@ -3725,7 +3765,7 @@
         <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
         <v>-2</v>
@@ -3734,7 +3774,7 @@
         <v>-2</v>
       </c>
       <c r="AM33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="22">
         <v>-2</v>
@@ -3743,7 +3783,7 @@
         <v>-2</v>
       </c>
       <c r="AP33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
@@ -3752,7 +3792,7 @@
         <v>-2</v>
       </c>
       <c r="AS33" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT33" s="22">
         <v>-2</v>
@@ -3772,37 +3812,37 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="22">
         <v>91</v>
       </c>
-      <c r="F34" s="22">
-        <v>-1</v>
-      </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
         <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L34" s="22">
         <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N34" s="22">
         <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
@@ -3820,82 +3860,82 @@
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="W34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X34" s="22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AA34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC34" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN34" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR34" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3930,13 +3970,13 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
         <v>-1</v>
       </c>
       <c r="M35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
@@ -3945,7 +3985,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -3963,79 +4003,79 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="X35" s="22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z35" s="22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB35" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AD35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AN35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4076,7 +4116,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="22">
         <v>-1</v>
@@ -4085,97 +4125,97 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="V36" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W36" s="22">
+        <v>0</v>
+      </c>
+      <c r="X36" s="22">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="22">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="22">
         <v>11</v>
       </c>
-      <c r="T36" s="22">
-        <v>22</v>
-      </c>
-      <c r="U36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="V36" s="22">
-        <v>22</v>
-      </c>
-      <c r="W36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="X36" s="22">
-        <v>22</v>
-      </c>
-      <c r="Y36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Z36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AA36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AC36" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AD36" s="22">
-        <v>-1</v>
-      </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4234,7 +4274,7 @@
         <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37" s="22">
         <v>-1</v>
@@ -4258,7 +4298,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
@@ -4267,55 +4307,55 @@
         <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4323,13 +4363,13 @@
         <v>-1</v>
       </c>
       <c r="B38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="22">
         <v>-1</v>
@@ -4374,31 +4414,31 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4410,52 +4450,52 @@
         <v>0</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4466,7 +4506,7 @@
         <v>-1</v>
       </c>
       <c r="C39" s="22">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="22">
         <v>-1</v>
@@ -4475,7 +4515,7 @@
         <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="22">
         <v>-1</v>
@@ -4514,22 +4554,22 @@
         <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
@@ -4547,16 +4587,16 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="22">
         <v>0</v>
@@ -4565,37 +4605,37 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="22">
         <v>0</v>
       </c>
       <c r="AQ39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4621,7 +4661,7 @@
         <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="22">
         <v>-1</v>
@@ -4654,10 +4694,10 @@
         <v>-1</v>
       </c>
       <c r="S40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="22">
         <v>-1</v>
@@ -4726,7 +4766,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4767,7 +4807,7 @@
         <v>-1</v>
       </c>
       <c r="J41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="22">
         <v>-1</v>
@@ -4845,7 +4885,7 @@
         <v>-1</v>
       </c>
       <c r="AJ41" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AK41" s="22">
         <v>-1</v>
@@ -4913,10 +4953,10 @@
         <v>-1</v>
       </c>
       <c r="L42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="22">
         <v>-1</v>
@@ -4994,13 +5034,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -5056,7 +5096,7 @@
         <v>-1</v>
       </c>
       <c r="M43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="22">
         <v>-1</v>
@@ -5065,7 +5105,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q43" s="22">
         <v>-1</v>
@@ -5580,7 +5620,7 @@
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -5592,55 +5632,151 @@
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50"/>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52"/>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53"/>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54"/>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55"/>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56"/>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5712,10 +5848,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:G59"/>
+    <sheetView topLeftCell="A73" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5737,7 +5873,7 @@
         <v>-3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5745,7 +5881,7 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -5754,7 +5890,7 @@
         <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -5762,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -5776,7 +5912,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -5790,13 +5926,13 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5818,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5826,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5834,7 +5970,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -5842,10 +5978,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -5853,10 +5989,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -5864,10 +6000,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -5875,10 +6011,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -5886,10 +6022,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -5897,10 +6033,10 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -5908,10 +6044,10 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -5919,10 +6055,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -5946,7 +6082,7 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -5962,13 +6098,13 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -5977,7 +6113,7 @@
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -5991,45 +6127,45 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -6038,26 +6174,26 @@
       <c r="F33" s="37"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
       <c r="F34" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G34" s="27"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="28"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -6066,9 +6202,9 @@
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="10">
@@ -6085,9 +6221,9 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="10">
@@ -6104,9 +6240,9 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="10">
@@ -6123,9 +6259,9 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="10">
@@ -6142,9 +6278,9 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="10">
@@ -6161,9 +6297,9 @@
       </c>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="10">
@@ -6180,7 +6316,7 @@
       </c>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="28"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -6189,9 +6325,9 @@
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -6200,82 +6336,53 @@
       <c r="F43" s="33"/>
       <c r="G43" s="34"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="I47" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A48" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A49" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="I48" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="B49" s="29">
         <v>1</v>
       </c>
       <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="30"/>
-      <c r="I49" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J49" s="29">
-        <v>1</v>
-      </c>
-      <c r="K49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="O49" s="30"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="28"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -6283,41 +6390,23 @@
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="30"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
-      <c r="I51" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="29">
         <v>5</v>
@@ -6331,29 +6420,12 @@
         <v>61</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A53" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="J52" s="29">
-        <v>5</v>
-      </c>
-      <c r="K52" s="29">
-        <v>10</v>
-      </c>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="B53" s="29">
         <v>5</v>
@@ -6367,29 +6439,12 @@
         <v>61</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A54" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="J53" s="29">
-        <v>1</v>
-      </c>
-      <c r="K53" s="29">
-        <v>0</v>
-      </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O53" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="B54" s="29">
         <v>1</v>
@@ -6400,28 +6455,15 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" s="29">
-        <v>120</v>
-      </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="O54" s="30"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -6429,17 +6471,8 @@
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
-      <c r="I55" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="30"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="28"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -6447,17 +6480,10 @@
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="30"/>
-    </row>
-    <row r="57" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="57" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -6465,22 +6491,13 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="34"/>
-      <c r="I57" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="34"/>
-    </row>
-    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="58" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -6488,19 +6505,10 @@
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="38"/>
-      <c r="I59" s="36" t="s">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="38"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="28" t="s">
-        <v>87</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6508,43 +6516,23 @@
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
-      <c r="I60" s="28" t="s">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A61" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="28" t="s">
-        <v>89</v>
       </c>
       <c r="B61" s="29">
         <v>1</v>
       </c>
       <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="29"/>
       <c r="F61" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="I61" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J61" s="29">
-        <v>1</v>
-      </c>
-      <c r="K61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="O61" s="30"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="28"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -6552,41 +6540,23 @@
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="30"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
-      <c r="I63" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="30"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="29">
         <v>5</v>
@@ -6600,29 +6570,13 @@
         <v>61</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J64" s="29">
-        <v>5</v>
-      </c>
-      <c r="K64" s="29">
-        <v>10</v>
-      </c>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O64" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="R64" s="39"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="29">
         <v>5</v>
@@ -6636,29 +6590,13 @@
         <v>61</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" s="29">
-        <v>5</v>
-      </c>
-      <c r="K65" s="29">
-        <v>10</v>
-      </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O65" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="R65" s="39"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="29">
         <v>1</v>
@@ -6669,32 +6607,18 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I66" s="28" t="s">
+      <c r="R66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="J66" s="29">
-        <v>1</v>
-      </c>
-      <c r="K66" s="29">
-        <v>0</v>
-      </c>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O66" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A67" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -6702,17 +6626,11 @@
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
-      <c r="I67" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="30"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="R67" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="28"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -6720,17 +6638,13 @@
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="30"/>
-    </row>
-    <row r="69" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R68" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -6738,25 +6652,309 @@
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
       <c r="G69" s="34"/>
-      <c r="I69" s="35" t="s">
+      <c r="R69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A72" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="27"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="29">
+        <v>1</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="30"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="30"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="29">
+        <v>5</v>
+      </c>
+      <c r="C76" s="29">
+        <v>10</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A77" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="29">
+        <v>1</v>
+      </c>
+      <c r="C77" s="29">
+        <v>0</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A78" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="29">
+        <v>120</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="30"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A79" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="42"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="27"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="29">
+        <v>1</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="30"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="29">
+        <v>5</v>
+      </c>
+      <c r="C88" s="29">
+        <v>10</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="29">
+        <v>5</v>
+      </c>
+      <c r="C89" s="29">
+        <v>10</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="29">
+        <v>2</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="34"/>
+      <c r="G90" s="30"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="30"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="30"/>
+    </row>
+    <row r="93" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="A59:G59"/>
-    <mergeCell ref="I59:O59"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="I47:O47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D5978-164C-4246-B0A4-18C93171624E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8092A55-E04D-4165-85CC-CC0D0922987B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1070,16 +1070,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,8 +1085,14 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,8 +1604,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I56" sqref="I55:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5673,7 +5673,7 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -5687,10 +5687,10 @@
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5734,10 +5734,10 @@
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5748,7 +5748,7 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -5860,13 +5860,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6112,15 +6112,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6164,15 +6164,15 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -6346,18 +6346,18 @@
     </row>
     <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="26"/>
@@ -6496,15 +6496,15 @@
       <c r="A58"/>
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
@@ -6572,7 +6572,7 @@
       <c r="G64" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R64" s="39"/>
+      <c r="R64" s="36"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
@@ -6592,7 +6592,7 @@
       <c r="G65" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="39"/>
+      <c r="R65" s="36"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
@@ -6658,18 +6658,18 @@
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="42"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="26"/>
@@ -6804,18 +6804,18 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="40"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="37" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="26"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8092A55-E04D-4165-85CC-CC0D0922987B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C90470-C58B-43EE-957C-4F1957BD4D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1604,8 +1604,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT65"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AA28" s="22">
         <v>0</v>
@@ -3312,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Z30" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="22">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
@@ -3467,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="AD31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="V33" s="22">
         <v>-2</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="W34" s="22">
         <v>-2</v>
@@ -3887,10 +3887,10 @@
         <v>6</v>
       </c>
       <c r="AD34" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AE34" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF34" s="22">
         <v>-2</v>
@@ -4006,22 +4006,22 @@
         <v>0</v>
       </c>
       <c r="W35" s="22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X35" s="22">
         <v>6</v>
       </c>
       <c r="Y35" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Z35" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA35" s="22">
         <v>21</v>
       </c>
-      <c r="AA35" s="22">
-        <v>-2</v>
-      </c>
       <c r="AB35" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AC35" s="22">
         <v>6</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C90470-C58B-43EE-957C-4F1957BD4D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE5174-83A7-44B8-8765-F71B8BF36A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1604,8 +1604,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2458,34 +2458,34 @@
         <v>-2</v>
       </c>
       <c r="Y24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="22">
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="22">
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2614,13 +2614,13 @@
         <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="22">
         <v>-2</v>
@@ -2638,7 +2638,7 @@
         <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AK25" s="22">
         <v>-2</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2773,10 +2773,10 @@
         <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2809,7 +2809,7 @@
         <v>-2</v>
       </c>
       <c r="AR26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AS26" s="22">
         <v>-2</v>
@@ -2874,13 +2874,13 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
         <v>0</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
         <v>-2</v>
@@ -2892,10 +2892,10 @@
         <v>-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -2913,49 +2913,49 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3014,13 +3014,13 @@
         <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="U28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V28" s="22">
         <v>-2</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
         <v>0</v>
       </c>
       <c r="AB28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="22">
         <v>-2</v>
@@ -3053,10 +3053,10 @@
         <v>-2</v>
       </c>
       <c r="AF28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -3065,37 +3065,37 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3145,25 +3145,25 @@
         <v>-2</v>
       </c>
       <c r="P29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -3172,13 +3172,13 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
       </c>
       <c r="AA29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB29" s="22">
         <v>-2</v>
@@ -3193,7 +3193,7 @@
         <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
@@ -3208,10 +3208,10 @@
         <v>-2</v>
       </c>
       <c r="AK29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
@@ -3220,7 +3220,7 @@
         <v>-2</v>
       </c>
       <c r="AO29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AP29" s="22">
         <v>-2</v>
@@ -3229,7 +3229,7 @@
         <v>-2</v>
       </c>
       <c r="AR29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS29" s="22">
         <v>-2</v>
@@ -3300,19 +3300,19 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
         <v>-2</v>
@@ -3321,19 +3321,19 @@
         <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3369,7 +3369,7 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="22">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AS30" s="22">
         <v>-2</v>
@@ -3392,7 +3392,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="22">
         <v>-2</v>
@@ -3440,19 +3440,19 @@
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3464,10 +3464,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3476,7 +3476,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3488,7 +3488,7 @@
         <v>-2</v>
       </c>
       <c r="AK31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AL31" s="22">
         <v>-2</v>
@@ -3500,7 +3500,7 @@
         <v>-2</v>
       </c>
       <c r="AO31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AP31" s="22">
         <v>-2</v>
@@ -3509,7 +3509,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3523,19 +3523,19 @@
         <v>-2</v>
       </c>
       <c r="B32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="C32" s="22">
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
@@ -3553,7 +3553,7 @@
         <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3580,7 +3580,7 @@
         <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3589,7 +3589,7 @@
         <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
         <v>-2</v>
@@ -3604,7 +3604,7 @@
         <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
         <v>0</v>
@@ -3708,67 +3708,67 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
+        <v>0</v>
+      </c>
+      <c r="R33" s="22">
+        <v>0</v>
+      </c>
+      <c r="S33" s="22">
+        <v>0</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22">
+        <v>0</v>
+      </c>
+      <c r="V33" s="22">
         <v>1</v>
       </c>
-      <c r="R33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S33" s="22">
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
-        <v>31</v>
-      </c>
-      <c r="V33" s="22">
-        <v>-2</v>
-      </c>
       <c r="W33" s="22">
         <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="22">
         <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="22">
         <v>-2</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
         <v>-2</v>
@@ -3803,7 +3803,7 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
@@ -3815,103 +3815,103 @@
         <v>-1</v>
       </c>
       <c r="F34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="22">
+        <v>12</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="22">
         <v>2</v>
       </c>
-      <c r="K34" s="22">
+      <c r="Q34" s="22">
         <v>2</v>
       </c>
-      <c r="L34" s="22">
+      <c r="R34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="22">
         <v>2</v>
       </c>
-      <c r="M34" s="22">
-        <v>2</v>
-      </c>
-      <c r="N34" s="22">
-        <v>2</v>
-      </c>
-      <c r="O34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>-1</v>
-      </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="W34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AM34" s="22">
         <v>-2</v>
@@ -3920,22 +3920,22 @@
         <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AQ34" s="22">
         <v>-2</v>
       </c>
       <c r="AR34" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS34" s="22">
         <v>-2</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3961,7 +3961,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="22">
         <v>-1</v>
@@ -3973,7 +3973,7 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -4003,58 +4003,58 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="22">
         <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN35" s="22">
         <v>-2</v>
@@ -4066,7 +4066,7 @@
         <v>-2</v>
       </c>
       <c r="AQ35" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR35" s="22">
         <v>-2</v>
@@ -4075,7 +4075,7 @@
         <v>-2</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4101,19 +4101,19 @@
         <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="K36" s="22">
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
         <v>-1</v>
@@ -4146,49 +4146,49 @@
         <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="22">
         <v>-2</v>
@@ -4247,13 +4247,13 @@
         <v>-1</v>
       </c>
       <c r="J37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="22">
         <v>-1</v>
@@ -4307,28 +4307,28 @@
         <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="22">
         <v>-2</v>
@@ -4420,10 +4420,10 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
@@ -4447,55 +4447,55 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4587,55 +4587,55 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4694,10 +4694,10 @@
         <v>-1</v>
       </c>
       <c r="S40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U40" s="22">
         <v>-1</v>
@@ -4709,19 +4709,19 @@
         <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="22">
         <v>-1</v>
@@ -4769,7 +4769,7 @@
         <v>-1</v>
       </c>
       <c r="AR40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AS40" s="22">
         <v>-1</v>
@@ -4849,16 +4849,16 @@
         <v>-1</v>
       </c>
       <c r="X41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z41" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AA41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="22">
         <v>-1</v>
@@ -4885,7 +4885,7 @@
         <v>-1</v>
       </c>
       <c r="AJ41" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AK41" s="22">
         <v>-1</v>
@@ -4989,13 +4989,13 @@
         <v>-1</v>
       </c>
       <c r="X42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
       </c>
       <c r="Z42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="22">
         <v>-1</v>
@@ -5129,10 +5129,10 @@
         <v>-1</v>
       </c>
       <c r="X43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE5174-83A7-44B8-8765-F71B8BF36A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37D70C2-47DF-4D68-97EC-8A650C387BF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -537,9 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EndMeteor</t>
-  </si>
-  <si>
     <t>レーザーの設定</t>
     <rPh sb="5" eb="7">
       <t>セッテイ</t>
@@ -618,7 +615,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SetDogInfo</t>
+    <t>EndMeteor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetMeteor</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -961,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1095,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,8 +1609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3369,7 +3374,7 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="22">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="AS30" s="22">
         <v>-2</v>
@@ -5627,156 +5632,173 @@
       <c r="D47"/>
     </row>
     <row r="48" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29">
+        <v>1</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53">
-        <v>24</v>
-      </c>
-      <c r="F53">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29">
+        <v>43</v>
+      </c>
+      <c r="F53" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54">
-        <v>24</v>
-      </c>
-      <c r="F54">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29">
+        <v>1</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29">
+        <v>120</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59">
-        <v>29</v>
-      </c>
-      <c r="F59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60">
-        <v>29</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="10" t="s">
-        <v>98</v>
-      </c>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5850,8 +5872,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:G83"/>
+    <sheetView topLeftCell="A55" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6497,7 +6519,7 @@
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -6508,7 +6530,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6519,7 +6541,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="29">
         <v>1</v>
@@ -6543,7 +6565,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>55</v>
@@ -6613,12 +6635,12 @@
         <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -6644,7 +6666,7 @@
     </row>
     <row r="69" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -6653,7 +6675,7 @@
       <c r="F69" s="33"/>
       <c r="G69" s="34"/>
       <c r="R69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -6705,7 +6727,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="28" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>55</v>
@@ -6771,7 +6793,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -6805,7 +6827,7 @@
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -6816,7 +6838,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -6827,7 +6849,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="29">
         <v>1</v>
@@ -6851,7 +6873,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>55</v>
@@ -6864,7 +6886,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="29">
         <v>5</v>
@@ -6883,7 +6905,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="29">
         <v>5</v>
@@ -6902,7 +6924,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="29">
         <v>2</v>
@@ -6911,13 +6933,13 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -6937,7 +6959,7 @@
     </row>
     <row r="93" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37D70C2-47DF-4D68-97EC-8A650C387BF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A003A6-1A42-45C0-9945-CBE24ACF05D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -620,6 +620,68 @@
   </si>
   <si>
     <t>SetMeteor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杭の設定</t>
+    <rPh sb="0" eb="1">
+      <t>クイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetPile</t>
+  </si>
+  <si>
+    <t>PileMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetPileInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndPile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndPileInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NumPile</t>
+  </si>
+  <si>
+    <t>CaveIn</t>
+  </si>
+  <si>
+    <t>幹の数</t>
+    <rPh sb="0" eb="1">
+      <t>ミキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低:3</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めり込み量　(+１なら上に,-１なら下に)</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -963,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,6 +1140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,7 +1161,7 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,7 +1674,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
@@ -5785,18 +5850,18 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
     </row>
@@ -5870,25 +5935,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6134,15 +6200,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6186,15 +6252,15 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -6368,15 +6434,15 @@
     </row>
     <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
@@ -6518,15 +6584,15 @@
       <c r="A58"/>
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
@@ -6680,15 +6746,15 @@
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="41"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="37" t="s">
@@ -6826,15 +6892,15 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="41"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
@@ -6968,8 +7034,151 @@
       <c r="F93" s="33"/>
       <c r="G93" s="34"/>
     </row>
+    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="95" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="41"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="27"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="29">
+        <v>1</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="30"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="30"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="29">
+        <v>5</v>
+      </c>
+      <c r="C100" s="29">
+        <v>10</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="29">
+        <v>3</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="29">
+        <v>0</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="30"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="30"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="30"/>
+    </row>
+    <row r="105" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A95:G95"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A59:G59"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A003A6-1A42-45C0-9945-CBE24ACF05D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9EACDF-CC92-4546-83EA-DDA49ECA355E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1143,6 +1143,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,8 +1674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX47" sqref="AX47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2807,10 +2807,10 @@
         <v>-2</v>
       </c>
       <c r="T26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="22">
         <v>-2</v>
@@ -2944,10 +2944,10 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U27" s="22">
         <v>0</v>
@@ -3075,19 +3075,19 @@
         <v>-2</v>
       </c>
       <c r="P28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="22">
         <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U28" s="22">
         <v>0</v>
@@ -3215,22 +3215,22 @@
         <v>-2</v>
       </c>
       <c r="P29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V29" s="22">
         <v>-2</v>
@@ -5937,7 +5937,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
@@ -5948,13 +5948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6200,15 +6200,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6252,15 +6252,15 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -6434,15 +6434,15 @@
     </row>
     <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
@@ -6584,15 +6584,15 @@
       <c r="A58"/>
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
@@ -6746,15 +6746,15 @@
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="37" t="s">
@@ -6892,15 +6892,15 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="42"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
@@ -7036,15 +7036,15 @@
     </row>
     <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="95" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="42"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="37" t="s">
@@ -7140,7 +7140,7 @@
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="45" t="s">
+      <c r="F102" s="39" t="s">
         <v>113</v>
       </c>
       <c r="G102" s="30"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9EACDF-CC92-4546-83EA-DDA49ECA355E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039845B-EC1A-4A6C-9023-10D5A1274BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1674,8 +1674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX47" sqref="AX47"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1976,7 +1976,7 @@
         <v>-2</v>
       </c>
       <c r="AK20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="22">
         <v>-2</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2123,7 +2123,7 @@
         <v>-2</v>
       </c>
       <c r="AK21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="22">
         <v>-2</v>
@@ -2270,7 +2270,7 @@
         <v>-2</v>
       </c>
       <c r="AK22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="22">
         <v>-2</v>
@@ -2417,7 +2417,7 @@
         <v>-2</v>
       </c>
       <c r="AK23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2546,10 +2546,10 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG24" s="22">
         <v>-2</v>
@@ -2564,7 +2564,7 @@
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2690,7 +2690,7 @@
         <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="22">
         <v>-2</v>
@@ -2711,7 +2711,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2858,7 +2858,7 @@
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2998,7 +2998,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AM33" s="22">
         <v>-2</v>
@@ -3850,7 +3850,7 @@
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AP33" s="22">
         <v>-2</v>
@@ -3859,7 +3859,7 @@
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3891,19 +3891,19 @@
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
         <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="22">
         <v>-1</v>
@@ -3915,22 +3915,22 @@
         <v>-1</v>
       </c>
       <c r="P34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="22">
         <v>-1</v>
@@ -3939,10 +3939,10 @@
         <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="22">
         <v>-1</v>
@@ -4031,7 +4031,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="22">
         <v>-1</v>
@@ -4043,7 +4043,7 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -4055,19 +4055,19 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -4079,7 +4079,7 @@
         <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y35" s="22">
         <v>-1</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="J36" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="22">
         <v>0</v>
@@ -4198,13 +4198,13 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
         <v>-1</v>
       </c>
       <c r="S36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L37" s="22">
         <v>0</v>
@@ -4460,10 +4460,10 @@
         <v>-1</v>
       </c>
       <c r="K38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039845B-EC1A-4A6C-9023-10D5A1274BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF29BFA-5B8A-4CA9-A73A-0E48FE098266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -1672,10 +1672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY64"/>
+  <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1976,7 +1976,7 @@
         <v>-2</v>
       </c>
       <c r="AK20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL20" s="22">
         <v>-2</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2123,7 +2123,7 @@
         <v>-2</v>
       </c>
       <c r="AK21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL21" s="22">
         <v>-2</v>
@@ -2270,7 +2270,7 @@
         <v>-2</v>
       </c>
       <c r="AK22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL22" s="22">
         <v>-2</v>
@@ -2417,7 +2417,7 @@
         <v>-2</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2528,16 +2528,16 @@
         <v>-2</v>
       </c>
       <c r="Y24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC24" s="22">
         <v>-2</v>
@@ -2546,7 +2546,7 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
@@ -2555,7 +2555,7 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
@@ -2564,7 +2564,7 @@
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2711,7 +2711,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2807,10 +2807,10 @@
         <v>-2</v>
       </c>
       <c r="T26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V26" s="22">
         <v>-2</v>
@@ -2834,10 +2834,10 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="22">
         <v>-2</v>
@@ -2846,10 +2846,10 @@
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="22">
         <v>-2</v>
@@ -2858,7 +2858,7 @@
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2944,13 +2944,13 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V27" s="22">
         <v>-2</v>
@@ -2998,7 +2998,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3075,16 +3075,16 @@
         <v>-2</v>
       </c>
       <c r="P28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -3102,16 +3102,16 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC28" s="22">
         <v>-2</v>
@@ -3138,10 +3138,10 @@
         <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
         <v>0</v>
@@ -3260,10 +3260,10 @@
         <v>-2</v>
       </c>
       <c r="AE29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
@@ -3278,19 +3278,19 @@
         <v>-2</v>
       </c>
       <c r="AK29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="22">
         <v>-2</v>
       </c>
       <c r="AO29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AP29" s="22">
         <v>-2</v>
@@ -3299,7 +3299,7 @@
         <v>-2</v>
       </c>
       <c r="AR29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS29" s="22">
         <v>-2</v>
@@ -3331,10 +3331,10 @@
         <v>-2</v>
       </c>
       <c r="H30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -3388,10 +3388,10 @@
         <v>-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="22">
         <v>-2</v>
@@ -3424,7 +3424,7 @@
         <v>-2</v>
       </c>
       <c r="AM30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="22">
         <v>-2</v>
@@ -3462,7 +3462,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="22">
         <v>-2</v>
@@ -3471,10 +3471,10 @@
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3564,7 +3564,7 @@
         <v>-2</v>
       </c>
       <c r="AM31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="22">
         <v>-2</v>
@@ -3599,10 +3599,10 @@
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="22">
         <v>-2</v>
@@ -3611,13 +3611,13 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <v>-2</v>
@@ -3704,7 +3704,7 @@
         <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="22">
         <v>-2</v>
@@ -3766,22 +3766,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
         <v>1</v>
       </c>
-      <c r="N33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>0</v>
-      </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="V33" s="22">
+        <v>0</v>
+      </c>
+      <c r="W33" s="22">
+        <v>0</v>
+      </c>
+      <c r="X33" s="22">
         <v>1</v>
       </c>
-      <c r="W33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
       <c r="Y33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="22">
         <v>0</v>
@@ -3811,55 +3811,55 @@
         <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="22">
         <v>1</v>
       </c>
-      <c r="AD33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="22">
-        <v>0</v>
-      </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
         <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
         <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AN33" s="22">
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3870,19 +3870,19 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="22">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="22">
         <v>-1</v>
@@ -3927,16 +3927,16 @@
         <v>0</v>
       </c>
       <c r="T34" s="22">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
         <v>-1</v>
       </c>
       <c r="W34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="22">
         <v>-1</v>
@@ -3972,16 +3972,16 @@
         <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="22">
         <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
         <v>-2</v>
@@ -3993,7 +3993,7 @@
         <v>-2</v>
       </c>
       <c r="AP34" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AQ34" s="22">
         <v>-2</v>
@@ -4005,12 +4005,12 @@
         <v>-2</v>
       </c>
       <c r="AT34" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="22">
         <v>-1</v>
@@ -4022,7 +4022,7 @@
         <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="22">
         <v>-1</v>
@@ -4055,10 +4055,10 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -4076,7 +4076,7 @@
         <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="22">
         <v>-1</v>
@@ -4118,16 +4118,16 @@
         <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AO35" s="22">
         <v>-2</v>
@@ -4145,24 +4145,24 @@
         <v>-2</v>
       </c>
       <c r="AT35" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="22">
         <v>-1</v>
@@ -4171,19 +4171,19 @@
         <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="22">
         <v>-1</v>
@@ -4198,7 +4198,7 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R36" s="22">
         <v>-1</v>
@@ -4216,7 +4216,7 @@
         <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="22">
         <v>-1</v>
@@ -4258,19 +4258,19 @@
         <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AP36" s="22">
         <v>-2</v>
@@ -4293,7 +4293,7 @@
         <v>-1</v>
       </c>
       <c r="B37" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="C37" s="22">
         <v>-1</v>
@@ -4317,13 +4317,13 @@
         <v>-1</v>
       </c>
       <c r="J37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="22">
         <v>-1</v>
@@ -4347,16 +4347,16 @@
         <v>-1</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="22">
         <v>-1</v>
@@ -4398,22 +4398,22 @@
         <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AQ37" s="22">
         <v>-2</v>
@@ -4422,7 +4422,7 @@
         <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4460,10 +4460,10 @@
         <v>-1</v>
       </c>
       <c r="K38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M38" s="22">
         <v>-1</v>
@@ -4520,10 +4520,10 @@
         <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
         <v>-1</v>
@@ -4538,19 +4538,19 @@
         <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40" s="22">
         <v>-1</v>
@@ -4919,13 +4919,13 @@
         <v>-1</v>
       </c>
       <c r="X41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y41" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z41" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="22">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4949,10 +4949,10 @@
         <v>-1</v>
       </c>
       <c r="AH41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="22">
         <v>-1</v>
@@ -4964,10 +4964,10 @@
         <v>-1</v>
       </c>
       <c r="AM41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="22">
         <v>-1</v>
@@ -5059,13 +5059,13 @@
         <v>-1</v>
       </c>
       <c r="X42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
       </c>
       <c r="Z42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42" s="22">
         <v>-1</v>
@@ -5199,10 +5199,10 @@
         <v>-1</v>
       </c>
       <c r="X43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z43" s="22">
         <v>-1</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="29" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -5718,13 +5718,13 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="29" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="29" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -5751,13 +5751,13 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F53" s="29">
         <v>10</v>
@@ -5766,35 +5766,37 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F54" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29">
-        <v>120</v>
-      </c>
-      <c r="F55" s="29"/>
+        <v>-1</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0</v>
+      </c>
       <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="29" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -5804,13 +5806,18 @@
       <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
-      <c r="D57"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="29"/>
+      <c r="A58" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -5818,31 +5825,51 @@
       <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="29"/>
+      <c r="A59" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
+      <c r="E59" s="29">
+        <v>33</v>
+      </c>
+      <c r="F59" s="29">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="29"/>
+      <c r="A60" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="E60" s="29">
+        <v>36</v>
+      </c>
+      <c r="F60" s="29">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="29"/>
+      <c r="A61" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="E61" s="29">
+        <v>1</v>
+      </c>
+      <c r="F61" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="29"/>
+      <c r="A62" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -5850,20 +5877,347 @@
       <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="A64" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29">
+        <v>5</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="38"/>
+      <c r="E70" s="29">
+        <v>13</v>
+      </c>
+      <c r="F70" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="29">
+        <v>21</v>
+      </c>
+      <c r="F71" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="29">
+        <v>1</v>
+      </c>
+      <c r="F72" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="38"/>
+      <c r="E76" s="29">
+        <v>14</v>
+      </c>
+      <c r="F76" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="29">
+        <v>4</v>
+      </c>
+      <c r="F77" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="38"/>
+      <c r="E82" s="29">
+        <v>34</v>
+      </c>
+      <c r="F82" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="29">
+        <v>24</v>
+      </c>
+      <c r="F83" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F84" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="38"/>
+      <c r="E88" s="29">
+        <v>24</v>
+      </c>
+      <c r="F88" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="29">
+        <v>33</v>
+      </c>
+      <c r="F89" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="29">
+        <v>1</v>
+      </c>
+      <c r="F90" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="38"/>
+      <c r="E94" s="29">
+        <v>41</v>
+      </c>
+      <c r="F94" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="29">
+        <v>35</v>
+      </c>
+      <c r="F95" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F96" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5937,8 +6291,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6532,7 +6886,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="29">
         <v>1</v>
@@ -6684,7 +7038,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="29">
         <v>1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF29BFA-5B8A-4CA9-A73A-0E48FE098266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17AD07-4620-4912-A354-3C416246349B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1674,8 +1674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2408,16 +2408,16 @@
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2555,16 +2555,16 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AJ24" s="22">
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2702,7 +2702,7 @@
         <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2711,7 +2711,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2834,10 +2834,10 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
         <v>-2</v>
@@ -2846,19 +2846,19 @@
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
         <v>0</v>
       </c>
       <c r="AI26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AJ26" s="22">
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2876,10 +2876,10 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AS26" s="22">
         <v>-2</v>
@@ -2989,7 +2989,7 @@
         <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -2998,7 +2998,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3072,19 +3072,19 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -3129,10 +3129,10 @@
         <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
@@ -3141,7 +3141,7 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
         <v>0</v>
@@ -3212,10 +3212,10 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="22">
         <v>-2</v>
@@ -3224,13 +3224,13 @@
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="22">
         <v>-2</v>
@@ -3260,19 +3260,19 @@
         <v>-2</v>
       </c>
       <c r="AE29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3281,10 +3281,10 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AM29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN29" s="22">
         <v>-2</v>
@@ -3293,7 +3293,7 @@
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3305,7 +3305,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3331,10 +3331,10 @@
         <v>-2</v>
       </c>
       <c r="H30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -3352,7 +3352,7 @@
         <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
@@ -3370,7 +3370,7 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="22">
         <v>-2</v>
@@ -3388,28 +3388,28 @@
         <v>-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
         <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AI30" s="22">
         <v>-2</v>
@@ -3424,7 +3424,7 @@
         <v>-2</v>
       </c>
       <c r="AM30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN30" s="22">
         <v>-2</v>
@@ -3465,13 +3465,13 @@
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="22">
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="22">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3504,13 +3504,13 @@
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3531,19 +3531,19 @@
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3564,7 +3564,7 @@
         <v>-2</v>
       </c>
       <c r="AM31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN31" s="22">
         <v>-2</v>
@@ -3602,16 +3602,16 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="22">
         <v>-2</v>
@@ -3650,7 +3650,7 @@
         <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3665,13 +3665,13 @@
         <v>-2</v>
       </c>
       <c r="Z32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AC32" s="22">
         <v>-2</v>
@@ -3680,7 +3680,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AF32" s="22">
         <v>-2</v>
@@ -3698,16 +3698,16 @@
         <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AL32" s="22">
         <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AO32" s="22">
         <v>-2</v>
@@ -3716,7 +3716,7 @@
         <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
@@ -3725,7 +3725,7 @@
         <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="X33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="22">
         <v>0</v>
@@ -3811,55 +3811,55 @@
         <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AD33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AG33" s="22">
         <v>-2</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM33" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="22">
         <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AP33" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3870,121 +3870,121 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" s="22">
+        <v>91</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0</v>
+      </c>
+      <c r="K34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="22">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
+        <v>11</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="22">
         <v>22</v>
       </c>
-      <c r="C34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="AE34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF34" s="22">
         <v>12</v>
       </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="22">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>33</v>
-      </c>
-      <c r="U34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="22">
-        <v>0</v>
-      </c>
-      <c r="X34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AE34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AF34" s="22">
-        <v>-1</v>
-      </c>
       <c r="AG34" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AI34" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="22">
         <v>-2</v>
@@ -3996,7 +3996,7 @@
         <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="22">
         <v>-2</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="22">
         <v>-1</v>
@@ -4022,10 +4022,10 @@
         <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -4034,7 +4034,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -4052,10 +4052,10 @@
         <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -4076,7 +4076,7 @@
         <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="22">
         <v>-1</v>
@@ -4094,40 +4094,40 @@
         <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN35" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
         <v>-2</v>
@@ -4150,19 +4150,19 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="22">
         <v>-1</v>
@@ -4195,7 +4195,7 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
         <v>-1</v>
@@ -4216,7 +4216,7 @@
         <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X36" s="22">
         <v>-1</v>
@@ -4234,43 +4234,43 @@
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO36" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
         <v>-2</v>
@@ -4293,7 +4293,7 @@
         <v>-1</v>
       </c>
       <c r="B37" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="22">
         <v>-1</v>
@@ -4347,16 +4347,16 @@
         <v>-1</v>
       </c>
       <c r="T37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X37" s="22">
         <v>-1</v>
@@ -4386,34 +4386,34 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO37" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP37" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
         <v>-2</v>
@@ -4422,7 +4422,7 @@
         <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
         <v>-2</v>
@@ -4532,25 +4532,25 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
         <v>0</v>
@@ -4836,10 +4836,10 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AR40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AS40" s="22">
         <v>-1</v>
@@ -4925,10 +4925,10 @@
         <v>-1</v>
       </c>
       <c r="Z41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB41" s="22">
         <v>-1</v>
@@ -4937,10 +4937,10 @@
         <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4949,10 +4949,10 @@
         <v>-1</v>
       </c>
       <c r="AH41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ41" s="22">
         <v>-1</v>
@@ -4964,10 +4964,10 @@
         <v>-1</v>
       </c>
       <c r="AM41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO41" s="22">
         <v>-1</v>
@@ -6291,7 +6291,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17AD07-4620-4912-A354-3C416246349B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E607A6-F2A0-41D9-BF7C-95B66FD6BD44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:AY99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3543,7 +3543,7 @@
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3680,7 +3680,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="22">
         <v>-2</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E607A6-F2A0-41D9-BF7C-95B66FD6BD44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9D2A0-5E73-4F4D-BEDB-82C1C27B99B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1675,7 +1675,7 @@
   <dimension ref="A1:AY99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G33" s="22">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K33" s="22">
         <v>0</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9D2A0-5E73-4F4D-BEDB-82C1C27B99B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C35F24-2A13-4916-87F4-39FBFF302BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -683,6 +683,22 @@
       <t>リョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伸縮　（0：縮む　１：伸びる）</t>
+    <rPh sb="0" eb="2">
+      <t>シンシュク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shrink</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1160,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,9 +1693,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6289,10 +6306,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6302,13 +6319,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6554,15 +6571,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6606,15 +6623,15 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -6788,15 +6805,15 @@
     </row>
     <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
@@ -6938,15 +6955,15 @@
       <c r="A58"/>
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
@@ -7100,15 +7117,15 @@
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="37" t="s">
@@ -7246,15 +7263,15 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
@@ -7359,17 +7376,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="B91" s="40">
+        <v>0</v>
+      </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="28"/>
+      <c r="A92" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
@@ -7377,71 +7400,67 @@
       <c r="F92" s="29"/>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="35" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="34"/>
-    </row>
-    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="95" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="40" t="s">
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="34"/>
+    </row>
+    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="96" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="42"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="37" t="s">
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="27"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="28" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="27"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B98" s="29">
         <v>1</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" s="30"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
+      <c r="F98" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -7450,68 +7469,72 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" s="29">
-        <v>5</v>
-      </c>
-      <c r="C100" s="29">
-        <v>10</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B101" s="29">
-        <v>3</v>
-      </c>
-      <c r="C101" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="C101" s="29">
+        <v>10</v>
+      </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
       <c r="F101" s="29" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="30"/>
+      <c r="F102" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="B103" s="29">
+        <v>0</v>
+      </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="F103" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="G103" s="30"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="28"/>
+      <c r="A104" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
@@ -7519,20 +7542,29 @@
       <c r="F104" s="29"/>
       <c r="G104" s="30"/>
     </row>
-    <row r="105" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="35" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:G96"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A59:G59"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9D2A0-5E73-4F4D-BEDB-82C1C27B99B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC98C2-D21A-4126-9CD2-DE44395E35F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -681,6 +681,27 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4×7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shrink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態  (０：縮む　１：伸びる)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1025,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1165,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,8 +1698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1868,7 +1892,7 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B20" s="22">
         <v>-2</v>
@@ -1877,7 +1901,7 @@
         <v>-2</v>
       </c>
       <c r="D20" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="E20" s="22">
         <v>-2</v>
@@ -1886,7 +1910,7 @@
         <v>-2</v>
       </c>
       <c r="G20" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="H20" s="22">
         <v>-2</v>
@@ -1895,37 +1919,37 @@
         <v>-2</v>
       </c>
       <c r="J20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="22">
         <v>-2</v>
@@ -1940,40 +1964,40 @@
         <v>-2</v>
       </c>
       <c r="Y20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AK20" s="22">
         <v>-2</v>
@@ -1985,7 +2009,7 @@
         <v>-2</v>
       </c>
       <c r="AN20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AO20" s="22">
         <v>-2</v>
@@ -1994,7 +2018,7 @@
         <v>-2</v>
       </c>
       <c r="AQ20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR20" s="22">
         <v>-2</v>
@@ -2010,12 +2034,12 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>104</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B21" s="22">
         <v>-2</v>
@@ -2027,7 +2051,7 @@
         <v>-2</v>
       </c>
       <c r="E21" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="F21" s="22">
         <v>-2</v>
@@ -2039,10 +2063,10 @@
         <v>-2</v>
       </c>
       <c r="I21" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="J21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="22">
         <v>-2</v>
@@ -2072,7 +2096,7 @@
         <v>-2</v>
       </c>
       <c r="T21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="22">
         <v>-2</v>
@@ -2087,7 +2111,7 @@
         <v>-2</v>
       </c>
       <c r="Y21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="22">
         <v>-2</v>
@@ -2117,7 +2141,7 @@
         <v>-2</v>
       </c>
       <c r="AI21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="22">
         <v>-2</v>
@@ -2189,7 +2213,7 @@
         <v>-2</v>
       </c>
       <c r="J22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22">
         <v>-2</v>
@@ -2219,7 +2243,7 @@
         <v>-2</v>
       </c>
       <c r="T22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U22" s="22">
         <v>-2</v>
@@ -2234,7 +2258,7 @@
         <v>-2</v>
       </c>
       <c r="Y22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="22">
         <v>-2</v>
@@ -2249,7 +2273,7 @@
         <v>-2</v>
       </c>
       <c r="AD22" s="22">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="AE22" s="22">
         <v>-2</v>
@@ -2264,7 +2288,7 @@
         <v>-2</v>
       </c>
       <c r="AI22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="22">
         <v>-2</v>
@@ -2333,10 +2357,10 @@
         <v>-2</v>
       </c>
       <c r="I23" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="J23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="22">
         <v>-2</v>
@@ -2366,7 +2390,7 @@
         <v>-2</v>
       </c>
       <c r="T23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="22">
         <v>-2</v>
@@ -2381,7 +2405,7 @@
         <v>-2</v>
       </c>
       <c r="Y23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="22">
         <v>-2</v>
@@ -2408,16 +2432,16 @@
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
         <v>0</v>
       </c>
       <c r="AJ23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2426,7 +2450,7 @@
         <v>-2</v>
       </c>
       <c r="AN23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AO23" s="22">
         <v>-2</v>
@@ -2483,22 +2507,22 @@
         <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2513,7 +2537,7 @@
         <v>-2</v>
       </c>
       <c r="T24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="22">
         <v>-2</v>
@@ -2528,7 +2552,7 @@
         <v>-2</v>
       </c>
       <c r="Y24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="22">
         <v>-2</v>
@@ -2555,16 +2579,16 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="22">
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2582,7 +2606,7 @@
         <v>-2</v>
       </c>
       <c r="AQ24" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR24" s="22">
         <v>-2</v>
@@ -2598,48 +2622,48 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="N25" s="22">
         <v>-2</v>
@@ -2648,19 +2672,19 @@
         <v>-2</v>
       </c>
       <c r="P25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="22">
         <v>-2</v>
@@ -2675,16 +2699,16 @@
         <v>-2</v>
       </c>
       <c r="Y25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
         <v>-2</v>
@@ -2696,28 +2720,28 @@
         <v>-2</v>
       </c>
       <c r="AF25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="22">
         <v>0</v>
       </c>
       <c r="AI25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
         <v>0</v>
       </c>
       <c r="AL25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
         <v>-2</v>
@@ -2745,7 +2769,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>109</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2786,16 +2810,16 @@
         <v>-2</v>
       </c>
       <c r="M26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="O26" s="22">
         <v>-2</v>
       </c>
       <c r="P26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="22">
         <v>-2</v>
@@ -2822,7 +2846,7 @@
         <v>-2</v>
       </c>
       <c r="Y26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="22">
         <v>-2</v>
@@ -2849,25 +2873,25 @@
         <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="22">
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AO26" s="22">
         <v>-2</v>
@@ -2876,7 +2900,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2926,7 +2950,7 @@
         <v>-2</v>
       </c>
       <c r="M27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="22">
         <v>-2</v>
@@ -2935,7 +2959,7 @@
         <v>-2</v>
       </c>
       <c r="P27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="22">
         <v>-2</v>
@@ -2962,7 +2986,7 @@
         <v>-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="22">
         <v>-2</v>
@@ -2989,7 +3013,7 @@
         <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -2998,13 +3022,13 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
       </c>
       <c r="AM27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="22">
         <v>-2</v>
@@ -3066,31 +3090,31 @@
         <v>-2</v>
       </c>
       <c r="M28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
         <v>0</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28" s="22">
         <v>-2</v>
@@ -3102,7 +3126,7 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
         <v>-2</v>
@@ -3129,10 +3153,10 @@
         <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
@@ -3141,31 +3165,31 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
         <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3206,94 +3230,94 @@
         <v>-2</v>
       </c>
       <c r="M29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="22">
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22">
+        <v>0</v>
+      </c>
+      <c r="T29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC29" s="22">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="22">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="22">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AI29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM29" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="22">
         <v>33</v>
       </c>
-      <c r="Q29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="R29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S29" s="22">
-        <v>22</v>
-      </c>
-      <c r="T29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U29" s="22">
-        <v>0</v>
-      </c>
-      <c r="V29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AD29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH29" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="22">
-        <v>31</v>
-      </c>
-      <c r="AJ29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL29" s="22">
-        <v>44</v>
-      </c>
-      <c r="AM29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AO29" s="22">
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3305,7 +3329,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3319,7 +3343,7 @@
         <v>-2</v>
       </c>
       <c r="D30" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="E30" s="22">
         <v>-2</v>
@@ -3340,22 +3364,22 @@
         <v>-2</v>
       </c>
       <c r="K30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="N30" s="22">
         <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="22">
         <v>-2</v>
@@ -3367,10 +3391,10 @@
         <v>-2</v>
       </c>
       <c r="T30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="22">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="V30" s="22">
         <v>-2</v>
@@ -3382,7 +3406,7 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="22">
         <v>-2</v>
@@ -3394,7 +3418,7 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="22">
         <v>0</v>
@@ -3409,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="AH30" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="22">
         <v>-2</v>
@@ -3450,40 +3474,40 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="22">
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="M31" s="22">
         <v>-2</v>
@@ -3492,7 +3516,7 @@
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3504,64 +3528,64 @@
         <v>-2</v>
       </c>
       <c r="S31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T31" s="22">
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="22">
+        <v>44</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH31" s="22">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL31" s="22">
         <v>22</v>
-      </c>
-      <c r="T31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U31" s="22">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="22">
-        <v>22</v>
-      </c>
-      <c r="AE31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF31" s="22">
-        <v>22</v>
-      </c>
-      <c r="AG31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AJ31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL31" s="22">
-        <v>-2</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
@@ -3590,10 +3614,10 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="22">
         <v>-2</v>
@@ -3602,25 +3626,25 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="H32" s="22">
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <v>-2</v>
@@ -3632,10 +3656,10 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="22">
         <v>-2</v>
@@ -3647,10 +3671,10 @@
         <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
         <v>-2</v>
@@ -3662,19 +3686,19 @@
         <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
@@ -3698,7 +3722,7 @@
         <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
         <v>-2</v>
@@ -3716,7 +3740,7 @@
         <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
@@ -3725,48 +3749,48 @@
         <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="22">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F33" s="22">
         <v>-2</v>
       </c>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I33" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="J33" s="22">
         <v>-2</v>
       </c>
       <c r="K33" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33" s="22">
         <v>0</v>
@@ -3775,31 +3799,31 @@
         <v>0</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="22">
         <v>0</v>
@@ -3814,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
         <v>-2</v>
@@ -3823,7 +3847,7 @@
         <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AG33" s="22">
         <v>-2</v>
@@ -3832,7 +3856,7 @@
         <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ33" s="22">
         <v>-2</v>
@@ -3841,16 +3865,16 @@
         <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
         <v>-2</v>
@@ -3859,7 +3883,7 @@
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3873,7 +3897,7 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
@@ -3882,55 +3906,55 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
         <v>-1</v>
@@ -3957,55 +3981,55 @@
         <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4025,34 +4049,34 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
         <v>0</v>
@@ -4064,7 +4088,7 @@
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
         <v>0</v>
@@ -4097,60 +4121,60 @@
         <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B36" s="22">
         <v>-1</v>
@@ -4162,16 +4186,16 @@
         <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F36" s="22">
         <v>-1</v>
       </c>
       <c r="G36" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="22">
         <v>-1</v>
@@ -4180,13 +4204,13 @@
         <v>-1</v>
       </c>
       <c r="K36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
         <v>-1</v>
@@ -4204,10 +4228,10 @@
         <v>-1</v>
       </c>
       <c r="S36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
@@ -4246,46 +4270,46 @@
         <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>91</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4311,7 +4335,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="22">
         <v>-1</v>
@@ -4335,97 +4359,97 @@
         <v>-1</v>
       </c>
       <c r="P37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG37" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4442,16 +4466,16 @@
         <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F38" s="22">
         <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="22">
         <v>-1</v>
@@ -4487,7 +4511,7 @@
         <v>-1</v>
       </c>
       <c r="T38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="22">
         <v>-1</v>
@@ -4502,7 +4526,7 @@
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
         <v>-1</v>
@@ -4532,37 +4556,37 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
         <v>0</v>
@@ -4582,10 +4606,10 @@
         <v>-1</v>
       </c>
       <c r="E39" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="F39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="22">
         <v>-1</v>
@@ -4627,22 +4651,22 @@
         <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="22">
         <v>-1</v>
@@ -4705,12 +4729,12 @@
         <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B40" s="22">
         <v>-1</v>
@@ -4725,13 +4749,13 @@
         <v>-1</v>
       </c>
       <c r="F40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="22">
         <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="I40" s="22">
         <v>-1</v>
@@ -4773,10 +4797,10 @@
         <v>-1</v>
       </c>
       <c r="V40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
         <v>-1</v>
@@ -4836,7 +4860,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4845,7 +4869,7 @@
         <v>-1</v>
       </c>
       <c r="AT40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4865,7 +4889,7 @@
         <v>-1</v>
       </c>
       <c r="F41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="22">
         <v>-1</v>
@@ -4895,13 +4919,13 @@
         <v>-1</v>
       </c>
       <c r="P41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="22">
         <v>-1</v>
@@ -4913,10 +4937,10 @@
         <v>-1</v>
       </c>
       <c r="V41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="22">
         <v>-1</v>
@@ -4928,13 +4952,13 @@
         <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="22">
         <v>-1</v>
@@ -4985,7 +5009,7 @@
         <v>-1</v>
       </c>
       <c r="AT41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5002,16 +5026,16 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F42" s="22">
         <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="22">
         <v>-1</v>
@@ -5020,13 +5044,13 @@
         <v>-1</v>
       </c>
       <c r="K42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="22">
         <v>-1</v>
@@ -5035,7 +5059,7 @@
         <v>-1</v>
       </c>
       <c r="P42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="22">
         <v>-1</v>
@@ -5053,10 +5077,10 @@
         <v>-1</v>
       </c>
       <c r="V42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="22">
         <v>-1</v>
@@ -5074,58 +5098,58 @@
         <v>-1</v>
       </c>
       <c r="AC42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5142,7 +5166,7 @@
         <v>-1</v>
       </c>
       <c r="E43" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="F43" s="22">
         <v>-1</v>
@@ -5151,7 +5175,7 @@
         <v>-1</v>
       </c>
       <c r="H43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="22">
         <v>-1</v>
@@ -5175,7 +5199,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="22">
         <v>-1</v>
@@ -5193,10 +5217,10 @@
         <v>-1</v>
       </c>
       <c r="V43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="22">
         <v>-1</v>
@@ -5214,10 +5238,10 @@
         <v>-1</v>
       </c>
       <c r="AC43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AE43" s="22">
         <v>-1</v>
@@ -5229,7 +5253,7 @@
         <v>-1</v>
       </c>
       <c r="AH43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AI43" s="22">
         <v>-1</v>
@@ -5241,7 +5265,7 @@
         <v>-1</v>
       </c>
       <c r="AL43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AM43" s="22">
         <v>-1</v>
@@ -5253,7 +5277,7 @@
         <v>-1</v>
       </c>
       <c r="AP43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AQ43" s="22">
         <v>-1</v>
@@ -5265,12 +5289,12 @@
         <v>-1</v>
       </c>
       <c r="AT43" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B44" s="22">
         <v>-1</v>
@@ -5279,7 +5303,7 @@
         <v>-1</v>
       </c>
       <c r="D44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E44" s="22">
         <v>-1</v>
@@ -5288,10 +5312,10 @@
         <v>-1</v>
       </c>
       <c r="G44" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="22">
         <v>-1</v>
@@ -5315,7 +5339,7 @@
         <v>-1</v>
       </c>
       <c r="P44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="22">
         <v>-1</v>
@@ -5333,10 +5357,10 @@
         <v>-1</v>
       </c>
       <c r="V44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="22">
         <v>-1</v>
@@ -5354,7 +5378,7 @@
         <v>-1</v>
       </c>
       <c r="AC44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="22">
         <v>-1</v>
@@ -5431,7 +5455,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="22">
         <v>-1</v>
@@ -5455,7 +5479,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="22">
         <v>-1</v>
@@ -5473,10 +5497,10 @@
         <v>-1</v>
       </c>
       <c r="V45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="22">
         <v>-1</v>
@@ -5494,7 +5518,7 @@
         <v>-1</v>
       </c>
       <c r="AC45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="22">
         <v>-1</v>
@@ -5545,7 +5569,7 @@
         <v>-1</v>
       </c>
       <c r="AT45" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5571,70 +5595,70 @@
         <v>-1</v>
       </c>
       <c r="H46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="22">
         <v>-1</v>
@@ -6289,10 +6313,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A82" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6302,13 +6326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="19">
@@ -6543,7 +6567,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -6554,15 +6578,15 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E27" s="6"/>
@@ -6606,15 +6630,15 @@
       <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25" t="s">
@@ -6788,15 +6812,15 @@
     </row>
     <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
@@ -6938,15 +6962,15 @@
       <c r="A58"/>
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
@@ -7100,15 +7124,15 @@
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="37" t="s">
@@ -7246,15 +7270,15 @@
       <c r="A82"/>
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
@@ -7359,17 +7383,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="B91" s="40">
+        <v>0</v>
+      </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="28"/>
+      <c r="A92" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
@@ -7377,71 +7407,67 @@
       <c r="F92" s="29"/>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="35" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="34"/>
-    </row>
-    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="95" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="40" t="s">
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="34"/>
+    </row>
+    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="96" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="42"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="37" t="s">
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="27"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="28" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="27"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B98" s="29">
         <v>1</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" s="30"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
+      <c r="F98" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
@@ -7450,68 +7476,72 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" s="29">
-        <v>5</v>
-      </c>
-      <c r="C100" s="29">
-        <v>10</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B101" s="29">
-        <v>3</v>
-      </c>
-      <c r="C101" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="C101" s="29">
+        <v>10</v>
+      </c>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
       <c r="F101" s="29" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="30"/>
+      <c r="F102" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="B103" s="29">
+        <v>0</v>
+      </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="F103" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="G103" s="30"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="28"/>
+      <c r="A104" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
@@ -7519,20 +7549,29 @@
       <c r="F104" s="29"/>
       <c r="G104" s="30"/>
     </row>
-    <row r="105" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="35" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:G96"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A59:G59"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Game&amp;ToolCreate\Project\CosMos\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C35F24-2A13-4916-87F4-39FBFF302BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD530900-D727-449E-8C8E-C4CEE818EF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1693,7 +1693,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1885,7 +1887,7 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B20" s="22">
         <v>-2</v>
@@ -1897,7 +1899,7 @@
         <v>-2</v>
       </c>
       <c r="E20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="F20" s="22">
         <v>-2</v>
@@ -1909,43 +1911,43 @@
         <v>-2</v>
       </c>
       <c r="I20" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J20" s="22">
         <v>-2</v>
       </c>
       <c r="K20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="22">
         <v>-2</v>
@@ -1960,40 +1962,40 @@
         <v>-2</v>
       </c>
       <c r="Z20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AL20" s="22">
         <v>-2</v>
@@ -2005,7 +2007,7 @@
         <v>-2</v>
       </c>
       <c r="AO20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AP20" s="22">
         <v>-2</v>
@@ -2017,7 +2019,7 @@
         <v>-2</v>
       </c>
       <c r="AS20" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT20" s="22">
         <v>-2</v>
@@ -2027,7 +2029,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>104</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2062,7 +2064,7 @@
         <v>-2</v>
       </c>
       <c r="K21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="22">
         <v>-2</v>
@@ -2092,7 +2094,7 @@
         <v>-2</v>
       </c>
       <c r="U21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="22">
         <v>-2</v>
@@ -2107,7 +2109,7 @@
         <v>-2</v>
       </c>
       <c r="Z21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="22">
         <v>-2</v>
@@ -2137,7 +2139,7 @@
         <v>-2</v>
       </c>
       <c r="AJ21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="22">
         <v>-2</v>
@@ -2203,13 +2205,13 @@
         <v>-2</v>
       </c>
       <c r="I22" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J22" s="22">
         <v>-2</v>
       </c>
       <c r="K22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="22">
         <v>-2</v>
@@ -2239,7 +2241,7 @@
         <v>-2</v>
       </c>
       <c r="U22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V22" s="22">
         <v>-2</v>
@@ -2254,7 +2256,7 @@
         <v>-2</v>
       </c>
       <c r="Z22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="22">
         <v>-2</v>
@@ -2284,7 +2286,7 @@
         <v>-2</v>
       </c>
       <c r="AJ22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="22">
         <v>-2</v>
@@ -2311,7 +2313,7 @@
         <v>-2</v>
       </c>
       <c r="AS22" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT22" s="22">
         <v>-2</v>
@@ -2356,7 +2358,7 @@
         <v>-2</v>
       </c>
       <c r="K23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="22">
         <v>-2</v>
@@ -2386,7 +2388,7 @@
         <v>-2</v>
       </c>
       <c r="U23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="22">
         <v>-2</v>
@@ -2401,7 +2403,7 @@
         <v>-2</v>
       </c>
       <c r="Z23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="22">
         <v>-2</v>
@@ -2425,16 +2427,16 @@
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ23" s="22">
         <v>0</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2473,7 +2475,7 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B24" s="22">
         <v>-2</v>
@@ -2482,7 +2484,7 @@
         <v>-2</v>
       </c>
       <c r="D24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="E24" s="22">
         <v>-2</v>
@@ -2491,7 +2493,7 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="H24" s="22">
         <v>-2</v>
@@ -2500,10 +2502,10 @@
         <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="22">
         <v>-2</v>
@@ -2533,7 +2535,7 @@
         <v>-2</v>
       </c>
       <c r="U24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="22">
         <v>-2</v>
@@ -2548,7 +2550,7 @@
         <v>-2</v>
       </c>
       <c r="Z24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="22">
         <v>-2</v>
@@ -2572,40 +2574,40 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="22">
+        <v>21</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM24" s="22">
+        <v>21</v>
+      </c>
+      <c r="AN24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO24" s="22">
+        <v>44</v>
+      </c>
+      <c r="AP24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AS24" s="22">
         <v>22</v>
-      </c>
-      <c r="AJ24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK24" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AM24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AR24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AS24" s="22">
-        <v>-2</v>
       </c>
       <c r="AT24" s="22">
         <v>-2</v>
@@ -2615,72 +2617,72 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="22">
         <v>-2</v>
@@ -2695,16 +2697,16 @@
         <v>-2</v>
       </c>
       <c r="Z25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2716,28 +2718,28 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="22">
         <v>0</v>
       </c>
       <c r="AI25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
         <v>0</v>
       </c>
       <c r="AL25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="22">
         <v>-2</v>
@@ -2762,12 +2764,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2806,16 +2808,16 @@
         <v>-2</v>
       </c>
       <c r="N26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="P26" s="22">
         <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="22">
         <v>-2</v>
@@ -2842,7 +2844,7 @@
         <v>-2</v>
       </c>
       <c r="Z26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="22">
         <v>-2</v>
@@ -2866,40 +2868,40 @@
         <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AJ26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AS26" s="22">
         <v>22</v>
-      </c>
-      <c r="AJ26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK26" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AM26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ26" s="22">
-        <v>97</v>
-      </c>
-      <c r="AR26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AS26" s="22">
-        <v>-2</v>
       </c>
       <c r="AT26" s="22">
         <v>-2</v>
@@ -2907,7 +2909,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="22">
         <v>-2</v>
@@ -2946,7 +2948,7 @@
         <v>-2</v>
       </c>
       <c r="N27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="22">
         <v>-2</v>
@@ -2955,7 +2957,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2982,7 +2984,7 @@
         <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -3006,7 +3008,7 @@
         <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -3015,7 +3017,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3024,7 +3026,7 @@
         <v>-2</v>
       </c>
       <c r="AN27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="22">
         <v>-2</v>
@@ -3047,7 +3049,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -3086,28 +3088,28 @@
         <v>-2</v>
       </c>
       <c r="N28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="22">
         <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28" s="22">
         <v>-2</v>
@@ -3122,7 +3124,7 @@
         <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
         <v>-2</v>
@@ -3146,10 +3148,10 @@
         <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
@@ -3158,36 +3160,36 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
         <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -3226,25 +3228,25 @@
         <v>-2</v>
       </c>
       <c r="N29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="22">
         <v>0</v>
@@ -3262,7 +3264,7 @@
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3274,22 +3276,22 @@
         <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3298,19 +3300,19 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3322,18 +3324,18 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
       <c r="C30" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="D30" s="22">
         <v>-2</v>
@@ -3360,25 +3362,25 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="R30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="S30" s="22">
         <v>-2</v>
@@ -3402,7 +3404,7 @@
         <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3417,34 +3419,34 @@
         <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="22">
         <v>0</v>
       </c>
       <c r="AG30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AI30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="22">
         <v>-2</v>
@@ -3459,7 +3461,7 @@
         <v>-2</v>
       </c>
       <c r="AS30" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT30" s="22">
         <v>-2</v>
@@ -3467,28 +3469,28 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="22">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3521,70 +3523,70 @@
         <v>-2</v>
       </c>
       <c r="S31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0</v>
+      </c>
+      <c r="V31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="22">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="22">
         <v>22</v>
       </c>
-      <c r="T31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U31" s="22">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="22">
+      <c r="AK31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL31" s="22">
         <v>22</v>
       </c>
-      <c r="AE31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF31" s="22">
-        <v>22</v>
-      </c>
-      <c r="AG31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AJ31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK31" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL31" s="22">
-        <v>-2</v>
-      </c>
       <c r="AM31" s="22">
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3607,10 +3609,10 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="B32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="22">
         <v>-2</v>
@@ -3622,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="F32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
         <v>0</v>
       </c>
       <c r="J32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3649,13 +3651,13 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R32" s="22">
         <v>-2</v>
@@ -3685,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
@@ -3700,22 +3702,22 @@
         <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="22">
         <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
         <v>-2</v>
@@ -3724,45 +3726,45 @@
         <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AP32" s="22">
         <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
       </c>
       <c r="AS32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
         <v>0</v>
@@ -3771,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="22">
         <v>0</v>
@@ -3783,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33" s="22">
         <v>0</v>
@@ -3798,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S33" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
         <v>-2</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AD33" s="22">
         <v>-2</v>
@@ -3840,7 +3842,7 @@
         <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG33" s="22">
         <v>-2</v>
@@ -3849,7 +3851,7 @@
         <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AJ33" s="22">
         <v>-2</v>
@@ -3858,31 +3860,31 @@
         <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3890,7 +3892,7 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
@@ -3899,10 +3901,10 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
@@ -3914,37 +3916,37 @@
         <v>0</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="22">
         <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="U34" s="22">
         <v>0</v>
@@ -3968,61 +3970,61 @@
         <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4042,7 +4044,7 @@
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -4060,34 +4062,34 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="N35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="22">
         <v>-1</v>
@@ -4108,66 +4110,66 @@
         <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="22">
         <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B36" s="22">
         <v>-1</v>
@@ -4191,7 +4193,7 @@
         <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="22">
         <v>-1</v>
@@ -4200,34 +4202,34 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="22">
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="S36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
       </c>
       <c r="U36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="22">
         <v>-1</v>
@@ -4251,58 +4253,58 @@
         <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
         <v>0</v>
       </c>
       <c r="AE36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
         <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>91</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4331,7 +4333,7 @@
         <v>-1</v>
       </c>
       <c r="I37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="22">
         <v>-1</v>
@@ -4355,94 +4357,94 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4459,19 +4461,19 @@
         <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F38" s="22">
         <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="H38" s="22">
         <v>-1</v>
       </c>
       <c r="I38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="22">
         <v>-1</v>
@@ -4507,22 +4509,22 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
       </c>
       <c r="X38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="Y38" s="22">
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4549,37 +4551,37 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
         <v>0</v>
@@ -4605,13 +4607,13 @@
         <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="22">
         <v>-1</v>
@@ -4647,22 +4649,22 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="22">
         <v>-1</v>
@@ -4722,12 +4724,12 @@
         <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B40" s="22">
         <v>-1</v>
@@ -4739,13 +4741,13 @@
         <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F40" s="22">
         <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="22">
         <v>-1</v>
@@ -4793,10 +4795,10 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
         <v>-1</v>
@@ -4853,7 +4855,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4862,7 +4864,7 @@
         <v>-1</v>
       </c>
       <c r="AT40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4885,7 +4887,7 @@
         <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="22">
         <v>-1</v>
@@ -4915,13 +4917,13 @@
         <v>-1</v>
       </c>
       <c r="Q41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="22">
         <v>-1</v>
@@ -4933,10 +4935,10 @@
         <v>-1</v>
       </c>
       <c r="W41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="22">
         <v>-1</v>
@@ -4948,13 +4950,13 @@
         <v>-1</v>
       </c>
       <c r="AB41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="22">
         <v>-1</v>
@@ -5002,7 +5004,7 @@
         <v>-1</v>
       </c>
       <c r="AT41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5019,13 +5021,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F42" s="22">
         <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -5040,13 +5042,13 @@
         <v>-1</v>
       </c>
       <c r="L42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="22">
         <v>-1</v>
@@ -5055,7 +5057,7 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="22">
         <v>-1</v>
@@ -5073,10 +5075,10 @@
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
@@ -5094,55 +5096,55 @@
         <v>-1</v>
       </c>
       <c r="AD42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5165,13 +5167,13 @@
         <v>-1</v>
       </c>
       <c r="G43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="22">
         <v>-1</v>
@@ -5195,7 +5197,7 @@
         <v>-1</v>
       </c>
       <c r="Q43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="22">
         <v>-1</v>
@@ -5213,10 +5215,10 @@
         <v>-1</v>
       </c>
       <c r="W43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="22">
         <v>-1</v>
@@ -5234,10 +5236,10 @@
         <v>-1</v>
       </c>
       <c r="AD43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AF43" s="22">
         <v>-1</v>
@@ -5249,7 +5251,7 @@
         <v>-1</v>
       </c>
       <c r="AI43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AJ43" s="22">
         <v>-1</v>
@@ -5261,7 +5263,7 @@
         <v>-1</v>
       </c>
       <c r="AM43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AN43" s="22">
         <v>-1</v>
@@ -5273,7 +5275,7 @@
         <v>-1</v>
       </c>
       <c r="AQ43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR43" s="22">
         <v>-1</v>
@@ -5287,7 +5289,7 @@
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B44" s="22">
         <v>-1</v>
@@ -5296,7 +5298,7 @@
         <v>-1</v>
       </c>
       <c r="D44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E44" s="22">
         <v>-1</v>
@@ -5305,13 +5307,13 @@
         <v>-1</v>
       </c>
       <c r="G44" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="H44" s="22">
         <v>-1</v>
       </c>
       <c r="I44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="22">
         <v>-1</v>
@@ -5335,7 +5337,7 @@
         <v>-1</v>
       </c>
       <c r="Q44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="22">
         <v>-1</v>
@@ -5353,10 +5355,10 @@
         <v>-1</v>
       </c>
       <c r="W44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="22">
         <v>-1</v>
@@ -5374,7 +5376,7 @@
         <v>-1</v>
       </c>
       <c r="AD44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="22">
         <v>-1</v>
@@ -5451,7 +5453,7 @@
         <v>-1</v>
       </c>
       <c r="I45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="22">
         <v>-1</v>
@@ -5475,7 +5477,7 @@
         <v>-1</v>
       </c>
       <c r="Q45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="22">
         <v>-1</v>
@@ -5493,10 +5495,10 @@
         <v>-1</v>
       </c>
       <c r="W45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="22">
         <v>-1</v>
@@ -5514,7 +5516,7 @@
         <v>-1</v>
       </c>
       <c r="AD45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="22">
         <v>-1</v>
@@ -5585,76 +5587,76 @@
         <v>-1</v>
       </c>
       <c r="G46" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="H46" s="22">
         <v>-1</v>
       </c>
       <c r="I46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="22">
         <v>-1</v>
@@ -6308,8 +6310,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C35F24-2A13-4916-87F4-39FBFF302BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D19EA-5CDF-47E8-B93C-DBB707643E9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1693,7 +1693,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1885,7 +1887,7 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B20" s="22">
         <v>-2</v>
@@ -1894,7 +1896,7 @@
         <v>-2</v>
       </c>
       <c r="D20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="E20" s="22">
         <v>-2</v>
@@ -1903,7 +1905,7 @@
         <v>-2</v>
       </c>
       <c r="G20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="H20" s="22">
         <v>-2</v>
@@ -1912,7 +1914,7 @@
         <v>-2</v>
       </c>
       <c r="J20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="K20" s="22">
         <v>-2</v>
@@ -1921,7 +1923,7 @@
         <v>-2</v>
       </c>
       <c r="M20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="N20" s="22">
         <v>-2</v>
@@ -1930,7 +1932,7 @@
         <v>-2</v>
       </c>
       <c r="P20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="22">
         <v>-2</v>
@@ -1939,7 +1941,7 @@
         <v>-2</v>
       </c>
       <c r="S20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="T20" s="22">
         <v>-2</v>
@@ -1948,7 +1950,7 @@
         <v>-2</v>
       </c>
       <c r="V20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="W20" s="22">
         <v>-2</v>
@@ -1957,7 +1959,7 @@
         <v>-2</v>
       </c>
       <c r="Y20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Z20" s="22">
         <v>-2</v>
@@ -1966,7 +1968,7 @@
         <v>-2</v>
       </c>
       <c r="AB20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AC20" s="22">
         <v>-2</v>
@@ -1975,7 +1977,7 @@
         <v>-2</v>
       </c>
       <c r="AE20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AF20" s="22">
         <v>-2</v>
@@ -1984,7 +1986,7 @@
         <v>-2</v>
       </c>
       <c r="AH20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AI20" s="22">
         <v>-2</v>
@@ -1993,7 +1995,7 @@
         <v>-2</v>
       </c>
       <c r="AK20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AL20" s="22">
         <v>-2</v>
@@ -2002,7 +2004,7 @@
         <v>-2</v>
       </c>
       <c r="AN20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AO20" s="22">
         <v>-2</v>
@@ -2011,7 +2013,7 @@
         <v>-2</v>
       </c>
       <c r="AQ20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AR20" s="22">
         <v>-2</v>
@@ -2020,14 +2022,14 @@
         <v>-2</v>
       </c>
       <c r="AT20" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="s">
         <v>32</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2326,7 +2328,7 @@
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B23" s="22">
         <v>-2</v>
@@ -2335,7 +2337,7 @@
         <v>-2</v>
       </c>
       <c r="D23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="E23" s="22">
         <v>-2</v>
@@ -2344,7 +2346,7 @@
         <v>-2</v>
       </c>
       <c r="G23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="H23" s="22">
         <v>-2</v>
@@ -2353,7 +2355,7 @@
         <v>-2</v>
       </c>
       <c r="J23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="K23" s="22">
         <v>-2</v>
@@ -2362,7 +2364,7 @@
         <v>-2</v>
       </c>
       <c r="M23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="N23" s="22">
         <v>-2</v>
@@ -2371,7 +2373,7 @@
         <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="22">
         <v>-2</v>
@@ -2380,7 +2382,7 @@
         <v>-2</v>
       </c>
       <c r="S23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="T23" s="22">
         <v>-2</v>
@@ -2389,7 +2391,7 @@
         <v>-2</v>
       </c>
       <c r="V23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="W23" s="22">
         <v>-2</v>
@@ -2398,7 +2400,7 @@
         <v>-2</v>
       </c>
       <c r="Y23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Z23" s="22">
         <v>-2</v>
@@ -2407,7 +2409,7 @@
         <v>-2</v>
       </c>
       <c r="AB23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AC23" s="22">
         <v>-2</v>
@@ -2416,7 +2418,7 @@
         <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AF23" s="22">
         <v>-2</v>
@@ -2425,16 +2427,16 @@
         <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AI23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AL23" s="22">
         <v>-2</v>
@@ -2443,7 +2445,7 @@
         <v>-2</v>
       </c>
       <c r="AN23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AO23" s="22">
         <v>-2</v>
@@ -2452,10 +2454,10 @@
         <v>-2</v>
       </c>
       <c r="AQ23" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AR23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS23" s="22">
         <v>-2</v>
@@ -2572,16 +2574,16 @@
         <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ24" s="22">
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2615,7 +2617,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2719,7 +2721,7 @@
         <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2728,7 +2730,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
@@ -2762,12 +2764,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>109</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2776,7 +2778,7 @@
         <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="E26" s="22">
         <v>-2</v>
@@ -2785,7 +2787,7 @@
         <v>-2</v>
       </c>
       <c r="G26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="H26" s="22">
         <v>-2</v>
@@ -2794,94 +2796,94 @@
         <v>-2</v>
       </c>
       <c r="J26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="W26" s="22">
         <v>-2</v>
       </c>
       <c r="X26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="22">
         <v>0</v>
       </c>
       <c r="AI26" s="22">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AJ26" s="22">
         <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN26" s="22">
         <v>-2</v>
@@ -2893,10 +2895,10 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="AR26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS26" s="22">
         <v>-2</v>
@@ -2934,7 +2936,7 @@
         <v>-2</v>
       </c>
       <c r="J27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="22">
         <v>-2</v>
@@ -2967,7 +2969,7 @@
         <v>-2</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
         <v>-2</v>
@@ -2976,7 +2978,7 @@
         <v>-2</v>
       </c>
       <c r="X27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="22">
         <v>-2</v>
@@ -3015,7 +3017,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3074,7 +3076,7 @@
         <v>-2</v>
       </c>
       <c r="J28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="22">
         <v>-2</v>
@@ -3089,34 +3091,34 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="22">
         <v>0</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="22">
         <v>-2</v>
@@ -3149,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
@@ -3158,36 +3160,36 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -3196,7 +3198,7 @@
         <v>-2</v>
       </c>
       <c r="D29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="E29" s="22">
         <v>-2</v>
@@ -3205,7 +3207,7 @@
         <v>-2</v>
       </c>
       <c r="G29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="H29" s="22">
         <v>-2</v>
@@ -3214,7 +3216,7 @@
         <v>-2</v>
       </c>
       <c r="J29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="22">
         <v>-2</v>
@@ -3229,10 +3231,10 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
         <v>-2</v>
@@ -3241,7 +3243,7 @@
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -3256,13 +3258,13 @@
         <v>-2</v>
       </c>
       <c r="X29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="22">
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3289,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3298,7 +3300,7 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
@@ -3310,19 +3312,19 @@
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AR29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS29" s="22">
         <v>-2</v>
       </c>
       <c r="AT29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3354,7 +3356,7 @@
         <v>-2</v>
       </c>
       <c r="J30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="22">
         <v>-2</v>
@@ -3369,7 +3371,7 @@
         <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="W30" s="22">
         <v>-2</v>
       </c>
       <c r="X30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="22">
         <v>-2</v>
@@ -3414,22 +3416,22 @@
         <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH30" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AJ30" s="22">
         <v>-2</v>
@@ -3441,7 +3443,7 @@
         <v>-2</v>
       </c>
       <c r="AM30" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN30" s="22">
         <v>-2</v>
@@ -3482,7 +3484,7 @@
         <v>-2</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
         <v>-2</v>
@@ -3491,10 +3493,10 @@
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="22">
         <v>-2</v>
@@ -3503,13 +3505,13 @@
         <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3521,7 +3523,7 @@
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3536,7 +3538,7 @@
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="22">
         <v>-2</v>
@@ -3548,25 +3550,25 @@
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
       </c>
       <c r="AH31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="22">
         <v>-2</v>
@@ -3607,79 +3609,79 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="22">
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="E32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="H32" s="22">
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
         <v>0</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="22">
         <v>0</v>
       </c>
       <c r="P32" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="22">
         <v>0</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="W32" s="22">
         <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
         <v>0</v>
@@ -3688,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="AB32" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="22">
         <v>-2</v>
@@ -3715,7 +3717,7 @@
         <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
         <v>-2</v>
@@ -3724,7 +3726,7 @@
         <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="22">
         <v>-2</v>
@@ -3733,156 +3735,156 @@
         <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AR32" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS32" s="22">
         <v>-2</v>
       </c>
       <c r="AT32" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="22">
+        <v>44</v>
+      </c>
+      <c r="K33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="22">
+        <v>31</v>
+      </c>
+      <c r="O33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>31</v>
+      </c>
+      <c r="R33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="22">
         <v>21</v>
       </c>
-      <c r="F33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="U33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="W33" s="22">
+        <v>-1</v>
+      </c>
+      <c r="X33" s="22">
         <v>21</v>
       </c>
-      <c r="J33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <v>0</v>
-      </c>
-      <c r="O33" s="22">
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>0</v>
-      </c>
-      <c r="R33" s="22">
-        <v>0</v>
-      </c>
-      <c r="S33" s="22">
-        <v>21</v>
-      </c>
-      <c r="T33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U33" s="22">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22">
-        <v>0</v>
-      </c>
-      <c r="W33" s="22">
-        <v>0</v>
-      </c>
-      <c r="X33" s="22">
-        <v>0</v>
-      </c>
       <c r="Y33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33" s="22">
         <v>31</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF33" s="22">
         <v>31</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3890,7 +3892,7 @@
         <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
         <v>-1</v>
@@ -3899,10 +3901,10 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
@@ -3911,10 +3913,10 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="22">
         <v>-1</v>
@@ -3926,108 +3928,108 @@
         <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="22">
         <v>0</v>
       </c>
       <c r="T34" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U34" s="22">
         <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AA34" s="22">
         <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="22">
         <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="22">
         <v>44</v>
       </c>
-      <c r="AJ34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AM34" s="22">
-        <v>44</v>
-      </c>
-      <c r="AN34" s="22">
-        <v>-2</v>
-      </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="22">
         <v>-1</v>
@@ -4036,22 +4038,22 @@
         <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E35" s="22">
         <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="H35" s="22">
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -4066,13 +4068,13 @@
         <v>-1</v>
       </c>
       <c r="N35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -4081,10 +4083,10 @@
         <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
         <v>-1</v>
@@ -4099,7 +4101,7 @@
         <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
         <v>-1</v>
@@ -4108,61 +4110,61 @@
         <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>91</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4206,13 +4208,13 @@
         <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="22">
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
         <v>-1</v>
@@ -4221,7 +4223,7 @@
         <v>-1</v>
       </c>
       <c r="S36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
@@ -4230,7 +4232,7 @@
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -4239,70 +4241,70 @@
         <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AA36" s="22">
         <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4334,7 +4336,7 @@
         <v>-1</v>
       </c>
       <c r="J37" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="K37" s="22">
         <v>-1</v>
@@ -4346,7 +4348,7 @@
         <v>-1</v>
       </c>
       <c r="N37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="22">
         <v>-1</v>
@@ -4379,7 +4381,7 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
@@ -4388,7 +4390,7 @@
         <v>-1</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="22">
         <v>-1</v>
@@ -4403,51 +4405,51 @@
         <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B38" s="22">
         <v>-1</v>
@@ -4456,7 +4458,7 @@
         <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E38" s="22">
         <v>-1</v>
@@ -4465,7 +4467,7 @@
         <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="H38" s="22">
         <v>-1</v>
@@ -4486,7 +4488,7 @@
         <v>-1</v>
       </c>
       <c r="N38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="22">
         <v>-1</v>
@@ -4519,16 +4521,16 @@
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
       </c>
       <c r="AB38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="22">
         <v>-1</v>
@@ -4549,40 +4551,40 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
         <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4626,7 +4628,7 @@
         <v>-1</v>
       </c>
       <c r="N39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="22">
         <v>-1</v>
@@ -4659,7 +4661,7 @@
         <v>-1</v>
       </c>
       <c r="Y39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="22">
         <v>-1</v>
@@ -4668,7 +4670,7 @@
         <v>-1</v>
       </c>
       <c r="AB39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="22">
         <v>-1</v>
@@ -4701,7 +4703,7 @@
         <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="22">
         <v>-1</v>
@@ -4766,82 +4768,82 @@
         <v>-1</v>
       </c>
       <c r="N40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AA40" s="22">
         <v>-1</v>
       </c>
       <c r="AB40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -4853,7 +4855,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4867,7 +4869,7 @@
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B41" s="22">
         <v>-1</v>
@@ -4876,7 +4878,7 @@
         <v>-1</v>
       </c>
       <c r="D41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E41" s="22">
         <v>-1</v>
@@ -4885,7 +4887,7 @@
         <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="H41" s="22">
         <v>-1</v>
@@ -4894,7 +4896,7 @@
         <v>-1</v>
       </c>
       <c r="J41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="K41" s="22">
         <v>-1</v>
@@ -4903,7 +4905,7 @@
         <v>-1</v>
       </c>
       <c r="M41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="N41" s="22">
         <v>-1</v>
@@ -4912,7 +4914,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="22">
         <v>-1</v>
@@ -4921,7 +4923,7 @@
         <v>-1</v>
       </c>
       <c r="S41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="T41" s="22">
         <v>-1</v>
@@ -4930,7 +4932,7 @@
         <v>-1</v>
       </c>
       <c r="V41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="W41" s="22">
         <v>-1</v>
@@ -4939,7 +4941,7 @@
         <v>-1</v>
       </c>
       <c r="Y41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Z41" s="22">
         <v>-1</v>
@@ -4948,7 +4950,7 @@
         <v>-1</v>
       </c>
       <c r="AB41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AC41" s="22">
         <v>-1</v>
@@ -4957,7 +4959,7 @@
         <v>-1</v>
       </c>
       <c r="AE41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4966,7 +4968,7 @@
         <v>-1</v>
       </c>
       <c r="AH41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AI41" s="22">
         <v>-1</v>
@@ -4975,7 +4977,7 @@
         <v>-1</v>
       </c>
       <c r="AK41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AL41" s="22">
         <v>-1</v>
@@ -4996,7 +4998,7 @@
         <v>-1</v>
       </c>
       <c r="AR41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AS41" s="22">
         <v>-1</v>
@@ -5124,13 +5126,13 @@
         <v>-1</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AO42" s="22">
         <v>-1</v>
       </c>
       <c r="AP42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AQ42" s="22">
         <v>-1</v>
@@ -5287,7 +5289,7 @@
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B44" s="22">
         <v>-1</v>
@@ -5296,7 +5298,7 @@
         <v>-1</v>
       </c>
       <c r="D44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E44" s="22">
         <v>-1</v>
@@ -5305,7 +5307,7 @@
         <v>-1</v>
       </c>
       <c r="G44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="H44" s="22">
         <v>-1</v>
@@ -5314,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="J44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="K44" s="22">
         <v>-1</v>
@@ -5323,7 +5325,7 @@
         <v>-1</v>
       </c>
       <c r="M44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="N44" s="22">
         <v>-1</v>
@@ -5332,7 +5334,7 @@
         <v>-1</v>
       </c>
       <c r="P44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="22">
         <v>-1</v>
@@ -5341,7 +5343,7 @@
         <v>-1</v>
       </c>
       <c r="S44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="T44" s="22">
         <v>-1</v>
@@ -5350,7 +5352,7 @@
         <v>-1</v>
       </c>
       <c r="V44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="W44" s="22">
         <v>-1</v>
@@ -5359,7 +5361,7 @@
         <v>-1</v>
       </c>
       <c r="Y44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Z44" s="22">
         <v>-1</v>
@@ -5368,7 +5370,7 @@
         <v>-1</v>
       </c>
       <c r="AB44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AC44" s="22">
         <v>-1</v>
@@ -5377,7 +5379,7 @@
         <v>-1</v>
       </c>
       <c r="AE44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AF44" s="22">
         <v>-1</v>
@@ -5386,7 +5388,7 @@
         <v>-1</v>
       </c>
       <c r="AH44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AI44" s="22">
         <v>-1</v>
@@ -5395,7 +5397,7 @@
         <v>-1</v>
       </c>
       <c r="AK44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AL44" s="22">
         <v>-1</v>
@@ -5404,7 +5406,7 @@
         <v>-1</v>
       </c>
       <c r="AN44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AO44" s="22">
         <v>-1</v>
@@ -5413,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="AQ44" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AR44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AS44" s="22">
         <v>-1</v>
@@ -6308,7 +6310,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Game&amp;ToolCreate\Project\CosMos\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD530900-D727-449E-8C8E-C4CEE818EF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC501C8-9757-43EE-8D00-CAB1D80D572A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1693,8 +1693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ45" sqref="AQ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1911,43 +1911,43 @@
         <v>-2</v>
       </c>
       <c r="I20" s="22">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J20" s="22">
         <v>-2</v>
       </c>
       <c r="K20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M20" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q20" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U20" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="V20" s="22">
         <v>-2</v>
@@ -1959,40 +1959,40 @@
         <v>-2</v>
       </c>
       <c r="Y20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="Z20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC20" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AD20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG20" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK20" s="22">
         <v>44</v>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>275</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2064,7 +2064,7 @@
         <v>-2</v>
       </c>
       <c r="K21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L21" s="22">
         <v>-2</v>
@@ -2094,7 +2094,7 @@
         <v>-2</v>
       </c>
       <c r="U21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V21" s="22">
         <v>-2</v>
@@ -2109,7 +2109,7 @@
         <v>-2</v>
       </c>
       <c r="Z21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA21" s="22">
         <v>-2</v>
@@ -2139,7 +2139,7 @@
         <v>-2</v>
       </c>
       <c r="AJ21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK21" s="22">
         <v>-2</v>
@@ -2205,13 +2205,13 @@
         <v>-2</v>
       </c>
       <c r="I22" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="J22" s="22">
         <v>-2</v>
       </c>
       <c r="K22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L22" s="22">
         <v>-2</v>
@@ -2241,7 +2241,7 @@
         <v>-2</v>
       </c>
       <c r="U22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V22" s="22">
         <v>-2</v>
@@ -2256,7 +2256,7 @@
         <v>-2</v>
       </c>
       <c r="Z22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA22" s="22">
         <v>-2</v>
@@ -2286,7 +2286,7 @@
         <v>-2</v>
       </c>
       <c r="AJ22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK22" s="22">
         <v>-2</v>
@@ -2358,7 +2358,7 @@
         <v>-2</v>
       </c>
       <c r="K23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L23" s="22">
         <v>-2</v>
@@ -2388,7 +2388,7 @@
         <v>-2</v>
       </c>
       <c r="U23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V23" s="22">
         <v>-2</v>
@@ -2403,7 +2403,7 @@
         <v>-2</v>
       </c>
       <c r="Z23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA23" s="22">
         <v>-2</v>
@@ -2433,7 +2433,7 @@
         <v>-2</v>
       </c>
       <c r="AJ23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK23" s="22">
         <v>-2</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B24" s="22">
         <v>-2</v>
@@ -2484,130 +2484,130 @@
         <v>-2</v>
       </c>
       <c r="D24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="E24" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="F24" s="22">
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="22">
         <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J24" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="K24" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L24" s="22">
         <v>-2</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="N24" s="22">
         <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
       </c>
       <c r="Q24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="R24" s="22">
         <v>-2</v>
       </c>
       <c r="S24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="T24" s="22">
         <v>-2</v>
       </c>
       <c r="U24" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V24" s="22">
         <v>-2</v>
       </c>
       <c r="W24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="X24" s="22">
         <v>-2</v>
       </c>
       <c r="Y24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Z24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AB24" s="22">
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AD24" s="22">
         <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AJ24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
       </c>
       <c r="AM24" s="22">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AN24" s="22">
         <v>-2</v>
       </c>
       <c r="AO24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP24" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ24" s="22">
         <v>44</v>
       </c>
-      <c r="AP24" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ24" s="22">
-        <v>-2</v>
-      </c>
       <c r="AR24" s="22">
         <v>-2</v>
       </c>
       <c r="AS24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT24" s="22">
         <v>-2</v>
@@ -2617,72 +2617,72 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V25" s="22">
         <v>-2</v>
@@ -2697,16 +2697,16 @@
         <v>-2</v>
       </c>
       <c r="Z25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2718,28 +2718,28 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO25" s="22">
         <v>-2</v>
@@ -2764,12 +2764,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>289</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2793,100 +2793,100 @@
         <v>-2</v>
       </c>
       <c r="I26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="22">
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="22">
         <v>0</v>
       </c>
       <c r="R26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="22">
         <v>0</v>
       </c>
       <c r="AA26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="22">
         <v>-2</v>
       </c>
       <c r="AN26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO26" s="22">
         <v>-2</v>
@@ -2901,7 +2901,7 @@
         <v>-2</v>
       </c>
       <c r="AS26" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT26" s="22">
         <v>-2</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="22">
         <v>-2</v>
@@ -2933,7 +2933,7 @@
         <v>-2</v>
       </c>
       <c r="I27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="22">
         <v>-2</v>
@@ -2948,7 +2948,7 @@
         <v>-2</v>
       </c>
       <c r="N27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O27" s="22">
         <v>-2</v>
@@ -2957,7 +2957,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2984,7 +2984,7 @@
         <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -3020,13 +3020,13 @@
         <v>-2</v>
       </c>
       <c r="AL27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="22">
         <v>-2</v>
       </c>
       <c r="AN27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO27" s="22">
         <v>-2</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -3061,7 +3061,7 @@
         <v>-2</v>
       </c>
       <c r="E28" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="F28" s="22">
         <v>-2</v>
@@ -3073,7 +3073,7 @@
         <v>-2</v>
       </c>
       <c r="I28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="22">
         <v>-2</v>
@@ -3088,16 +3088,16 @@
         <v>-2</v>
       </c>
       <c r="N28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
@@ -3124,7 +3124,7 @@
         <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
         <v>-2</v>
@@ -3160,28 +3160,28 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP28" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ28" s="22">
         <v>44</v>
       </c>
-      <c r="AP28" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ28" s="22">
-        <v>-2</v>
-      </c>
       <c r="AR28" s="22">
         <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
         <v>-2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -3213,7 +3213,7 @@
         <v>-2</v>
       </c>
       <c r="I29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="22">
         <v>-2</v>
@@ -3228,7 +3228,7 @@
         <v>-2</v>
       </c>
       <c r="N29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O29" s="22">
         <v>-2</v>
@@ -3237,19 +3237,19 @@
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V29" s="22">
         <v>-2</v>
@@ -3264,7 +3264,7 @@
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3276,13 +3276,13 @@
         <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
@@ -3300,13 +3300,13 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
       <c r="C30" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="D30" s="22">
         <v>-2</v>
@@ -3353,7 +3353,7 @@
         <v>-2</v>
       </c>
       <c r="I30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -3362,13 +3362,13 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
         <v>-2</v>
@@ -3377,10 +3377,10 @@
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="S30" s="22">
         <v>-2</v>
@@ -3389,7 +3389,7 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="22">
         <v>-2</v>
@@ -3404,7 +3404,7 @@
         <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3416,13 +3416,13 @@
         <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3431,22 +3431,22 @@
         <v>-2</v>
       </c>
       <c r="AI30" s="22">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AJ30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL30" s="22">
         <v>0</v>
       </c>
       <c r="AM30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO30" s="22">
         <v>-2</v>
@@ -3461,7 +3461,7 @@
         <v>-2</v>
       </c>
       <c r="AS30" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT30" s="22">
         <v>-2</v>
@@ -3469,19 +3469,19 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="22">
         <v>-2</v>
@@ -3490,7 +3490,7 @@
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="22">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
@@ -3529,7 +3529,7 @@
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3544,49 +3544,49 @@
         <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3621,79 +3621,79 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="K32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="L32" s="22">
+        <v>90</v>
+      </c>
+      <c r="M32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="22">
         <v>2</v>
       </c>
-      <c r="G32" s="22">
+      <c r="Q32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="22">
         <v>2</v>
       </c>
-      <c r="H32" s="22">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="22">
+      <c r="X32" s="22">
         <v>2</v>
       </c>
-      <c r="K32" s="22">
+      <c r="Y32" s="22">
         <v>2</v>
       </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="N32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="P32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>11</v>
-      </c>
-      <c r="R32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U32" s="22">
-        <v>0</v>
-      </c>
-      <c r="V32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y32" s="22">
-        <v>-2</v>
-      </c>
       <c r="Z32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="22">
         <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AD32" s="22">
         <v>-2</v>
@@ -3702,16 +3702,16 @@
         <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="22">
         <v>-2</v>
@@ -3720,28 +3720,28 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN32" s="22">
         <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AP32" s="22">
         <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
       </c>
       <c r="AS32" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT32" s="22">
         <v>-2</v>
@@ -3761,16 +3761,16 @@
         <v>-2</v>
       </c>
       <c r="E33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I33" s="22">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N33" s="22">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="22">
         <v>0</v>
@@ -3833,58 +3833,58 @@
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
         <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP33" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3901,7 +3901,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="22">
         <v>-1</v>
@@ -3913,34 +3913,34 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M34" s="22">
         <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="22">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="P34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="S34" s="22">
         <v>-1</v>
@@ -3949,7 +3949,7 @@
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V34" s="22">
         <v>-1</v>
@@ -3958,7 +3958,7 @@
         <v>-1</v>
       </c>
       <c r="X34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="Y34" s="22">
         <v>-1</v>
@@ -3967,16 +3967,16 @@
         <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AB34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
         <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AE34" s="22">
         <v>-1</v>
@@ -3985,7 +3985,7 @@
         <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AH34" s="22">
         <v>-1</v>
@@ -3994,22 +3994,22 @@
         <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AK34" s="22">
         <v>-1</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AN34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AO34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP34" s="22">
         <v>-1</v>
@@ -4056,58 +4056,58 @@
         <v>0</v>
       </c>
       <c r="J35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N35" s="22">
         <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
         <v>0</v>
       </c>
       <c r="R35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="22">
         <v>0</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="22">
         <v>0</v>
@@ -4119,25 +4119,25 @@
         <v>0</v>
       </c>
       <c r="AE35" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="22">
         <v>0</v>
@@ -4149,22 +4149,22 @@
         <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4181,7 +4181,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="F36" s="22">
         <v>-1</v>
@@ -4202,13 +4202,13 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="22">
         <v>-1</v>
@@ -4217,10 +4217,10 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="S36" s="22">
         <v>-1</v>
@@ -4229,7 +4229,7 @@
         <v>-1</v>
       </c>
       <c r="U36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V36" s="22">
         <v>-1</v>
@@ -4238,10 +4238,10 @@
         <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="22">
         <v>-1</v>
@@ -4256,34 +4256,34 @@
         <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
         <v>0</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AN36" s="22">
         <v>-1</v>
@@ -4295,16 +4295,16 @@
         <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR36" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
         <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4357,61 +4357,61 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="AJ37" s="22">
         <v>-1</v>
@@ -4420,7 +4420,7 @@
         <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="22">
         <v>-1</v>
@@ -4444,7 +4444,7 @@
         <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4461,13 +4461,13 @@
         <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="22">
         <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="22">
         <v>-1</v>
@@ -4509,22 +4509,22 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
       </c>
       <c r="X38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="Y38" s="22">
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4560,7 +4560,7 @@
         <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
         <v>-1</v>
@@ -4584,7 +4584,7 @@
         <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4607,10 +4607,10 @@
         <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="22">
         <v>0</v>
@@ -4649,22 +4649,22 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39" s="22">
         <v>-1</v>
@@ -4700,7 +4700,7 @@
         <v>-1</v>
       </c>
       <c r="AL39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="22">
         <v>-1</v>
@@ -4724,7 +4724,7 @@
         <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4741,19 +4741,19 @@
         <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F40" s="22">
         <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="22">
         <v>-1</v>
       </c>
       <c r="I40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="22">
         <v>-1</v>
@@ -4795,10 +4795,10 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="22">
         <v>-1</v>
@@ -4840,10 +4840,10 @@
         <v>-1</v>
       </c>
       <c r="AL40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -4855,7 +4855,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4864,7 +4864,7 @@
         <v>-1</v>
       </c>
       <c r="AT40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4887,34 +4887,34 @@
         <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="22">
         <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="22">
         <v>0</v>
@@ -4926,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="22">
         <v>0</v>
@@ -4941,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="22">
         <v>0</v>
@@ -4959,28 +4959,28 @@
         <v>0</v>
       </c>
       <c r="AE41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="22">
         <v>-1</v>
@@ -5004,7 +5004,7 @@
         <v>-1</v>
       </c>
       <c r="AT41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5021,13 +5021,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="22">
         <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -5042,13 +5042,13 @@
         <v>-1</v>
       </c>
       <c r="L42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O42" s="22">
         <v>-1</v>
@@ -5057,7 +5057,7 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42" s="22">
         <v>-1</v>
@@ -5075,10 +5075,10 @@
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
@@ -5096,55 +5096,55 @@
         <v>-1</v>
       </c>
       <c r="AD42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5167,13 +5167,13 @@
         <v>-1</v>
       </c>
       <c r="G43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J43" s="22">
         <v>-1</v>
@@ -5197,7 +5197,7 @@
         <v>-1</v>
       </c>
       <c r="Q43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43" s="22">
         <v>-1</v>
@@ -5215,10 +5215,10 @@
         <v>-1</v>
       </c>
       <c r="W43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y43" s="22">
         <v>-1</v>
@@ -5236,10 +5236,10 @@
         <v>-1</v>
       </c>
       <c r="AD43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE43" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF43" s="22">
         <v>-1</v>
@@ -5251,7 +5251,7 @@
         <v>-1</v>
       </c>
       <c r="AI43" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ43" s="22">
         <v>-1</v>
@@ -5263,7 +5263,7 @@
         <v>-1</v>
       </c>
       <c r="AM43" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AN43" s="22">
         <v>-1</v>
@@ -5275,7 +5275,7 @@
         <v>-1</v>
       </c>
       <c r="AQ43" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR43" s="22">
         <v>-1</v>
@@ -5307,16 +5307,16 @@
         <v>-1</v>
       </c>
       <c r="G44" s="22">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H44" s="22">
         <v>-1</v>
       </c>
       <c r="I44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="K44" s="22">
         <v>-1</v>
@@ -5325,7 +5325,7 @@
         <v>-1</v>
       </c>
       <c r="M44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="N44" s="22">
         <v>-1</v>
@@ -5334,16 +5334,16 @@
         <v>-1</v>
       </c>
       <c r="P44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R44" s="22">
         <v>-1</v>
       </c>
       <c r="S44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="T44" s="22">
         <v>-1</v>
@@ -5352,16 +5352,16 @@
         <v>-1</v>
       </c>
       <c r="V44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="W44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="Z44" s="22">
         <v>-1</v>
@@ -5370,16 +5370,16 @@
         <v>-1</v>
       </c>
       <c r="AB44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AC44" s="22">
         <v>-1</v>
       </c>
       <c r="AD44" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AF44" s="22">
         <v>-1</v>
@@ -5388,7 +5388,7 @@
         <v>-1</v>
       </c>
       <c r="AH44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AI44" s="22">
         <v>-1</v>
@@ -5397,7 +5397,7 @@
         <v>-1</v>
       </c>
       <c r="AK44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AL44" s="22">
         <v>-1</v>
@@ -5406,7 +5406,7 @@
         <v>-1</v>
       </c>
       <c r="AN44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AO44" s="22">
         <v>-1</v>
@@ -5415,7 +5415,7 @@
         <v>-1</v>
       </c>
       <c r="AQ44" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="AR44" s="22">
         <v>-1</v>
@@ -5424,7 +5424,7 @@
         <v>-1</v>
       </c>
       <c r="AT44" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5453,7 +5453,7 @@
         <v>-1</v>
       </c>
       <c r="I45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45" s="22">
         <v>-1</v>
@@ -5477,7 +5477,7 @@
         <v>-1</v>
       </c>
       <c r="Q45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R45" s="22">
         <v>-1</v>
@@ -5495,10 +5495,10 @@
         <v>-1</v>
       </c>
       <c r="W45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y45" s="22">
         <v>-1</v>
@@ -5516,7 +5516,7 @@
         <v>-1</v>
       </c>
       <c r="AD45" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE45" s="22">
         <v>-1</v>
@@ -5587,76 +5587,76 @@
         <v>-1</v>
       </c>
       <c r="G46" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="H46" s="22">
         <v>-1</v>
       </c>
       <c r="I46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD46" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC501C8-9757-43EE-8D00-CAB1D80D572A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7142C-1965-4E79-8178-1733B15E91E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1693,8 +1693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ45" sqref="AQ45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5033,91 +5033,91 @@
         <v>-1</v>
       </c>
       <c r="I42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J42" s="22">
         <v>-1</v>
       </c>
       <c r="K42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="L42" s="22">
         <v>-1</v>
       </c>
       <c r="M42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="N42" s="22">
         <v>-1</v>
       </c>
       <c r="O42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="P42" s="22">
         <v>-1</v>
       </c>
       <c r="Q42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="R42" s="22">
         <v>-1</v>
       </c>
       <c r="S42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="T42" s="22">
         <v>-1</v>
       </c>
       <c r="U42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="V42" s="22">
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="X42" s="22">
         <v>-1</v>
       </c>
       <c r="Y42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="Z42" s="22">
         <v>-1</v>
       </c>
       <c r="AA42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AB42" s="22">
         <v>-1</v>
       </c>
       <c r="AC42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AD42" s="22">
         <v>-1</v>
       </c>
       <c r="AE42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AF42" s="22">
         <v>-1</v>
       </c>
       <c r="AG42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AH42" s="22">
         <v>-1</v>
       </c>
       <c r="AI42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AJ42" s="22">
         <v>-1</v>
       </c>
       <c r="AK42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AL42" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7142C-1965-4E79-8178-1733B15E91E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAD902-5365-4720-BF23-C8B832F9ED0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Inteval</t>
   </si>
   <si>
@@ -699,6 +695,9 @@
   </si>
   <si>
     <t>Shrink</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY99"/>
+  <dimension ref="A1:AY111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2499,91 +2498,91 @@
         <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J24" s="22">
         <v>-2</v>
       </c>
       <c r="K24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="M24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="N24" s="22">
         <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
       </c>
       <c r="Q24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="R24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="S24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="T24" s="22">
         <v>-2</v>
       </c>
       <c r="U24" s="22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="V24" s="22">
         <v>-2</v>
       </c>
       <c r="W24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="X24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Z24" s="22">
         <v>-2</v>
       </c>
       <c r="AA24" s="22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AB24" s="22">
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AE24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AK24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
@@ -2646,94 +2645,94 @@
         <v>-2</v>
       </c>
       <c r="I25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="22">
         <v>-2</v>
@@ -2796,88 +2795,88 @@
         <v>0</v>
       </c>
       <c r="J26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>0</v>
@@ -3291,7 +3290,7 @@
         <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -3431,7 +3430,7 @@
         <v>-2</v>
       </c>
       <c r="AI30" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AJ30" s="22">
         <v>-2</v>
@@ -3502,7 +3501,7 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="M31" s="22">
         <v>-2</v>
@@ -3514,7 +3513,7 @@
         <v>-2</v>
       </c>
       <c r="P31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="22">
         <v>-2</v>
@@ -3535,16 +3534,16 @@
         <v>-2</v>
       </c>
       <c r="W31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
@@ -3562,7 +3561,7 @@
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3636,88 +3635,88 @@
         <v>0</v>
       </c>
       <c r="J32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="22">
         <v>0</v>
@@ -3773,94 +3772,94 @@
         <v>-2</v>
       </c>
       <c r="I33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM33" s="22">
         <v>-2</v>
@@ -3913,94 +3912,94 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
         <v>-1</v>
@@ -4056,88 +4055,88 @@
         <v>0</v>
       </c>
       <c r="J35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
         <v>0</v>
@@ -4202,7 +4201,7 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="22">
         <v>-1</v>
@@ -4217,7 +4216,7 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R36" s="22">
         <v>-1</v>
@@ -4238,10 +4237,10 @@
         <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
         <v>-1</v>
@@ -4259,7 +4258,7 @@
         <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
         <v>-1</v>
@@ -4271,7 +4270,7 @@
         <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AJ36" s="22">
         <v>-1</v>
@@ -4411,7 +4410,7 @@
         <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
         <v>-1</v>
@@ -4756,88 +4755,88 @@
         <v>0</v>
       </c>
       <c r="J40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="22">
         <v>0</v>
@@ -4893,94 +4892,94 @@
         <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AB41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AE41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ41" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AK41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL41" s="22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM41" s="22">
         <v>-1</v>
@@ -5033,91 +5032,91 @@
         <v>-1</v>
       </c>
       <c r="I42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J42" s="22">
         <v>-1</v>
       </c>
       <c r="K42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="L42" s="22">
         <v>-1</v>
       </c>
       <c r="M42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="22">
         <v>-1</v>
       </c>
       <c r="O42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="P42" s="22">
         <v>-1</v>
       </c>
       <c r="Q42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="R42" s="22">
         <v>-1</v>
       </c>
       <c r="S42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="T42" s="22">
         <v>-1</v>
       </c>
       <c r="U42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="V42" s="22">
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="X42" s="22">
         <v>-1</v>
       </c>
       <c r="Y42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="Z42" s="22">
         <v>-1</v>
       </c>
       <c r="AA42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AB42" s="22">
         <v>-1</v>
       </c>
       <c r="AC42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AD42" s="22">
         <v>-1</v>
       </c>
       <c r="AE42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AF42" s="22">
         <v>-1</v>
       </c>
       <c r="AG42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AH42" s="22">
         <v>-1</v>
       </c>
       <c r="AI42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AJ42" s="22">
         <v>-1</v>
       </c>
       <c r="AK42" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AL42" s="22">
         <v>-1</v>
@@ -5726,7 +5725,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="29" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -5737,13 +5736,13 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="29" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
@@ -5759,7 +5758,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -5770,52 +5769,48 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F53" s="29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29">
-        <v>9</v>
-      </c>
-      <c r="F54" s="29">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F54" s="29"/>
       <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F55" s="29">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F55" s="29"/>
       <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="29" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -5835,59 +5830,56 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F59" s="29">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29">
-        <v>36</v>
-      </c>
-      <c r="F60" s="29">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29">
-        <v>1</v>
-      </c>
-      <c r="F61" s="29">
-        <v>0</v>
-      </c>
+        <v>-16</v>
+      </c>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="29" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -5905,7 +5897,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="29" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -5914,36 +5906,47 @@
       <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="E65" s="29">
+        <v>32</v>
+      </c>
+      <c r="F65" s="29">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="A66" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="E66" s="29">
+        <v>4</v>
+      </c>
       <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="29"/>
+      <c r="A67" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="28"/>
+      <c r="A68" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
@@ -5951,121 +5954,106 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="38"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="29">
-        <v>13</v>
-      </c>
-      <c r="F70" s="29">
-        <v>5</v>
-      </c>
+      <c r="A70" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="29">
-        <v>21</v>
-      </c>
-      <c r="F71" s="29">
-        <v>5</v>
-      </c>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="29">
-        <v>1</v>
-      </c>
-      <c r="F72" s="29">
-        <v>0</v>
-      </c>
+      <c r="A72" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="28"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="38"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="29">
-        <v>14</v>
-      </c>
-      <c r="F76" s="29">
-        <v>19</v>
-      </c>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="29">
-        <v>4</v>
-      </c>
-      <c r="F77" s="29">
-        <v>19</v>
-      </c>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F78" s="29">
-        <v>0</v>
-      </c>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" s="29"/>
+      <c r="A79" s="28"/>
       <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="28"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="A81" s="28"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="38"/>
@@ -6073,43 +6061,23 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="A82" s="28"/>
       <c r="D82" s="38"/>
-      <c r="E82" s="29">
-        <v>34</v>
-      </c>
-      <c r="F82" s="29">
-        <v>4</v>
-      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="29">
-        <v>24</v>
-      </c>
-      <c r="F83" s="29">
-        <v>4</v>
-      </c>
+      <c r="A83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F84" s="29">
-        <v>0</v>
-      </c>
+      <c r="A84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="A85" s="28"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
     </row>
@@ -6119,9 +6087,7 @@
       <c r="C86" s="29"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="A87" s="28"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="38"/>
@@ -6129,43 +6095,23 @@
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="A88" s="28"/>
       <c r="D88" s="38"/>
-      <c r="E88" s="29">
-        <v>24</v>
-      </c>
-      <c r="F88" s="29">
-        <v>25</v>
-      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="29">
-        <v>33</v>
-      </c>
-      <c r="F89" s="29">
-        <v>25</v>
-      </c>
+      <c r="A89" s="28"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E90" s="29">
-        <v>1</v>
-      </c>
-      <c r="F90" s="29">
-        <v>0</v>
-      </c>
+      <c r="A90" s="28"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="A91" s="28"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
     </row>
@@ -6175,9 +6121,7 @@
       <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="A93" s="28"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="38"/>
@@ -6185,58 +6129,104 @@
       <c r="F93" s="29"/>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="A94" s="28"/>
       <c r="D94" s="38"/>
-      <c r="E94" s="29">
-        <v>41</v>
-      </c>
-      <c r="F94" s="29">
-        <v>25</v>
-      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="29">
-        <v>35</v>
-      </c>
-      <c r="F95" s="29">
-        <v>25</v>
-      </c>
+      <c r="A95" s="28"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F96" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="A96" s="28"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="28"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="28"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="29" t="s">
-        <v>96</v>
-      </c>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="28"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="38"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="28"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="28"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="28"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="28"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="28"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="28"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6310,8 +6300,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A88" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6958,7 +6948,7 @@
     </row>
     <row r="59" spans="1:18" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
@@ -6969,7 +6959,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -6980,7 +6970,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="29">
         <v>1</v>
@@ -7004,7 +6994,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>55</v>
@@ -7074,12 +7064,12 @@
         <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7105,7 +7095,7 @@
     </row>
     <row r="69" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -7114,7 +7104,7 @@
       <c r="F69" s="33"/>
       <c r="G69" s="34"/>
       <c r="R69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -7166,7 +7156,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>55</v>
@@ -7217,7 +7207,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="29">
         <v>120</v>
@@ -7226,13 +7216,13 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" s="30"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -7266,7 +7256,7 @@
     </row>
     <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -7277,7 +7267,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -7288,7 +7278,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="29">
         <v>1</v>
@@ -7312,7 +7302,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>55</v>
@@ -7325,7 +7315,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="29">
         <v>5</v>
@@ -7344,7 +7334,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="29">
         <v>5</v>
@@ -7363,7 +7353,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="29">
         <v>2</v>
@@ -7372,13 +7362,13 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="40">
         <v>0</v>
@@ -7387,13 +7377,13 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -7413,7 +7403,7 @@
     </row>
     <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -7425,7 +7415,7 @@
     <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="96" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -7436,7 +7426,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -7447,7 +7437,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="29">
         <v>1</v>
@@ -7471,7 +7461,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>55</v>
@@ -7503,7 +7493,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="29">
         <v>3</v>
@@ -7512,15 +7502,15 @@
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
       <c r="F102" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G102" s="30" t="s">
         <v>111</v>
-      </c>
-      <c r="G102" s="30" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="29">
         <v>0</v>
@@ -7529,13 +7519,13 @@
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
       <c r="F103" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G103" s="30"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -7555,7 +7545,7 @@
     </row>
     <row r="106" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAD902-5365-4720-BF23-C8B832F9ED0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAC6FB5-09FA-47BC-8572-DA0D63C3A6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1692,8 +1692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL42" sqref="AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3772,7 +3772,7 @@
         <v>-2</v>
       </c>
       <c r="I33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="J33" s="22">
         <v>-2</v>
@@ -3781,7 +3781,7 @@
         <v>-2</v>
       </c>
       <c r="L33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="M33" s="22">
         <v>-2</v>
@@ -3790,7 +3790,7 @@
         <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="P33" s="22">
         <v>-2</v>
@@ -3799,7 +3799,7 @@
         <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="S33" s="22">
         <v>-2</v>
@@ -3808,7 +3808,7 @@
         <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="V33" s="22">
         <v>-2</v>
@@ -3817,7 +3817,7 @@
         <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Y33" s="22">
         <v>-2</v>
@@ -3826,7 +3826,7 @@
         <v>-2</v>
       </c>
       <c r="AA33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AB33" s="22">
         <v>-2</v>
@@ -3835,7 +3835,7 @@
         <v>-2</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AE33" s="22">
         <v>-2</v>
@@ -3844,7 +3844,7 @@
         <v>-2</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AH33" s="22">
         <v>-2</v>
@@ -3853,7 +3853,7 @@
         <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AK33" s="22">
         <v>-2</v>
@@ -4979,7 +4979,7 @@
         <v>-1</v>
       </c>
       <c r="AL41" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AM41" s="22">
         <v>-1</v>
@@ -5423,7 +5423,7 @@
         <v>-1</v>
       </c>
       <c r="AT44" s="22">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAC6FB5-09FA-47BC-8572-DA0D63C3A6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B51468-526F-40A0-8CFC-CD73F7BBAEF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1692,8 +1692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B20" s="22">
         <v>-2</v>
@@ -1895,10 +1895,10 @@
         <v>-2</v>
       </c>
       <c r="D20" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="E20" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F20" s="22">
         <v>-2</v>
@@ -1907,25 +1907,25 @@
         <v>-2</v>
       </c>
       <c r="H20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="I20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="J20" s="22">
         <v>-2</v>
       </c>
       <c r="K20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="L20" s="22">
         <v>-2</v>
       </c>
       <c r="M20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="N20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="O20" s="22">
         <v>-2</v>
@@ -1934,7 +1934,7 @@
         <v>-2</v>
       </c>
       <c r="Q20" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="R20" s="22">
         <v>-2</v>
@@ -1943,25 +1943,25 @@
         <v>-2</v>
       </c>
       <c r="T20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="U20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="V20" s="22">
         <v>-2</v>
       </c>
       <c r="W20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="X20" s="22">
         <v>-2</v>
       </c>
       <c r="Y20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="Z20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AA20" s="22">
         <v>-2</v>
@@ -1970,7 +1970,7 @@
         <v>-2</v>
       </c>
       <c r="AC20" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AD20" s="22">
         <v>-2</v>
@@ -1979,25 +1979,25 @@
         <v>-2</v>
       </c>
       <c r="AF20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AG20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AH20" s="22">
         <v>-2</v>
       </c>
       <c r="AI20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AJ20" s="22">
         <v>-2</v>
       </c>
       <c r="AK20" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AL20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AM20" s="22">
         <v>-2</v>
@@ -2006,7 +2006,7 @@
         <v>-2</v>
       </c>
       <c r="AO20" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AP20" s="22">
         <v>-2</v>
@@ -2015,10 +2015,10 @@
         <v>-2</v>
       </c>
       <c r="AR20" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS20" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT20" s="22">
         <v>-2</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2312,7 +2312,7 @@
         <v>-2</v>
       </c>
       <c r="AS22" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT22" s="22">
         <v>-2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B23" s="22">
         <v>-2</v>
@@ -2336,124 +2336,124 @@
         <v>-2</v>
       </c>
       <c r="D23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AK23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR23" s="22">
         <v>-2</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="B24" s="22">
         <v>-2</v>
@@ -2483,10 +2483,10 @@
         <v>-2</v>
       </c>
       <c r="D24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="F24" s="22">
         <v>-2</v>
@@ -2498,7 +2498,7 @@
         <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="22">
         <v>-2</v>
@@ -2507,7 +2507,7 @@
         <v>-2</v>
       </c>
       <c r="L24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="M24" s="22">
         <v>-2</v>
@@ -2516,7 +2516,7 @@
         <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2525,7 +2525,7 @@
         <v>-2</v>
       </c>
       <c r="R24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="S24" s="22">
         <v>-2</v>
@@ -2534,7 +2534,7 @@
         <v>-2</v>
       </c>
       <c r="U24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="V24" s="22">
         <v>-2</v>
@@ -2543,7 +2543,7 @@
         <v>-2</v>
       </c>
       <c r="X24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="Y24" s="22">
         <v>-2</v>
@@ -2552,7 +2552,7 @@
         <v>-2</v>
       </c>
       <c r="AA24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AB24" s="22">
         <v>-2</v>
@@ -2561,7 +2561,7 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
         <v>-2</v>
@@ -2570,25 +2570,25 @@
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
       </c>
       <c r="AM24" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN24" s="22">
         <v>-2</v>
@@ -2597,10 +2597,10 @@
         <v>-2</v>
       </c>
       <c r="AP24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR24" s="22">
         <v>-2</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2630,7 +2630,7 @@
         <v>-2</v>
       </c>
       <c r="D25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="22">
         <v>-2</v>
@@ -2645,94 +2645,94 @@
         <v>-2</v>
       </c>
       <c r="I25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
         <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK25" s="22">
         <v>0</v>
       </c>
       <c r="AL25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM25" s="22">
         <v>-2</v>
@@ -2744,7 +2744,7 @@
         <v>-2</v>
       </c>
       <c r="AP25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="22">
         <v>-2</v>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2777,7 +2777,7 @@
         <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="22">
         <v>-2</v>
@@ -2792,7 +2792,7 @@
         <v>-2</v>
       </c>
       <c r="I26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J26" s="22">
         <v>-2</v>
@@ -2870,16 +2870,16 @@
         <v>-2</v>
       </c>
       <c r="AI26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AK26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM26" s="22">
         <v>-2</v>
@@ -2891,7 +2891,7 @@
         <v>-2</v>
       </c>
       <c r="AP26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="22">
         <v>-2</v>
@@ -2917,7 +2917,7 @@
         <v>-2</v>
       </c>
       <c r="D27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="22">
         <v>-2</v>
@@ -2932,7 +2932,7 @@
         <v>-2</v>
       </c>
       <c r="I27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J27" s="22">
         <v>-2</v>
@@ -2983,19 +2983,19 @@
         <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="22">
         <v>-2</v>
@@ -3010,16 +3010,16 @@
         <v>-2</v>
       </c>
       <c r="AI27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="22">
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27" s="22">
         <v>-2</v>
@@ -3031,10 +3031,10 @@
         <v>-2</v>
       </c>
       <c r="AP27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR27" s="22">
         <v>-2</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -3057,13 +3057,13 @@
         <v>-2</v>
       </c>
       <c r="D28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="22">
         <v>-2</v>
@@ -3072,7 +3072,7 @@
         <v>-2</v>
       </c>
       <c r="I28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J28" s="22">
         <v>-2</v>
@@ -3123,22 +3123,22 @@
         <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AD28" s="22">
         <v>-2</v>
       </c>
       <c r="AE28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="22">
         <v>-2</v>
@@ -3150,19 +3150,19 @@
         <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
         <v>-2</v>
@@ -3171,10 +3171,10 @@
         <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
         <v>-2</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -3197,7 +3197,7 @@
         <v>-2</v>
       </c>
       <c r="D29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="22">
         <v>-2</v>
@@ -3212,13 +3212,13 @@
         <v>-2</v>
       </c>
       <c r="I29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J29" s="22">
         <v>-2</v>
       </c>
       <c r="K29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="22">
         <v>-2</v>
@@ -3227,10 +3227,10 @@
         <v>-2</v>
       </c>
       <c r="N29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
@@ -3263,43 +3263,43 @@
         <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
         <v>-2</v>
@@ -3311,7 +3311,7 @@
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3337,7 +3337,7 @@
         <v>-2</v>
       </c>
       <c r="D30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="22">
         <v>-2</v>
@@ -3352,7 +3352,7 @@
         <v>-2</v>
       </c>
       <c r="I30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -3439,10 +3439,10 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM30" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AN30" s="22">
         <v>-2</v>
@@ -3451,7 +3451,7 @@
         <v>-2</v>
       </c>
       <c r="AP30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="22">
         <v>-2</v>
@@ -3477,22 +3477,22 @@
         <v>-2</v>
       </c>
       <c r="D31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3501,7 +3501,7 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="22">
         <v>-2</v>
@@ -3513,10 +3513,10 @@
         <v>-2</v>
       </c>
       <c r="P31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
@@ -3534,16 +3534,16 @@
         <v>-2</v>
       </c>
       <c r="W31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
@@ -3561,7 +3561,7 @@
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="22">
         <v>-2</v>
@@ -3579,7 +3579,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
@@ -3591,10 +3591,10 @@
         <v>-2</v>
       </c>
       <c r="AP31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR31" s="22">
         <v>-2</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B32" s="22">
         <v>-2</v>
@@ -3617,40 +3617,40 @@
         <v>-2</v>
       </c>
       <c r="D32" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="E32" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
         <v>0</v>
@@ -3659,70 +3659,70 @@
         <v>0</v>
       </c>
       <c r="R32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="22">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AD32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="22">
         <v>-2</v>
@@ -3731,10 +3731,10 @@
         <v>-2</v>
       </c>
       <c r="AP32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
@@ -3769,109 +3769,109 @@
         <v>-2</v>
       </c>
       <c r="H33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
@@ -3897,121 +3897,121 @@
         <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="E34" s="22">
         <v>-1</v>
       </c>
       <c r="F34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="22">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="P34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
         <v>0</v>
       </c>
       <c r="W34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="22">
         <v>0</v>
       </c>
       <c r="Z34" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
         <v>0</v>
       </c>
       <c r="AC34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
         <v>0</v>
       </c>
       <c r="AI34" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AN34" s="22">
         <v>-1</v>
       </c>
       <c r="AO34" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="22">
         <v>-1</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="22">
         <v>-1</v>
@@ -4037,13 +4037,13 @@
         <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -4052,7 +4052,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -4076,7 +4076,7 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
@@ -4091,16 +4091,16 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
         <v>-1</v>
@@ -4109,7 +4109,7 @@
         <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="22">
         <v>-1</v>
@@ -4118,7 +4118,7 @@
         <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
         <v>-1</v>
@@ -4127,7 +4127,7 @@
         <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="22">
         <v>-1</v>
@@ -4136,10 +4136,10 @@
         <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
         <v>-1</v>
@@ -4151,10 +4151,10 @@
         <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR35" s="22">
         <v>-1</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="22">
         <v>-1</v>
@@ -4177,10 +4177,10 @@
         <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="22">
         <v>-1</v>
@@ -4192,7 +4192,7 @@
         <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="22">
         <v>-1</v>
@@ -4231,7 +4231,7 @@
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -4240,16 +4240,16 @@
         <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AB36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="22">
         <v>-1</v>
@@ -4267,34 +4267,34 @@
         <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="22">
         <v>0</v>
       </c>
       <c r="AM36" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
         <v>-1</v>
@@ -4317,7 +4317,7 @@
         <v>-1</v>
       </c>
       <c r="D37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="22">
         <v>-1</v>
@@ -4332,7 +4332,7 @@
         <v>-1</v>
       </c>
       <c r="I37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="22">
         <v>-1</v>
@@ -4341,10 +4341,10 @@
         <v>-1</v>
       </c>
       <c r="L37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="22">
         <v>-1</v>
@@ -4353,7 +4353,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="22">
         <v>-1</v>
@@ -4383,22 +4383,22 @@
         <v>-1</v>
       </c>
       <c r="Z37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="22">
         <v>-1</v>
@@ -4419,7 +4419,7 @@
         <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="22">
         <v>-1</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B38" s="22">
         <v>-1</v>
@@ -4457,22 +4457,22 @@
         <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="22">
         <v>-1</v>
       </c>
       <c r="I38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38" s="22">
         <v>-1</v>
@@ -4526,19 +4526,19 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AD38" s="22">
         <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="22">
         <v>-1</v>
@@ -4559,7 +4559,7 @@
         <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
         <v>-1</v>
@@ -4571,7 +4571,7 @@
         <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="22">
         <v>-1</v>
@@ -4597,7 +4597,7 @@
         <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="22">
         <v>-1</v>
@@ -4612,7 +4612,7 @@
         <v>-1</v>
       </c>
       <c r="I39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="22">
         <v>-1</v>
@@ -4669,16 +4669,16 @@
         <v>-1</v>
       </c>
       <c r="AB39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="22">
         <v>-1</v>
@@ -4699,10 +4699,10 @@
         <v>-1</v>
       </c>
       <c r="AL39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AN39" s="22">
         <v>-1</v>
@@ -4711,10 +4711,10 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR39" s="22">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="22">
         <v>-1</v>
@@ -4737,10 +4737,10 @@
         <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="22">
         <v>-1</v>
@@ -4752,97 +4752,97 @@
         <v>-1</v>
       </c>
       <c r="I40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE40" s="22">
         <v>0</v>
       </c>
       <c r="AF40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM40" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -4851,10 +4851,10 @@
         <v>-1</v>
       </c>
       <c r="AP40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B41" s="22">
         <v>-1</v>
@@ -4877,7 +4877,7 @@
         <v>-1</v>
       </c>
       <c r="D41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="22">
         <v>-1</v>
@@ -4892,7 +4892,7 @@
         <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="22">
         <v>-1</v>
@@ -4901,7 +4901,7 @@
         <v>-1</v>
       </c>
       <c r="L41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="M41" s="22">
         <v>-1</v>
@@ -4910,7 +4910,7 @@
         <v>-1</v>
       </c>
       <c r="O41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="22">
         <v>-1</v>
@@ -4919,7 +4919,7 @@
         <v>-1</v>
       </c>
       <c r="R41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="S41" s="22">
         <v>-1</v>
@@ -4928,7 +4928,7 @@
         <v>-1</v>
       </c>
       <c r="U41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="V41" s="22">
         <v>-1</v>
@@ -4937,7 +4937,7 @@
         <v>-1</v>
       </c>
       <c r="X41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="Y41" s="22">
         <v>-1</v>
@@ -4946,7 +4946,7 @@
         <v>-1</v>
       </c>
       <c r="AA41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AB41" s="22">
         <v>-1</v>
@@ -4955,16 +4955,16 @@
         <v>-1</v>
       </c>
       <c r="AD41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AE41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
       </c>
       <c r="AG41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AH41" s="22">
         <v>-1</v>
@@ -4973,7 +4973,7 @@
         <v>-1</v>
       </c>
       <c r="AJ41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AK41" s="22">
         <v>-1</v>
@@ -4991,7 +4991,7 @@
         <v>-1</v>
       </c>
       <c r="AP41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="22">
         <v>-1</v>
@@ -5017,7 +5017,7 @@
         <v>-1</v>
       </c>
       <c r="D42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="22">
         <v>-1</v>
@@ -5098,7 +5098,7 @@
         <v>-1</v>
       </c>
       <c r="AE42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="22">
         <v>-1</v>
@@ -5131,7 +5131,7 @@
         <v>-1</v>
       </c>
       <c r="AP42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="22">
         <v>-1</v>
@@ -5157,124 +5157,124 @@
         <v>-1</v>
       </c>
       <c r="D43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR43" s="22">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>-1</v>
       </c>
       <c r="AQ44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AR44" s="22">
         <v>-1</v>
@@ -5423,7 +5423,7 @@
         <v>-1</v>
       </c>
       <c r="AT44" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B51468-526F-40A0-8CFC-CD73F7BBAEF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB0910-2B41-47D5-ABD7-8A7E4F3B4314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1692,8 +1692,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B20" s="22">
         <v>-2</v>
@@ -1895,10 +1895,10 @@
         <v>-2</v>
       </c>
       <c r="D20" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="E20" s="22">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F20" s="22">
         <v>-2</v>
@@ -1907,52 +1907,52 @@
         <v>-2</v>
       </c>
       <c r="H20" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="I20" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J20" s="22">
         <v>-2</v>
       </c>
       <c r="K20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="22">
         <v>-2</v>
       </c>
       <c r="W20" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="X20" s="22">
         <v>-2</v>
@@ -1961,43 +1961,43 @@
         <v>-2</v>
       </c>
       <c r="Z20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AL20" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AM20" s="22">
         <v>-2</v>
@@ -2006,7 +2006,7 @@
         <v>-2</v>
       </c>
       <c r="AO20" s="22">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AP20" s="22">
         <v>-2</v>
@@ -2015,10 +2015,10 @@
         <v>-2</v>
       </c>
       <c r="AR20" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AS20" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT20" s="22">
         <v>-2</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>196</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2063,7 +2063,7 @@
         <v>-2</v>
       </c>
       <c r="K21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="22">
         <v>-2</v>
@@ -2093,7 +2093,7 @@
         <v>-2</v>
       </c>
       <c r="U21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="22">
         <v>-2</v>
@@ -2108,7 +2108,7 @@
         <v>-2</v>
       </c>
       <c r="Z21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="22">
         <v>-2</v>
@@ -2138,7 +2138,7 @@
         <v>-2</v>
       </c>
       <c r="AJ21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="22">
         <v>-2</v>
@@ -2204,13 +2204,13 @@
         <v>-2</v>
       </c>
       <c r="I22" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="J22" s="22">
         <v>-2</v>
       </c>
       <c r="K22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="22">
         <v>-2</v>
@@ -2240,7 +2240,7 @@
         <v>-2</v>
       </c>
       <c r="U22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V22" s="22">
         <v>-2</v>
@@ -2255,7 +2255,7 @@
         <v>-2</v>
       </c>
       <c r="Z22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="22">
         <v>-2</v>
@@ -2270,7 +2270,7 @@
         <v>-2</v>
       </c>
       <c r="AE22" s="22">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="AF22" s="22">
         <v>-2</v>
@@ -2285,7 +2285,7 @@
         <v>-2</v>
       </c>
       <c r="AJ22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="22">
         <v>-2</v>
@@ -2312,7 +2312,7 @@
         <v>-2</v>
       </c>
       <c r="AS22" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT22" s="22">
         <v>-2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="B23" s="22">
         <v>-2</v>
@@ -2336,124 +2336,124 @@
         <v>-2</v>
       </c>
       <c r="D23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K23" s="22">
         <v>0</v>
       </c>
       <c r="L23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U23" s="22">
         <v>0</v>
       </c>
       <c r="V23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z23" s="22">
         <v>0</v>
       </c>
       <c r="AA23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ23" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ23" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR23" s="22">
         <v>-2</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="B24" s="22">
         <v>-2</v>
@@ -2483,7 +2483,7 @@
         <v>-2</v>
       </c>
       <c r="D24" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E24" s="22">
         <v>-2</v>
@@ -2492,7 +2492,7 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="H24" s="22">
         <v>-2</v>
@@ -2501,19 +2501,19 @@
         <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O24" s="22">
         <v>-2</v>
@@ -2534,7 +2534,7 @@
         <v>-2</v>
       </c>
       <c r="U24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="22">
         <v>-2</v>
@@ -2549,7 +2549,7 @@
         <v>-2</v>
       </c>
       <c r="Z24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="22">
         <v>-2</v>
@@ -2576,28 +2576,28 @@
         <v>-2</v>
       </c>
       <c r="AI24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL24" s="22">
         <v>-2</v>
       </c>
       <c r="AM24" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AN24" s="22">
         <v>-2</v>
       </c>
       <c r="AO24" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AP24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ24" s="22">
         <v>-2</v>
@@ -2606,7 +2606,7 @@
         <v>-2</v>
       </c>
       <c r="AS24" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT24" s="22">
         <v>-2</v>
@@ -2616,72 +2616,72 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="22">
         <v>0</v>
       </c>
       <c r="E25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="22">
         <v>-2</v>
@@ -2696,16 +2696,16 @@
         <v>-2</v>
       </c>
       <c r="Z25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2717,34 +2717,34 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="22">
         <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
         <v>0</v>
       </c>
       <c r="AL25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="22">
         <v>-2</v>
       </c>
       <c r="AP25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ25" s="22">
         <v>-2</v>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>202</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B26" s="22">
         <v>-2</v>
@@ -2777,7 +2777,7 @@
         <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="22">
         <v>-2</v>
@@ -2807,16 +2807,16 @@
         <v>-2</v>
       </c>
       <c r="N26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="P26" s="22">
         <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="22">
         <v>-2</v>
@@ -2843,7 +2843,7 @@
         <v>-2</v>
       </c>
       <c r="Z26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="22">
         <v>-2</v>
@@ -2870,13 +2870,13 @@
         <v>-2</v>
       </c>
       <c r="AI26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AK26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL26" s="22">
         <v>-2</v>
@@ -2885,13 +2885,13 @@
         <v>-2</v>
       </c>
       <c r="AN26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="22">
         <v>-2</v>
       </c>
       <c r="AP26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ26" s="22">
         <v>-2</v>
@@ -2900,7 +2900,7 @@
         <v>-2</v>
       </c>
       <c r="AS26" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT26" s="22">
         <v>-2</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="22">
         <v>-2</v>
@@ -2917,7 +2917,7 @@
         <v>-2</v>
       </c>
       <c r="D27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="22">
         <v>-2</v>
@@ -2947,7 +2947,7 @@
         <v>-2</v>
       </c>
       <c r="N27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="22">
         <v>-2</v>
@@ -2956,7 +2956,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2986,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="AA27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
         <v>-2</v>
@@ -3010,13 +3010,13 @@
         <v>-2</v>
       </c>
       <c r="AI27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="22">
         <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
         <v>-2</v>
@@ -3025,16 +3025,16 @@
         <v>-2</v>
       </c>
       <c r="AN27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="22">
         <v>-2</v>
       </c>
       <c r="AP27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="22">
         <v>-2</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -3057,13 +3057,13 @@
         <v>-2</v>
       </c>
       <c r="D28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G28" s="22">
         <v>-2</v>
@@ -3087,16 +3087,16 @@
         <v>-2</v>
       </c>
       <c r="N28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="P28" s="22">
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
@@ -3126,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AD28" s="22">
         <v>-2</v>
       </c>
       <c r="AE28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="22">
         <v>-2</v>
@@ -3150,13 +3150,13 @@
         <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
         <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
         <v>-2</v>
@@ -3165,13 +3165,13 @@
         <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
         <v>-2</v>
@@ -3180,7 +3180,7 @@
         <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT28" s="22">
         <v>-2</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -3197,7 +3197,7 @@
         <v>-2</v>
       </c>
       <c r="D29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E29" s="22">
         <v>-2</v>
@@ -3218,7 +3218,7 @@
         <v>-2</v>
       </c>
       <c r="K29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L29" s="22">
         <v>-2</v>
@@ -3230,25 +3230,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="22">
         <v>-2</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="22">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL29" s="22">
         <v>-2</v>
@@ -3305,13 +3305,13 @@
         <v>-2</v>
       </c>
       <c r="AN29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="22">
         <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -3328,16 +3328,16 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
       <c r="C30" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="D30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="22">
         <v>-2</v>
@@ -3361,25 +3361,25 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="R30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="S30" s="22">
         <v>-2</v>
@@ -3388,7 +3388,7 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="22">
         <v>-2</v>
@@ -3403,7 +3403,7 @@
         <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3415,13 +3415,13 @@
         <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3430,28 +3430,28 @@
         <v>-2</v>
       </c>
       <c r="AI30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="22">
         <v>-2</v>
       </c>
       <c r="AP30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ30" s="22">
         <v>-2</v>
@@ -3460,7 +3460,7 @@
         <v>-2</v>
       </c>
       <c r="AS30" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT30" s="22">
         <v>-2</v>
@@ -3468,13 +3468,13 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="22">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="22">
         <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3501,22 +3501,22 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
@@ -3528,7 +3528,7 @@
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
         <v>-2</v>
@@ -3543,58 +3543,58 @@
         <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
       </c>
       <c r="AF31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
       </c>
       <c r="AP31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR31" s="22">
         <v>-2</v>
@@ -3608,92 +3608,92 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
+        <v>44</v>
+      </c>
+      <c r="B32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22">
+        <v>2</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2</v>
+      </c>
+      <c r="K32" s="22">
+        <v>2</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>11</v>
+      </c>
+      <c r="R32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U32" s="22">
+        <v>0</v>
+      </c>
+      <c r="V32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="22">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC32" s="22">
         <v>33</v>
       </c>
-      <c r="B32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="C32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="D32" s="22">
-        <v>22</v>
-      </c>
-      <c r="E32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="F32" s="22">
-        <v>22</v>
-      </c>
-      <c r="G32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="J32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="K32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="L32" s="22">
-        <v>2</v>
-      </c>
-      <c r="M32" s="22">
-        <v>2</v>
-      </c>
-      <c r="N32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="P32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>0</v>
-      </c>
-      <c r="R32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="U32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="V32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W32" s="22">
-        <v>2</v>
-      </c>
-      <c r="X32" s="22">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB32" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC32" s="22">
-        <v>90</v>
-      </c>
       <c r="AD32" s="22">
         <v>-2</v>
       </c>
@@ -3701,16 +3701,16 @@
         <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="22">
         <v>-2</v>
@@ -3728,19 +3728,19 @@
         <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AP32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AR32" s="22">
         <v>-2</v>
       </c>
       <c r="AS32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT32" s="22">
         <v>-2</v>
@@ -3760,13 +3760,13 @@
         <v>-2</v>
       </c>
       <c r="E33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33" s="22">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
         <v>0</v>
@@ -3832,31 +3832,31 @@
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
         <v>0</v>
@@ -3871,19 +3871,19 @@
         <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3897,46 +3897,46 @@
         <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="F34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="22">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
         <v>2</v>
       </c>
-      <c r="M34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="22">
-        <v>91</v>
-      </c>
       <c r="P34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
@@ -3948,70 +3948,70 @@
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>33</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AD34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AF34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AG34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AH34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AI34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AJ34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AK34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="22">
         <v>2</v>
       </c>
-      <c r="X34" s="22">
+      <c r="AN34" s="22">
         <v>2</v>
       </c>
-      <c r="Y34" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>22</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AE34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AF34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AG34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AH34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="22">
-        <v>22</v>
-      </c>
-      <c r="AJ34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AK34" s="22">
-        <v>22</v>
-      </c>
-      <c r="AL34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AM34" s="22">
-        <v>22</v>
-      </c>
-      <c r="AN34" s="22">
-        <v>-1</v>
-      </c>
       <c r="AO34" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
         <v>-1</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="22">
         <v>-1</v>
@@ -4037,13 +4037,13 @@
         <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
         <v>-1</v>
@@ -4052,7 +4052,7 @@
         <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -4061,13 +4061,13 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="N35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="22">
         <v>-1</v>
@@ -4076,7 +4076,7 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="22">
         <v>-1</v>
@@ -4088,10 +4088,10 @@
         <v>-1</v>
       </c>
       <c r="U35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
@@ -4100,7 +4100,7 @@
         <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
         <v>-1</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AF35" s="22">
         <v>-1</v>
@@ -4127,7 +4127,7 @@
         <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
         <v>-1</v>
@@ -4136,10 +4136,10 @@
         <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
         <v>-1</v>
@@ -4148,27 +4148,27 @@
         <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="22">
         <v>0</v>
       </c>
       <c r="AQ35" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B36" s="22">
         <v>-1</v>
@@ -4177,7 +4177,7 @@
         <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
         <v>-1</v>
@@ -4192,7 +4192,7 @@
         <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="22">
         <v>-1</v>
@@ -4201,13 +4201,13 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="22">
         <v>-1</v>
@@ -4216,10 +4216,10 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="S36" s="22">
         <v>-1</v>
@@ -4228,10 +4228,10 @@
         <v>-1</v>
       </c>
       <c r="U36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -4240,31 +4240,31 @@
         <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC36" s="22">
         <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="22">
         <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="22">
         <v>0</v>
@@ -4282,28 +4282,28 @@
         <v>0</v>
       </c>
       <c r="AM36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
         <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="AS36" s="22">
         <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4317,7 +4317,7 @@
         <v>-1</v>
       </c>
       <c r="D37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="22">
         <v>-1</v>
@@ -4332,7 +4332,7 @@
         <v>-1</v>
       </c>
       <c r="I37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="22">
         <v>-1</v>
@@ -4341,10 +4341,10 @@
         <v>-1</v>
       </c>
       <c r="L37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N37" s="22">
         <v>-1</v>
@@ -4353,34 +4353,34 @@
         <v>-1</v>
       </c>
       <c r="P37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <v>0</v>
@@ -4401,16 +4401,16 @@
         <v>0</v>
       </c>
       <c r="AF37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ37" s="22">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
         <v>-1</v>
@@ -4443,12 +4443,12 @@
         <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="B38" s="22">
         <v>-1</v>
@@ -4457,22 +4457,22 @@
         <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H38" s="22">
         <v>-1</v>
       </c>
       <c r="I38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="22">
         <v>-1</v>
@@ -4508,37 +4508,37 @@
         <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
       </c>
       <c r="X38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="Y38" s="22">
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AD38" s="22">
         <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
         <v>-1</v>
@@ -4571,7 +4571,7 @@
         <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
         <v>-1</v>
@@ -4583,7 +4583,7 @@
         <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4597,7 +4597,7 @@
         <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="22">
         <v>-1</v>
@@ -4606,13 +4606,13 @@
         <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="22">
         <v>-1</v>
@@ -4648,37 +4648,37 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="22">
         <v>-1</v>
       </c>
       <c r="AB39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" s="22">
         <v>-1</v>
@@ -4702,7 +4702,7 @@
         <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="22">
         <v>-1</v>
@@ -4711,10 +4711,10 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ39" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR39" s="22">
         <v>-1</v>
@@ -4723,12 +4723,12 @@
         <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="B40" s="22">
         <v>-1</v>
@@ -4737,16 +4737,16 @@
         <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F40" s="22">
         <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="22">
         <v>-1</v>
@@ -4794,10 +4794,10 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
         <v>-1</v>
@@ -4818,7 +4818,7 @@
         <v>-1</v>
       </c>
       <c r="AE40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF40" s="22">
         <v>-1</v>
@@ -4851,7 +4851,7 @@
         <v>-1</v>
       </c>
       <c r="AP40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ40" s="22">
         <v>-1</v>
@@ -4863,12 +4863,12 @@
         <v>-1</v>
       </c>
       <c r="AT40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="B41" s="22">
         <v>-1</v>
@@ -4877,7 +4877,7 @@
         <v>-1</v>
       </c>
       <c r="D41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="22">
         <v>-1</v>
@@ -4886,13 +4886,13 @@
         <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="22">
         <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="J41" s="22">
         <v>-1</v>
@@ -4916,13 +4916,13 @@
         <v>-1</v>
       </c>
       <c r="Q41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="22">
         <v>-1</v>
@@ -4934,10 +4934,10 @@
         <v>-1</v>
       </c>
       <c r="W41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="22">
         <v>-1</v>
@@ -4949,16 +4949,16 @@
         <v>-1</v>
       </c>
       <c r="AB41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF41" s="22">
         <v>-1</v>
@@ -4991,7 +4991,7 @@
         <v>-1</v>
       </c>
       <c r="AP41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ41" s="22">
         <v>-1</v>
@@ -5003,7 +5003,7 @@
         <v>-1</v>
       </c>
       <c r="AT41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5017,16 +5017,16 @@
         <v>-1</v>
       </c>
       <c r="D42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F42" s="22">
         <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -5041,13 +5041,13 @@
         <v>-1</v>
       </c>
       <c r="L42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="22">
         <v>-1</v>
@@ -5056,7 +5056,7 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="22">
         <v>-1</v>
@@ -5074,10 +5074,10 @@
         <v>-1</v>
       </c>
       <c r="W42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="22">
         <v>-1</v>
@@ -5095,55 +5095,55 @@
         <v>-1</v>
       </c>
       <c r="AD42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="22">
         <v>0</v>
       </c>
       <c r="AF42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
         <v>0</v>
       </c>
       <c r="AQ42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5157,13 +5157,13 @@
         <v>-1</v>
       </c>
       <c r="D43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G43" s="22">
         <v>0</v>
@@ -5175,43 +5175,43 @@
         <v>0</v>
       </c>
       <c r="J43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q43" s="22">
         <v>0</v>
       </c>
       <c r="R43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W43" s="22">
         <v>0</v>
@@ -5220,58 +5220,58 @@
         <v>0</v>
       </c>
       <c r="Y43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD43" s="22">
         <v>0</v>
       </c>
       <c r="AE43" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI43" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM43" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AN43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ43" s="22">
         <v>44</v>
@@ -5306,16 +5306,16 @@
         <v>-1</v>
       </c>
       <c r="G44" s="22">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H44" s="22">
         <v>-1</v>
       </c>
       <c r="I44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="22">
         <v>-1</v>
@@ -5324,7 +5324,7 @@
         <v>-1</v>
       </c>
       <c r="M44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="N44" s="22">
         <v>-1</v>
@@ -5333,16 +5333,16 @@
         <v>-1</v>
       </c>
       <c r="P44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="Q44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="22">
         <v>-1</v>
       </c>
       <c r="S44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="T44" s="22">
         <v>-1</v>
@@ -5351,16 +5351,16 @@
         <v>-1</v>
       </c>
       <c r="V44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="W44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="Z44" s="22">
         <v>-1</v>
@@ -5369,16 +5369,16 @@
         <v>-1</v>
       </c>
       <c r="AB44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AC44" s="22">
         <v>-1</v>
       </c>
       <c r="AD44" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AF44" s="22">
         <v>-1</v>
@@ -5387,7 +5387,7 @@
         <v>-1</v>
       </c>
       <c r="AH44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AI44" s="22">
         <v>-1</v>
@@ -5396,7 +5396,7 @@
         <v>-1</v>
       </c>
       <c r="AK44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AL44" s="22">
         <v>-1</v>
@@ -5405,7 +5405,7 @@
         <v>-1</v>
       </c>
       <c r="AN44" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="AO44" s="22">
         <v>-1</v>
@@ -5452,7 +5452,7 @@
         <v>-1</v>
       </c>
       <c r="I45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="22">
         <v>-1</v>
@@ -5476,7 +5476,7 @@
         <v>-1</v>
       </c>
       <c r="Q45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="22">
         <v>-1</v>
@@ -5494,10 +5494,10 @@
         <v>-1</v>
       </c>
       <c r="W45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="22">
         <v>-1</v>
@@ -5515,7 +5515,7 @@
         <v>-1</v>
       </c>
       <c r="AD45" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="22">
         <v>-1</v>
@@ -5586,76 +5586,76 @@
         <v>-1</v>
       </c>
       <c r="G46" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="H46" s="22">
         <v>-1</v>
       </c>
       <c r="I46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88B11B0-CDE6-4FBB-BB8B-FC99D3BC1BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3A416-4DDB-48BB-8FE0-82987F2C7BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -696,6 +696,32 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetCamera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラの初期位置</t>
+    <rPh sb="4" eb="6">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -882,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1204,13 +1230,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,24 +1342,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1364,32 +1396,11 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1411,6 +1422,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6528,10 +6584,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6541,13 +6597,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
@@ -6709,7 +6765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>31</v>
       </c>
@@ -6720,7 +6776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>33</v>
       </c>
@@ -6731,7 +6787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>44</v>
       </c>
@@ -6742,7 +6798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>90</v>
       </c>
@@ -6750,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="12">
         <v>91</v>
       </c>
@@ -6758,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="16">
         <v>97</v>
       </c>
@@ -6766,7 +6822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>98</v>
       </c>
@@ -6774,7 +6830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>99</v>
       </c>
@@ -6789,1040 +6845,1067 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="50" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="51" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="54" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="53" t="s">
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="56" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="57"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="53" t="s">
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="56" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="34" t="s">
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="39">
+      <c r="B31" s="21"/>
+      <c r="C31" s="33">
         <v>46</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="56" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="57"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="36" t="s">
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40">
         <v>27</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="58" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="59"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="27" t="s">
+      <c r="H32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="33" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="48" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D35" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="40">
+      <c r="B37" s="21"/>
+      <c r="C37" s="34">
         <v>255</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D37" s="34">
         <v>255</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E37" s="34">
         <v>255</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F37" s="34">
         <v>255</v>
       </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="35" t="s">
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="40">
+      <c r="B38" s="21"/>
+      <c r="C38" s="34">
         <v>255</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D38" s="34">
         <v>255</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E38" s="34">
         <v>255</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F38" s="34">
         <v>255</v>
       </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="35" t="s">
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="40">
+      <c r="B39" s="21"/>
+      <c r="C39" s="34">
         <v>255</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D39" s="34">
         <v>255</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E39" s="34">
         <v>255</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F39" s="34">
         <v>255</v>
       </c>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="35" t="s">
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="40">
+      <c r="B40" s="21"/>
+      <c r="C40" s="34">
         <v>255</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D40" s="34">
         <v>255</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E40" s="34">
         <v>255</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F40" s="34">
         <v>255</v>
       </c>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="34" t="s">
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="40">
+      <c r="B41" s="21"/>
+      <c r="C41" s="34">
         <v>255</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D41" s="34">
         <v>255</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E41" s="34">
         <v>255</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F41" s="34">
         <v>255</v>
       </c>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="34" t="s">
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="40">
+      <c r="B42" s="21"/>
+      <c r="C42" s="34">
         <v>255</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D42" s="34">
         <v>255</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E42" s="34">
         <v>255</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F42" s="34">
         <v>255</v>
       </c>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36" t="s">
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="28"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="9"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="47" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="37" t="s">
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="34" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="39">
+      <c r="B50" s="21"/>
+      <c r="C50" s="33">
         <v>1</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="62" t="s">
+      <c r="D50" s="33"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="62" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="63"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="34" t="s">
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="39">
+      <c r="B53" s="21"/>
+      <c r="C53" s="33">
         <v>5</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D53" s="33">
         <v>10</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="62" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G53" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="34" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="39">
+      <c r="B54" s="21"/>
+      <c r="C54" s="33">
         <v>5</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D54" s="33">
         <v>10</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="62" t="s">
+      <c r="E54" s="21"/>
+      <c r="F54" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="63" t="s">
+      <c r="G54" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="34" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="39">
+      <c r="B55" s="21"/>
+      <c r="C55" s="33">
         <v>1</v>
       </c>
-      <c r="D54" s="39">
-        <v>0</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="62" t="s">
+      <c r="D55" s="33">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="63" t="s">
+      <c r="G55" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="34" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="34"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-    </row>
-    <row r="57" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="38" t="s">
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="28"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="27" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="37" t="s">
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="56"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="61"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="34" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="39">
+      <c r="B62" s="21"/>
+      <c r="C62" s="33">
         <v>1</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="62" t="s">
+      <c r="D62" s="33"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="63"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="62" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="63"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="34" t="s">
+      <c r="G64" s="50"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="39">
+      <c r="B65" s="21"/>
+      <c r="C65" s="33">
         <v>5</v>
       </c>
-      <c r="D64" s="39">
+      <c r="D65" s="33">
         <v>10</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="62" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G65" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="34" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="39">
+      <c r="B66" s="21"/>
+      <c r="C66" s="33">
         <v>5</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D66" s="33">
         <v>10</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="62" t="s">
+      <c r="E66" s="21"/>
+      <c r="F66" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="63" t="s">
+      <c r="G66" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="34" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="39">
+      <c r="B67" s="21"/>
+      <c r="C67" s="33">
         <v>1</v>
       </c>
-      <c r="D66" s="39">
-        <v>0</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="62" t="s">
+      <c r="D67" s="33">
+        <v>0</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="63" t="s">
+      <c r="G67" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="34" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
       <c r="B68" s="21"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="21"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="38" t="s">
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="28"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="50"/>
+    </row>
+    <row r="70" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
-    </row>
-    <row r="70" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="71" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="27" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="37" t="s">
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="34" t="s">
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="48"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="39">
+      <c r="B74" s="21"/>
+      <c r="C74" s="33">
         <v>1</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="62" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="63"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="34"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="G74" s="50"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="62" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="63"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="34" t="s">
+      <c r="G76" s="50"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="39">
+      <c r="B77" s="21"/>
+      <c r="C77" s="33">
         <v>5</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D77" s="33">
         <v>10</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="62" t="s">
+      <c r="E77" s="21"/>
+      <c r="F77" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="G77" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="34" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="39">
+      <c r="B78" s="21"/>
+      <c r="C78" s="33">
         <v>1</v>
       </c>
-      <c r="D77" s="39">
-        <v>0</v>
-      </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="62" t="s">
+      <c r="D78" s="33">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G78" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="34" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="39">
+      <c r="B79" s="21"/>
+      <c r="C79" s="33">
         <v>120</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="62" t="s">
+      <c r="D79" s="33"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G78" s="63"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="34" t="s">
+      <c r="G79" s="50"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="21"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-    </row>
-    <row r="81" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="38" t="s">
+      <c r="F80" s="49"/>
+      <c r="G80" s="50"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="28"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="50"/>
+    </row>
+    <row r="82" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
-    </row>
-    <row r="82" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="27" t="s">
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="52"/>
+    </row>
+    <row r="83" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="37" t="s">
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="41"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="61"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="34" t="s">
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="48"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="39">
+      <c r="B86" s="21"/>
+      <c r="C86" s="33">
         <v>1</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="62" t="s">
+      <c r="D86" s="33"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G85" s="63"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="G86" s="50"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="28"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="50"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="62" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="63"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="34" t="s">
+      <c r="G88" s="50"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="39">
+      <c r="B89" s="21"/>
+      <c r="C89" s="33">
         <v>5</v>
       </c>
-      <c r="D88" s="39">
+      <c r="D89" s="33">
         <v>10</v>
       </c>
-      <c r="E88" s="21"/>
-      <c r="F88" s="62" t="s">
+      <c r="E89" s="21"/>
+      <c r="F89" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G88" s="63" t="s">
+      <c r="G89" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="34" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="39">
+      <c r="B90" s="21"/>
+      <c r="C90" s="33">
         <v>5</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D90" s="33">
         <v>10</v>
       </c>
-      <c r="E89" s="21"/>
-      <c r="F89" s="62" t="s">
+      <c r="E90" s="21"/>
+      <c r="F90" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G90" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="34" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="39">
+      <c r="B91" s="21"/>
+      <c r="C91" s="33">
         <v>2</v>
       </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="62" t="s">
+      <c r="D91" s="33"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="G90" s="63"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="34" t="s">
+      <c r="G91" s="50"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="39">
-        <v>0</v>
-      </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="62" t="s">
+      <c r="B92" s="21"/>
+      <c r="C92" s="33">
+        <v>0</v>
+      </c>
+      <c r="D92" s="33"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G91" s="63"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="34" t="s">
+      <c r="G92" s="50"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="34"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="21"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="63"/>
-    </row>
-    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="38" t="s">
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="28"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="50"/>
+    </row>
+    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
-    </row>
-    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="96" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="27" t="s">
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="52"/>
+    </row>
+    <row r="96" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="97" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="29"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="37" t="s">
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="56"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="61"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="34" t="s">
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="48"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="39">
+      <c r="B99" s="21"/>
+      <c r="C99" s="33">
         <v>1</v>
       </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="62" t="s">
+      <c r="D99" s="33"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="63"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="34"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="63"/>
+      <c r="G99" s="50"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="28"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="50"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="62" t="s">
+      <c r="B101" s="21"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G100" s="63"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="34" t="s">
+      <c r="G101" s="50"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="39">
+      <c r="B102" s="21"/>
+      <c r="C102" s="33">
         <v>5</v>
       </c>
-      <c r="D101" s="39">
+      <c r="D102" s="33">
         <v>10</v>
       </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="62" t="s">
+      <c r="E102" s="21"/>
+      <c r="F102" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G101" s="63" t="s">
+      <c r="G102" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="34" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="39">
+      <c r="B103" s="21"/>
+      <c r="C103" s="33">
         <v>3</v>
       </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="62" t="s">
+      <c r="D103" s="33"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G102" s="63" t="s">
+      <c r="G103" s="50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="34" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="39">
-        <v>0</v>
-      </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="66" t="s">
+      <c r="B104" s="21"/>
+      <c r="C104" s="33">
+        <v>0</v>
+      </c>
+      <c r="D104" s="33"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G103" s="63"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="34" t="s">
+      <c r="G104" s="50"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="34"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="21"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="63"/>
-    </row>
-    <row r="106" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="38" t="s">
+      <c r="F105" s="49"/>
+      <c r="G105" s="50"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106" s="28"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="50"/>
+    </row>
+    <row r="107" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A59:G59"/>
+  <mergeCells count="15">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A60:G60"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Game&amp;ToolCreate\Project\CosMos\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3A416-4DDB-48BB-8FE0-82987F2C7BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43B92E4-B9B7-426B-AAB7-C357B0A2C45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -548,16 +548,6 @@
     <t>EndDogInfo</t>
   </si>
   <si>
-    <t>胴体の高さ</t>
-    <rPh sb="0" eb="2">
-      <t>ドウタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EndMeteor</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -624,19 +614,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伸縮　（0：縮む　１：伸びる）</t>
-    <rPh sb="0" eb="2">
-      <t>シンシュク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チヂ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -908,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1254,13 +1231,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,9 +1370,6 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1402,12 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1423,37 +1430,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,6 +1447,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,7 +2009,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -6011,7 +6042,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -6022,7 +6053,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -6044,7 +6075,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -6070,7 +6101,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -6083,7 +6114,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -6096,7 +6127,7 @@
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -6116,7 +6147,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -6141,7 +6172,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -6153,7 +6184,7 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -6165,7 +6196,7 @@
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -6183,7 +6214,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -6207,7 +6238,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -6219,7 +6250,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -6231,7 +6262,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -6249,7 +6280,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -6267,7 +6298,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -6586,8 +6617,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6849,1063 +6880,1157 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="62" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="60" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="66"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="66"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="46" t="s">
+      <c r="D30" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="66"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="21"/>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <v>46</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="65" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="66"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39">
         <v>27</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="67" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="68"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="42" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="28"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="21"/>
-      <c r="C37" s="34">
+      <c r="C37" s="33">
         <v>255</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="33">
         <v>255</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <v>255</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <v>255</v>
       </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="21"/>
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>255</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>255</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="33">
         <v>255</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="33">
         <v>255</v>
       </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="21"/>
-      <c r="C39" s="34">
+      <c r="C39" s="33">
         <v>255</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <v>255</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <v>255</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <v>255</v>
       </c>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>255</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>255</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <v>255</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>255</v>
       </c>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="21"/>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>255</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="33">
         <v>255</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <v>255</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <v>255</v>
       </c>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <v>255</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <v>255</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="33">
         <v>255</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="33">
         <v>255</v>
       </c>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="28"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="54" t="s">
+    <row r="47" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="31" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="21"/>
-      <c r="C50" s="33">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="32">
         <v>1</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="50"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
       <c r="B51" s="21"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="21"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="50"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="47"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="33">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="32">
         <v>5</v>
       </c>
-      <c r="D53" s="33">
+      <c r="F53" s="32">
         <v>10</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="49" t="s">
+      <c r="G53" s="21"/>
+      <c r="H53" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="I53" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="21"/>
-      <c r="C54" s="33">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="32">
         <v>5</v>
       </c>
-      <c r="D54" s="33">
+      <c r="F54" s="32">
         <v>10</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="49" t="s">
+      <c r="G54" s="21"/>
+      <c r="H54" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="50" t="s">
+      <c r="I54" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="33">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="32">
         <v>1</v>
       </c>
-      <c r="D55" s="33">
-        <v>0</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="32">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G55" s="50" t="s">
+      <c r="I55" s="47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="32" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+    </row>
+    <row r="58" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="39"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F58" s="39"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="49"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="54" t="s">
+    <row r="60" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="56"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="31" t="s">
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="73"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="33">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="32">
         <v>1</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="32"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="50"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="21"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="50"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="21"/>
-      <c r="C65" s="33">
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="32">
         <v>5</v>
       </c>
-      <c r="D65" s="33">
+      <c r="F65" s="32">
         <v>10</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="49" t="s">
+      <c r="G65" s="21"/>
+      <c r="H65" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="I65" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="33">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="32">
         <v>5</v>
       </c>
-      <c r="D66" s="33">
+      <c r="F66" s="32">
         <v>10</v>
       </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="49" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="I66" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="33">
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="32">
         <v>1</v>
       </c>
-      <c r="D67" s="33">
-        <v>0</v>
-      </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="32">
+        <v>0</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="I67" s="47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="21"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
-    </row>
-    <row r="70" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="32" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
+    </row>
+    <row r="70" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="39"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="72" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="54" t="s">
+      <c r="F70" s="39"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="56"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="31" t="s">
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="59"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="48"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="21"/>
-      <c r="C74" s="33">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="32">
         <v>1</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="32"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="50"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I74" s="47"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="47"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" s="21"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" s="50"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="47"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="33">
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="32">
         <v>5</v>
       </c>
-      <c r="D77" s="33">
+      <c r="F77" s="32">
         <v>10</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="49" t="s">
+      <c r="G77" s="21"/>
+      <c r="H77" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G77" s="50" t="s">
+      <c r="I77" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="33">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="32">
         <v>1</v>
       </c>
-      <c r="D78" s="33">
-        <v>0</v>
-      </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="49" t="s">
+      <c r="F78" s="32">
+        <v>0</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G78" s="50" t="s">
+      <c r="I78" s="47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="33">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="32">
         <v>120</v>
       </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="49" t="s">
+      <c r="F79" s="32"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G79" s="50"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I79" s="47"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="47"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
       <c r="B81" s="21"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
-    </row>
-    <row r="82" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="32" t="s">
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="47"/>
+    </row>
+    <row r="82" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="52"/>
-    </row>
-    <row r="83" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F82" s="39"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="83" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="54" t="s">
+    <row r="84" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="56"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="31" t="s">
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="59"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="73"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="33">
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="32">
         <v>1</v>
       </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" s="50"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F86" s="32"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="47"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
       <c r="B87" s="21"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="47"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" s="50"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="47"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="33">
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="32">
         <v>5</v>
       </c>
-      <c r="D89" s="33">
+      <c r="F89" s="32">
         <v>10</v>
       </c>
-      <c r="E89" s="21"/>
-      <c r="F89" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G89" s="21"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="47"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="21"/>
-      <c r="C90" s="33">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="32">
         <v>5</v>
       </c>
-      <c r="D90" s="33">
+      <c r="F90" s="32">
         <v>10</v>
       </c>
-      <c r="E90" s="21"/>
-      <c r="F90" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G90" s="21"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="33">
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="32">
         <v>2</v>
       </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91" s="50"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F91" s="32"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92" s="21"/>
-      <c r="C92" s="33">
-        <v>0</v>
-      </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" s="50"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="32">
+        <v>0</v>
+      </c>
+      <c r="F92" s="32"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="21"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="50"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="47"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="50"/>
-    </row>
-    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="32" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="47"/>
+    </row>
+    <row r="95" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="39"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="52"/>
-    </row>
-    <row r="96" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="97" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="48"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F95" s="39"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="49"/>
+    </row>
+    <row r="96" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="97" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="59"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="73"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="21"/>
-      <c r="C99" s="33">
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="32">
         <v>1</v>
       </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="49" t="s">
+      <c r="F99" s="32"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G99" s="50"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I99" s="47"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="28"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="50"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="47"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="21"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" s="50"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I101" s="47"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B102" s="21"/>
-      <c r="C102" s="33">
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="32">
         <v>5</v>
       </c>
-      <c r="D102" s="33">
+      <c r="F102" s="32">
         <v>10</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="49" t="s">
+      <c r="G102" s="21"/>
+      <c r="H102" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G102" s="50" t="s">
+      <c r="I102" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="32">
+        <v>3</v>
+      </c>
+      <c r="F103" s="32"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I103" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="33">
-        <v>3</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G103" s="50" t="s">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="32">
+        <v>0</v>
+      </c>
+      <c r="F104" s="32"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="50" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="21"/>
-      <c r="C104" s="33">
-        <v>0</v>
-      </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" s="50"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I104" s="47"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="21"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="50"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="47"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="28"/>
       <c r="B106" s="21"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="50"/>
-    </row>
-    <row r="107" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="47"/>
+    </row>
+    <row r="107" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="39"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="52"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Game&amp;ToolCreate\Project\CosMos\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43B92E4-B9B7-426B-AAB7-C357B0A2C45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE19B0-58C5-46CA-ABB4-DC56CD02C58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="151">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -319,9 +319,6 @@
     <t>LiftMax</t>
   </si>
   <si>
-    <t>SetLift</t>
-  </si>
-  <si>
     <t>EndLift</t>
   </si>
   <si>
@@ -601,23 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最低:3</t>
-    <rPh sb="0" eb="2">
-      <t>サイテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>めり込み量　(+１なら上に,-１なら下に)</t>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Shrink</t>
   </si>
   <si>
@@ -699,6 +679,372 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetLift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大数</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフト全体の設定開始</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　配置の最大数　</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　X個目の設定開始　（Xは何個目か）</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　X個目の設定終了　（Xは何個目か）</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフト全体の設定終了</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　開始位置（値：int）</t>
+    <rPh sb="2" eb="6">
+      <t>カイシイチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　終点位置（値：int）</t>
+    <rPh sb="2" eb="6">
+      <t>シュウテンイチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　X軸・Y軸の移動量（値：float）</t>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザー全体の設定開始</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザー全体の設定終了</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隕石全体の設定開始</t>
+    <rPh sb="0" eb="2">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隕石全体の設定終了</t>
+    <rPh sb="0" eb="2">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヌイ全体の設定開始</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大数</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　頭の位置（値：int）</t>
+    <rPh sb="2" eb="3">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　尻の位置（値：int）</t>
+    <rPh sb="2" eb="3">
+      <t>シリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胴体の高さ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　値：Xマス分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヌイの状態</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　0：伸びている
+　　1：縮んでいる</t>
+    <rPh sb="4" eb="5">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チヂ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヌイ全体の設定終了</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杭全体の設定開始</t>
+    <rPh sb="0" eb="1">
+      <t>クイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　位置（値：int）</t>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　Xマス分（最低値：３）</t>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めり込み量</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　１マス分は16.0ｆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杭全体の設定終了</t>
+    <rPh sb="0" eb="1">
+      <t>クイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -885,7 +1231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1270,13 +1616,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,6 +1827,63 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,61 +1896,52 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6025,7 +6470,7 @@
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -6042,7 +6487,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -6053,7 +6498,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -6075,7 +6520,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -6086,7 +6531,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -6101,7 +6546,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -6114,7 +6559,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -6127,7 +6572,7 @@
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -6147,7 +6592,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -6158,7 +6603,7 @@
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -6172,7 +6617,7 @@
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -6184,7 +6629,7 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
@@ -6196,7 +6641,7 @@
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -6214,7 +6659,7 @@
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -6224,7 +6669,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
@@ -6238,7 +6683,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
@@ -6250,7 +6695,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -6262,7 +6707,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -6280,7 +6725,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -6298,7 +6743,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -6615,10 +7060,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6628,13 +7073,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
@@ -6738,7 +7183,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -6850,7 +7295,7 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -6880,88 +7325,88 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+      <c r="A26" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="71"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="54"/>
+      <c r="G28" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="54"/>
+      <c r="G29" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="32">
@@ -6970,10 +7415,10 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="54"/>
+      <c r="G31" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
@@ -6986,26 +7431,26 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="56"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>20</v>
       </c>
@@ -7024,7 +7469,7 @@
       </c>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="28"/>
       <c r="B36" s="21"/>
       <c r="C36" s="32"/>
@@ -7033,7 +7478,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="29" t="s">
         <v>28</v>
       </c>
@@ -7052,7 +7497,7 @@
       </c>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
         <v>29</v>
       </c>
@@ -7071,7 +7516,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="29" t="s">
         <v>26</v>
       </c>
@@ -7090,7 +7535,7 @@
       </c>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
         <v>27</v>
       </c>
@@ -7109,7 +7554,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="28" t="s">
         <v>30</v>
       </c>
@@ -7128,7 +7573,7 @@
       </c>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="28" t="s">
         <v>31</v>
       </c>
@@ -7147,7 +7592,7 @@
       </c>
       <c r="G42" s="37"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="28"/>
       <c r="B43" s="21"/>
       <c r="C43" s="32"/>
@@ -7156,7 +7601,7 @@
       <c r="F43" s="32"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="30" t="s">
         <v>21</v>
       </c>
@@ -7167,42 +7612,56 @@
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A49" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="73"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="82"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="s">
         <v>49</v>
       </c>
@@ -7215,11 +7674,18 @@
       <c r="F50" s="32"/>
       <c r="G50" s="21"/>
       <c r="H50" s="46" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="I50" s="47"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J50" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="76"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -7229,10 +7695,15 @@
       <c r="G51" s="21"/>
       <c r="H51" s="46"/>
       <c r="I51" s="47"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="76"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7240,14 +7711,19 @@
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="46" t="s">
-        <v>109</v>
-      </c>
+      <c r="H52" s="46"/>
       <c r="I52" s="47"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J52" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="76"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -7260,15 +7736,22 @@
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J53" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="76"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -7281,15 +7764,22 @@
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J54" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="76"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -7302,15 +7792,22 @@
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J55" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="76"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -7320,8 +7817,15 @@
       <c r="G56" s="21"/>
       <c r="H56" s="46"/>
       <c r="I56" s="47"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J56" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="76"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -7331,10 +7835,15 @@
       <c r="G57" s="21"/>
       <c r="H57" s="46"/>
       <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J57" s="74"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="76"/>
+    </row>
+    <row r="58" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -7344,39 +7853,60 @@
       <c r="G58" s="38"/>
       <c r="H58" s="48"/>
       <c r="I58" s="49"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J58" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="79"/>
+    </row>
+    <row r="59" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="73"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="64"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A61" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="82"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -7387,11 +7917,18 @@
       <c r="F62" s="32"/>
       <c r="G62" s="21"/>
       <c r="H62" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J62" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="76"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -7401,10 +7938,15 @@
       <c r="G63" s="21"/>
       <c r="H63" s="46"/>
       <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J63" s="74"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="76"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -7413,13 +7955,20 @@
       <c r="F64" s="32"/>
       <c r="G64" s="21"/>
       <c r="H64" s="46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J64" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="76"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -7432,15 +7981,22 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J65" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="75"/>
+      <c r="N65" s="76"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -7453,15 +8009,22 @@
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J66" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="76"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -7474,15 +8037,22 @@
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I67" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J67" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="76"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -7492,8 +8062,15 @@
       <c r="G68" s="21"/>
       <c r="H68" s="46"/>
       <c r="I68" s="47"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J68" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="76"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -7503,10 +8080,15 @@
       <c r="G69" s="21"/>
       <c r="H69" s="46"/>
       <c r="I69" s="47"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J69" s="74"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="76"/>
+    </row>
+    <row r="70" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -7516,37 +8098,58 @@
       <c r="G70" s="38"/>
       <c r="H70" s="48"/>
       <c r="I70" s="49"/>
-    </row>
-    <row r="71" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="72" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="57" t="s">
+      <c r="J70" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="79"/>
+    </row>
+    <row r="71" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="72" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="64"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A73" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="59"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="69" t="s">
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="82"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A74" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="73"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7557,11 +8160,18 @@
       <c r="F74" s="32"/>
       <c r="G74" s="21"/>
       <c r="H74" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I74" s="47"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J74" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K74" s="75"/>
+      <c r="L74" s="75"/>
+      <c r="M74" s="75"/>
+      <c r="N74" s="76"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -7571,10 +8181,15 @@
       <c r="G75" s="21"/>
       <c r="H75" s="46"/>
       <c r="I75" s="47"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J75" s="74"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="76"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -7583,13 +8198,20 @@
       <c r="F76" s="32"/>
       <c r="G76" s="21"/>
       <c r="H76" s="46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I76" s="47"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J76" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="76"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -7602,15 +8224,22 @@
       </c>
       <c r="G77" s="21"/>
       <c r="H77" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I77" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J77" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="76"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -7623,15 +8252,22 @@
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I78" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J78" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="76"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -7642,13 +8278,20 @@
       <c r="F79" s="32"/>
       <c r="G79" s="21"/>
       <c r="H79" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J79" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="76"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -7658,8 +8301,15 @@
       <c r="G80" s="21"/>
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J80" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="76"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -7669,10 +8319,15 @@
       <c r="G81" s="21"/>
       <c r="H81" s="46"/>
       <c r="I81" s="47"/>
-    </row>
-    <row r="82" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J81" s="74"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="75"/>
+      <c r="N81" s="76"/>
+    </row>
+    <row r="82" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -7682,39 +8337,60 @@
       <c r="G82" s="38"/>
       <c r="H82" s="48"/>
       <c r="I82" s="49"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J82" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="79"/>
+    </row>
+    <row r="83" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="59"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="73"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+      <c r="N84" s="85"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A85" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="82"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -7724,10 +8400,19 @@
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="47"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H86" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I86" s="87"/>
+      <c r="J86" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="76"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -7736,11 +8421,16 @@
       <c r="F87" s="32"/>
       <c r="G87" s="21"/>
       <c r="H87" s="46"/>
-      <c r="I87" s="47"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I87" s="87"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="76"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -7749,11 +8439,18 @@
       <c r="F88" s="32"/>
       <c r="G88" s="21"/>
       <c r="H88" s="46"/>
-      <c r="I88" s="47"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I88" s="87"/>
+      <c r="J88" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
+      <c r="N88" s="76"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -7765,12 +8462,23 @@
         <v>10</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="47"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H89" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I89" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="76"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7782,12 +8490,23 @@
         <v>10</v>
       </c>
       <c r="G90" s="21"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H90" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="J90" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="76"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7797,12 +8516,21 @@
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="21"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H91" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="I91" s="87"/>
+      <c r="J91" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="76"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7812,12 +8540,21 @@
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="21"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="47"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H92" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I92" s="87"/>
+      <c r="J92" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="76"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7826,9 +8563,16 @@
       <c r="F93" s="32"/>
       <c r="G93" s="21"/>
       <c r="H93" s="46"/>
-      <c r="I93" s="47"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I93" s="87"/>
+      <c r="J93" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="76"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7837,11 +8581,16 @@
       <c r="F94" s="32"/>
       <c r="G94" s="21"/>
       <c r="H94" s="46"/>
-      <c r="I94" s="47"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I94" s="87"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="76"/>
+    </row>
+    <row r="95" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -7850,38 +8599,59 @@
       <c r="F95" s="39"/>
       <c r="G95" s="38"/>
       <c r="H95" s="48"/>
-      <c r="I95" s="49"/>
-    </row>
-    <row r="96" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="97" spans="1:9" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="59"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="73"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I95" s="89"/>
+      <c r="J95" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="79"/>
+    </row>
+    <row r="96" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="97" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="64"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A98" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98" s="81"/>
+      <c r="L98" s="81"/>
+      <c r="M98" s="81"/>
+      <c r="N98" s="82"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7892,11 +8662,18 @@
       <c r="F99" s="32"/>
       <c r="G99" s="21"/>
       <c r="H99" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I99" s="47"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J99" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="75"/>
+      <c r="N99" s="76"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="28"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7906,10 +8683,15 @@
       <c r="G100" s="21"/>
       <c r="H100" s="46"/>
       <c r="I100" s="47"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J100" s="74"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="75"/>
+      <c r="N100" s="76"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7917,14 +8699,19 @@
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
       <c r="G101" s="21"/>
-      <c r="H101" s="46" t="s">
-        <v>109</v>
-      </c>
+      <c r="H101" s="46"/>
       <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J101" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="75"/>
+      <c r="N101" s="76"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7937,15 +8724,22 @@
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="I102" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="J102" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="76"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7956,15 +8750,20 @@
       <c r="F103" s="32"/>
       <c r="G103" s="21"/>
       <c r="H103" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="I103" s="47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="I103" s="47"/>
+      <c r="J103" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="K103" s="75"/>
+      <c r="L103" s="75"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="76"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7975,13 +8774,20 @@
       <c r="F104" s="32"/>
       <c r="G104" s="21"/>
       <c r="H104" s="50" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="I104" s="47"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J104" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="K104" s="75"/>
+      <c r="L104" s="75"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="76"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7991,8 +8797,15 @@
       <c r="G105" s="21"/>
       <c r="H105" s="46"/>
       <c r="I105" s="47"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J105" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="K105" s="75"/>
+      <c r="L105" s="75"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="76"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="28"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -8002,10 +8815,15 @@
       <c r="G106" s="21"/>
       <c r="H106" s="46"/>
       <c r="I106" s="47"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J106" s="74"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="75"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="76"/>
+    </row>
+    <row r="107" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="38"/>
       <c r="C107" s="38"/>
@@ -8015,14 +8833,72 @@
       <c r="G107" s="38"/>
       <c r="H107" s="48"/>
       <c r="I107" s="49"/>
+      <c r="J107" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A97:I97"/>
+  <mergeCells count="69">
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J52:N52"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G32:H32"/>
@@ -8031,6 +8907,11 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE19B0-58C5-46CA-ABB4-DC56CD02C58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E630B-4414-4A37-8EBC-7EC7A23115F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -932,20 +932,6 @@
     <rPh sb="7" eb="8">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胴体の高さ</t>
-    <rPh sb="0" eb="2">
-      <t>ドウタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　値：Xマス分</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1045,6 +1031,24 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　胴体の高さ　値：Xマス分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低値</t>
+    <rPh sb="0" eb="3">
+      <t>サイテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1860,6 +1864,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,6 +1900,27 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,54 +1947,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7062,8 +7066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7073,13 +7077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
@@ -7341,16 +7345,16 @@
         <v>109</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="71"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
@@ -7363,10 +7367,10 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
@@ -7379,10 +7383,10 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="73"/>
+      <c r="H29" s="89"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
@@ -7399,10 +7403,10 @@
         <v>117</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="89"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
@@ -7415,10 +7419,10 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="73"/>
+      <c r="H31" s="89"/>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
@@ -7431,10 +7435,10 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
@@ -7622,24 +7626,24 @@
     </row>
     <row r="47" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="62" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="64"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="73"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="57" t="s">
@@ -7653,13 +7657,13 @@
       <c r="G49" s="58"/>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
-      <c r="J49" s="80" t="s">
+      <c r="J49" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="82"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="76"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="s">
@@ -7677,13 +7681,13 @@
         <v>121</v>
       </c>
       <c r="I50" s="47"/>
-      <c r="J50" s="74" t="s">
+      <c r="J50" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="76"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="70"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
@@ -7695,11 +7699,11 @@
       <c r="G51" s="21"/>
       <c r="H51" s="46"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="76"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="70"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
@@ -7713,13 +7717,13 @@
       <c r="G52" s="21"/>
       <c r="H52" s="46"/>
       <c r="I52" s="47"/>
-      <c r="J52" s="74" t="s">
+      <c r="J52" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="76"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="70"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="s">
@@ -7741,13 +7745,13 @@
       <c r="I53" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="74" t="s">
+      <c r="J53" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="76"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="70"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
@@ -7769,13 +7773,13 @@
       <c r="I54" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="74" t="s">
+      <c r="J54" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="76"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="70"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
@@ -7797,13 +7801,13 @@
       <c r="I55" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="74" t="s">
+      <c r="J55" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="76"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="70"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="s">
@@ -7817,13 +7821,13 @@
       <c r="G56" s="21"/>
       <c r="H56" s="46"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="74" t="s">
+      <c r="J56" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="76"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="70"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
@@ -7835,11 +7839,11 @@
       <c r="G57" s="21"/>
       <c r="H57" s="46"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="76"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="70"/>
     </row>
     <row r="58" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="31" t="s">
@@ -7853,36 +7857,36 @@
       <c r="G58" s="38"/>
       <c r="H58" s="48"/>
       <c r="I58" s="49"/>
-      <c r="J58" s="77" t="s">
+      <c r="J58" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="79"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="67"/>
     </row>
     <row r="59" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59"/>
     </row>
     <row r="60" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="62" t="s">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="73"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="57" t="s">
@@ -7896,13 +7900,13 @@
       <c r="G61" s="58"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
-      <c r="J61" s="80" t="s">
+      <c r="J61" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="82"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="76"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
@@ -7920,13 +7924,13 @@
         <v>53</v>
       </c>
       <c r="I62" s="47"/>
-      <c r="J62" s="74" t="s">
+      <c r="J62" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="76"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
@@ -7938,11 +7942,11 @@
       <c r="G63" s="21"/>
       <c r="H63" s="46"/>
       <c r="I63" s="47"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="76"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
@@ -7958,13 +7962,13 @@
         <v>106</v>
       </c>
       <c r="I64" s="47"/>
-      <c r="J64" s="74" t="s">
+      <c r="J64" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="76"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="70"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
@@ -7986,13 +7990,13 @@
       <c r="I65" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="74" t="s">
+      <c r="J65" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="76"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="70"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
@@ -8014,13 +8018,13 @@
       <c r="I66" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="74" t="s">
+      <c r="J66" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="76"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="70"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
@@ -8042,13 +8046,13 @@
       <c r="I67" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J67" s="74" t="s">
+      <c r="J67" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="76"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="70"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="s">
@@ -8062,13 +8066,13 @@
       <c r="G68" s="21"/>
       <c r="H68" s="46"/>
       <c r="I68" s="47"/>
-      <c r="J68" s="74" t="s">
+      <c r="J68" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="76"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="70"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
@@ -8080,11 +8084,11 @@
       <c r="G69" s="21"/>
       <c r="H69" s="46"/>
       <c r="I69" s="47"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="76"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="70"/>
     </row>
     <row r="70" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="31" t="s">
@@ -8098,34 +8102,34 @@
       <c r="G70" s="38"/>
       <c r="H70" s="48"/>
       <c r="I70" s="49"/>
-      <c r="J70" s="77" t="s">
+      <c r="J70" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="79"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="67"/>
     </row>
     <row r="71" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="72" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="62" t="s">
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63"/>
-      <c r="N72" s="64"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="73"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="57" t="s">
@@ -8139,13 +8143,13 @@
       <c r="G73" s="58"/>
       <c r="H73" s="60"/>
       <c r="I73" s="61"/>
-      <c r="J73" s="80" t="s">
+      <c r="J73" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="81"/>
-      <c r="N73" s="82"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="76"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="28" t="s">
@@ -8163,13 +8167,13 @@
         <v>53</v>
       </c>
       <c r="I74" s="47"/>
-      <c r="J74" s="74" t="s">
+      <c r="J74" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="76"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="70"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
@@ -8181,11 +8185,11 @@
       <c r="G75" s="21"/>
       <c r="H75" s="46"/>
       <c r="I75" s="47"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="76"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="70"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="s">
@@ -8201,13 +8205,13 @@
         <v>106</v>
       </c>
       <c r="I76" s="47"/>
-      <c r="J76" s="74" t="s">
+      <c r="J76" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="76"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="70"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="s">
@@ -8229,13 +8233,13 @@
       <c r="I77" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="74" t="s">
+      <c r="J77" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="76"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="70"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
@@ -8257,13 +8261,13 @@
       <c r="I78" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J78" s="74" t="s">
+      <c r="J78" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="76"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="70"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
@@ -8281,13 +8285,13 @@
         <v>77</v>
       </c>
       <c r="I79" s="47"/>
-      <c r="J79" s="74" t="s">
+      <c r="J79" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="76"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="70"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
@@ -8301,13 +8305,13 @@
       <c r="G80" s="21"/>
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="74" t="s">
+      <c r="J80" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="76"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="70"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
@@ -8319,11 +8323,11 @@
       <c r="G81" s="21"/>
       <c r="H81" s="46"/>
       <c r="I81" s="47"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
-      <c r="N81" s="76"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="31" t="s">
@@ -8337,36 +8341,36 @@
       <c r="G82" s="38"/>
       <c r="H82" s="48"/>
       <c r="I82" s="49"/>
-      <c r="J82" s="77" t="s">
+      <c r="J82" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="K82" s="78"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="79"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="67"/>
     </row>
     <row r="83" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83"/>
     </row>
     <row r="84" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="83" t="s">
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="85"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="80"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="57" t="s">
@@ -8379,14 +8383,14 @@
       <c r="F85" s="59"/>
       <c r="G85" s="58"/>
       <c r="H85" s="60"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="80" t="s">
+      <c r="I85" s="62"/>
+      <c r="J85" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="K85" s="81"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="81"/>
-      <c r="N85" s="82"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="76"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="28" t="s">
@@ -8403,14 +8407,14 @@
       <c r="H86" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I86" s="87"/>
-      <c r="J86" s="74" t="s">
+      <c r="I86" s="63"/>
+      <c r="J86" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="76"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="70"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
@@ -8421,12 +8425,12 @@
       <c r="F87" s="32"/>
       <c r="G87" s="21"/>
       <c r="H87" s="46"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="76"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="70"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
@@ -8439,14 +8443,14 @@
       <c r="F88" s="32"/>
       <c r="G88" s="21"/>
       <c r="H88" s="46"/>
-      <c r="I88" s="87"/>
-      <c r="J88" s="74" t="s">
+      <c r="I88" s="63"/>
+      <c r="J88" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K88" s="75"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="76"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="70"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
@@ -8465,16 +8469,16 @@
       <c r="H89" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I89" s="87" t="s">
+      <c r="I89" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="J89" s="74" t="s">
+      <c r="J89" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="76"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="70"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
@@ -8493,16 +8497,16 @@
       <c r="H90" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I90" s="87" t="s">
+      <c r="I90" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="J90" s="74" t="s">
+      <c r="J90" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="76"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="70"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
@@ -8514,19 +8518,23 @@
       <c r="E91" s="32">
         <v>2</v>
       </c>
-      <c r="F91" s="32"/>
+      <c r="F91" s="32">
+        <v>4</v>
+      </c>
       <c r="G91" s="21"/>
       <c r="H91" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="I91" s="87"/>
-      <c r="J91" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="76"/>
+        <v>150</v>
+      </c>
+      <c r="I91" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J91" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="70"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="s">
@@ -8541,16 +8549,16 @@
       <c r="F92" s="32"/>
       <c r="G92" s="21"/>
       <c r="H92" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="I92" s="87"/>
-      <c r="J92" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="K92" s="75"/>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="76"/>
+        <v>140</v>
+      </c>
+      <c r="I92" s="63"/>
+      <c r="J92" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="70"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="s">
@@ -8563,14 +8571,14 @@
       <c r="F93" s="32"/>
       <c r="G93" s="21"/>
       <c r="H93" s="46"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="74" t="s">
+      <c r="I93" s="63"/>
+      <c r="J93" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="76"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="70"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
@@ -8581,12 +8589,12 @@
       <c r="F94" s="32"/>
       <c r="G94" s="21"/>
       <c r="H94" s="46"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="76"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="70"/>
     </row>
     <row r="95" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="31" t="s">
@@ -8599,35 +8607,35 @@
       <c r="F95" s="39"/>
       <c r="G95" s="38"/>
       <c r="H95" s="48"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="K95" s="78"/>
-      <c r="L95" s="78"/>
-      <c r="M95" s="78"/>
-      <c r="N95" s="79"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="67"/>
     </row>
     <row r="96" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="97" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="62" t="s">
+      <c r="A97" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="62" t="s">
+      <c r="B97" s="72"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="K97" s="63"/>
-      <c r="L97" s="63"/>
-      <c r="M97" s="63"/>
-      <c r="N97" s="64"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="73"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="57" t="s">
@@ -8641,13 +8649,13 @@
       <c r="G98" s="58"/>
       <c r="H98" s="60"/>
       <c r="I98" s="61"/>
-      <c r="J98" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K98" s="81"/>
-      <c r="L98" s="81"/>
-      <c r="M98" s="81"/>
-      <c r="N98" s="82"/>
+      <c r="J98" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="76"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="28" t="s">
@@ -8665,13 +8673,13 @@
         <v>53</v>
       </c>
       <c r="I99" s="47"/>
-      <c r="J99" s="74" t="s">
+      <c r="J99" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="76"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="70"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="28"/>
@@ -8683,11 +8691,11 @@
       <c r="G100" s="21"/>
       <c r="H100" s="46"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="76"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="69"/>
+      <c r="N100" s="70"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
@@ -8701,13 +8709,13 @@
       <c r="G101" s="21"/>
       <c r="H101" s="46"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="74" t="s">
+      <c r="J101" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K101" s="75"/>
-      <c r="L101" s="75"/>
-      <c r="M101" s="75"/>
-      <c r="N101" s="76"/>
+      <c r="K101" s="69"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="69"/>
+      <c r="N101" s="70"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
@@ -8726,16 +8734,16 @@
       <c r="H102" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I102" s="87" t="s">
+      <c r="I102" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="J102" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="K102" s="75"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
-      <c r="N102" s="76"/>
+      <c r="J102" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="70"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
@@ -8753,13 +8761,13 @@
         <v>103</v>
       </c>
       <c r="I103" s="47"/>
-      <c r="J103" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="K103" s="75"/>
-      <c r="L103" s="75"/>
-      <c r="M103" s="75"/>
-      <c r="N103" s="76"/>
+      <c r="J103" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
+      <c r="N103" s="70"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="s">
@@ -8774,16 +8782,16 @@
       <c r="F104" s="32"/>
       <c r="G104" s="21"/>
       <c r="H104" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I104" s="47"/>
-      <c r="J104" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="76"/>
+      <c r="J104" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="69"/>
+      <c r="N104" s="70"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="s">
@@ -8797,13 +8805,13 @@
       <c r="G105" s="21"/>
       <c r="H105" s="46"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="74" t="s">
+      <c r="J105" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="76"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
+      <c r="N105" s="70"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="28"/>
@@ -8815,11 +8823,11 @@
       <c r="G106" s="21"/>
       <c r="H106" s="46"/>
       <c r="I106" s="47"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="75"/>
-      <c r="N106" s="76"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="69"/>
+      <c r="N106" s="70"/>
     </row>
     <row r="107" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31" t="s">
@@ -8833,72 +8841,21 @@
       <c r="G107" s="38"/>
       <c r="H107" s="48"/>
       <c r="I107" s="49"/>
-      <c r="J107" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="K107" s="78"/>
-      <c r="L107" s="78"/>
-      <c r="M107" s="78"/>
-      <c r="N107" s="79"/>
+      <c r="J107" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
+      <c r="N107" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G32:H32"/>
@@ -8907,11 +8864,62 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="J106:N106"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2015\Projects\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E630B-4414-4A37-8EBC-7EC7A23115F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C5D13-2B96-4716-B6AD-D635669F57B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -598,9 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Shrink</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -1051,6 +1048,9 @@
       <t>サイダイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elasticity</t>
   </si>
 </sst>
 </file>
@@ -1873,6 +1873,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1882,71 +1936,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,7 +2458,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -7066,8 +7066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7077,13 +7077,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
@@ -7342,19 +7342,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="87"/>
+      <c r="G27" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
@@ -7362,15 +7362,15 @@
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="89"/>
+      <c r="G28" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
@@ -7378,35 +7378,35 @@
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="89"/>
+      <c r="G29" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="E30" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
@@ -7419,10 +7419,10 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="88" t="s">
+      <c r="G31" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="89"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
@@ -7435,10 +7435,10 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
@@ -7626,24 +7626,24 @@
     </row>
     <row r="47" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="73"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="67"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="57" t="s">
@@ -7657,13 +7657,13 @@
       <c r="G49" s="58"/>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
-      <c r="J49" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="76"/>
+      <c r="J49" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="79"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="s">
@@ -7678,16 +7678,16 @@
       <c r="F50" s="32"/>
       <c r="G50" s="21"/>
       <c r="H50" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I50" s="47"/>
-      <c r="J50" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="70"/>
+      <c r="J50" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="82"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
@@ -7699,15 +7699,15 @@
       <c r="G51" s="21"/>
       <c r="H51" s="46"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="70"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="82"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -7717,13 +7717,13 @@
       <c r="G52" s="21"/>
       <c r="H52" s="46"/>
       <c r="I52" s="47"/>
-      <c r="J52" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="70"/>
+      <c r="J52" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="82"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="s">
@@ -7745,13 +7745,13 @@
       <c r="I53" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="70"/>
+      <c r="J53" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="82"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
@@ -7773,13 +7773,13 @@
       <c r="I54" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="70"/>
+      <c r="J54" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="82"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
@@ -7801,13 +7801,13 @@
       <c r="I55" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="70"/>
+      <c r="J55" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="82"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="s">
@@ -7821,13 +7821,13 @@
       <c r="G56" s="21"/>
       <c r="H56" s="46"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="70"/>
+      <c r="J56" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="82"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
@@ -7839,11 +7839,11 @@
       <c r="G57" s="21"/>
       <c r="H57" s="46"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="70"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="82"/>
     </row>
     <row r="58" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="31" t="s">
@@ -7857,36 +7857,36 @@
       <c r="G58" s="38"/>
       <c r="H58" s="48"/>
       <c r="I58" s="49"/>
-      <c r="J58" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="67"/>
+      <c r="J58" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="85"/>
     </row>
     <row r="59" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59"/>
     </row>
     <row r="60" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="57" t="s">
@@ -7900,13 +7900,13 @@
       <c r="G61" s="58"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
-      <c r="J61" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="76"/>
+      <c r="J61" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="79"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
@@ -7924,13 +7924,13 @@
         <v>53</v>
       </c>
       <c r="I62" s="47"/>
-      <c r="J62" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="70"/>
+      <c r="J62" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="82"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
@@ -7942,11 +7942,11 @@
       <c r="G63" s="21"/>
       <c r="H63" s="46"/>
       <c r="I63" s="47"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="70"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="82"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
@@ -7959,16 +7959,16 @@
       <c r="F64" s="32"/>
       <c r="G64" s="21"/>
       <c r="H64" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I64" s="47"/>
-      <c r="J64" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="70"/>
+      <c r="J64" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="82"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
@@ -7990,13 +7990,13 @@
       <c r="I65" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="70"/>
+      <c r="J65" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="82"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
@@ -8018,13 +8018,13 @@
       <c r="I66" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="70"/>
+      <c r="J66" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="82"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
@@ -8046,13 +8046,13 @@
       <c r="I67" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J67" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="70"/>
+      <c r="J67" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="82"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="s">
@@ -8066,13 +8066,13 @@
       <c r="G68" s="21"/>
       <c r="H68" s="46"/>
       <c r="I68" s="47"/>
-      <c r="J68" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="70"/>
+      <c r="J68" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="82"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
@@ -8084,11 +8084,11 @@
       <c r="G69" s="21"/>
       <c r="H69" s="46"/>
       <c r="I69" s="47"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="70"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="82"/>
     </row>
     <row r="70" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="31" t="s">
@@ -8102,34 +8102,34 @@
       <c r="G70" s="38"/>
       <c r="H70" s="48"/>
       <c r="I70" s="49"/>
-      <c r="J70" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="67"/>
+      <c r="J70" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="85"/>
     </row>
     <row r="71" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="72" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="72"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="73"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="67"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="57" t="s">
@@ -8143,13 +8143,13 @@
       <c r="G73" s="58"/>
       <c r="H73" s="60"/>
       <c r="I73" s="61"/>
-      <c r="J73" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73" s="75"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="76"/>
+      <c r="J73" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="79"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="28" t="s">
@@ -8167,13 +8167,13 @@
         <v>53</v>
       </c>
       <c r="I74" s="47"/>
-      <c r="J74" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K74" s="69"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="70"/>
+      <c r="J74" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="82"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
@@ -8185,11 +8185,11 @@
       <c r="G75" s="21"/>
       <c r="H75" s="46"/>
       <c r="I75" s="47"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="70"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="82"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="s">
@@ -8202,16 +8202,16 @@
       <c r="F76" s="32"/>
       <c r="G76" s="21"/>
       <c r="H76" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I76" s="47"/>
-      <c r="J76" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K76" s="69"/>
-      <c r="L76" s="69"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="70"/>
+      <c r="J76" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K76" s="81"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="81"/>
+      <c r="N76" s="82"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="s">
@@ -8233,13 +8233,13 @@
       <c r="I77" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="70"/>
+      <c r="J77" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="82"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
@@ -8261,13 +8261,13 @@
       <c r="I78" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J78" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="70"/>
+      <c r="J78" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="81"/>
+      <c r="N78" s="82"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
@@ -8285,13 +8285,13 @@
         <v>77</v>
       </c>
       <c r="I79" s="47"/>
-      <c r="J79" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="K79" s="69"/>
-      <c r="L79" s="69"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="70"/>
+      <c r="J79" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="81"/>
+      <c r="N79" s="82"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
@@ -8305,13 +8305,13 @@
       <c r="G80" s="21"/>
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
-      <c r="N80" s="70"/>
+      <c r="J80" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K80" s="81"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="81"/>
+      <c r="N80" s="82"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
@@ -8323,11 +8323,11 @@
       <c r="G81" s="21"/>
       <c r="H81" s="46"/>
       <c r="I81" s="47"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-      <c r="M81" s="69"/>
-      <c r="N81" s="70"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="82"/>
     </row>
     <row r="82" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="31" t="s">
@@ -8341,36 +8341,36 @@
       <c r="G82" s="38"/>
       <c r="H82" s="48"/>
       <c r="I82" s="49"/>
-      <c r="J82" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="67"/>
+      <c r="J82" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="85"/>
     </row>
     <row r="83" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83"/>
     </row>
     <row r="84" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="72"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
-      <c r="N84" s="80"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="K84" s="87"/>
+      <c r="L84" s="87"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="88"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="57" t="s">
@@ -8384,13 +8384,13 @@
       <c r="G85" s="58"/>
       <c r="H85" s="60"/>
       <c r="I85" s="62"/>
-      <c r="J85" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="76"/>
+      <c r="J85" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="79"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="28" t="s">
@@ -8405,16 +8405,16 @@
       <c r="F86" s="32"/>
       <c r="G86" s="21"/>
       <c r="H86" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I86" s="63"/>
-      <c r="J86" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="70"/>
+      <c r="J86" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="82"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
@@ -8426,11 +8426,11 @@
       <c r="G87" s="21"/>
       <c r="H87" s="46"/>
       <c r="I87" s="63"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="70"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="82"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
@@ -8444,13 +8444,13 @@
       <c r="G88" s="21"/>
       <c r="H88" s="46"/>
       <c r="I88" s="63"/>
-      <c r="J88" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-      <c r="M88" s="69"/>
-      <c r="N88" s="70"/>
+      <c r="J88" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" s="81"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="82"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
@@ -8467,18 +8467,18 @@
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I89" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I89" s="63" t="s">
+      <c r="J89" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="J89" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="70"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="82"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
@@ -8495,18 +8495,18 @@
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I90" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I90" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="J90" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="70"/>
+      <c r="J90" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="82"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
@@ -8523,22 +8523,22 @@
       </c>
       <c r="G91" s="21"/>
       <c r="H91" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I91" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I91" s="63" t="s">
+      <c r="J91" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="K91" s="81"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="82"/>
+    </row>
+    <row r="92" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="J91" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="K91" s="69"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="70"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -8549,16 +8549,16 @@
       <c r="F92" s="32"/>
       <c r="G92" s="21"/>
       <c r="H92" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="I92" s="63"/>
+      <c r="J92" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="I92" s="63"/>
-      <c r="J92" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="70"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="82"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="s">
@@ -8572,13 +8572,13 @@
       <c r="G93" s="21"/>
       <c r="H93" s="46"/>
       <c r="I93" s="63"/>
-      <c r="J93" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="70"/>
+      <c r="J93" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K93" s="81"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="82"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
@@ -8590,11 +8590,11 @@
       <c r="G94" s="21"/>
       <c r="H94" s="46"/>
       <c r="I94" s="63"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="70"/>
+      <c r="J94" s="80"/>
+      <c r="K94" s="81"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="81"/>
+      <c r="N94" s="82"/>
     </row>
     <row r="95" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="31" t="s">
@@ -8608,34 +8608,34 @@
       <c r="G95" s="38"/>
       <c r="H95" s="48"/>
       <c r="I95" s="64"/>
-      <c r="J95" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="K95" s="66"/>
-      <c r="L95" s="66"/>
-      <c r="M95" s="66"/>
-      <c r="N95" s="67"/>
+      <c r="J95" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="K95" s="84"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="85"/>
     </row>
     <row r="96" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="97" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="K97" s="72"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
-      <c r="N97" s="73"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
+      <c r="M97" s="66"/>
+      <c r="N97" s="67"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="57" t="s">
@@ -8649,13 +8649,13 @@
       <c r="G98" s="58"/>
       <c r="H98" s="60"/>
       <c r="I98" s="61"/>
-      <c r="J98" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="K98" s="75"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="76"/>
+      <c r="J98" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" s="78"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="79"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="28" t="s">
@@ -8673,13 +8673,13 @@
         <v>53</v>
       </c>
       <c r="I99" s="47"/>
-      <c r="J99" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="70"/>
+      <c r="J99" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="82"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="28"/>
@@ -8691,11 +8691,11 @@
       <c r="G100" s="21"/>
       <c r="H100" s="46"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="69"/>
-      <c r="L100" s="69"/>
-      <c r="M100" s="69"/>
-      <c r="N100" s="70"/>
+      <c r="J100" s="80"/>
+      <c r="K100" s="81"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="81"/>
+      <c r="N100" s="82"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
@@ -8709,13 +8709,13 @@
       <c r="G101" s="21"/>
       <c r="H101" s="46"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="K101" s="69"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="69"/>
-      <c r="N101" s="70"/>
+      <c r="J101" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="K101" s="81"/>
+      <c r="L101" s="81"/>
+      <c r="M101" s="81"/>
+      <c r="N101" s="82"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
@@ -8732,18 +8732,18 @@
       </c>
       <c r="G102" s="21"/>
       <c r="H102" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I102" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I102" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="J102" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="70"/>
+      <c r="J102" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="K102" s="81"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="81"/>
+      <c r="N102" s="82"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
@@ -8761,13 +8761,13 @@
         <v>103</v>
       </c>
       <c r="I103" s="47"/>
-      <c r="J103" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="K103" s="69"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
-      <c r="N103" s="70"/>
+      <c r="J103" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="K103" s="81"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="81"/>
+      <c r="N103" s="82"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="s">
@@ -8782,16 +8782,16 @@
       <c r="F104" s="32"/>
       <c r="G104" s="21"/>
       <c r="H104" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I104" s="47"/>
+      <c r="J104" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="I104" s="47"/>
-      <c r="J104" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="K104" s="69"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="70"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="82"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="s">
@@ -8805,13 +8805,13 @@
       <c r="G105" s="21"/>
       <c r="H105" s="46"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="K105" s="69"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
-      <c r="N105" s="70"/>
+      <c r="J105" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="K105" s="81"/>
+      <c r="L105" s="81"/>
+      <c r="M105" s="81"/>
+      <c r="N105" s="82"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="28"/>
@@ -8823,11 +8823,11 @@
       <c r="G106" s="21"/>
       <c r="H106" s="46"/>
       <c r="I106" s="47"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="70"/>
+      <c r="J106" s="80"/>
+      <c r="K106" s="81"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="81"/>
+      <c r="N106" s="82"/>
     </row>
     <row r="107" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31" t="s">
@@ -8841,21 +8841,72 @@
       <c r="G107" s="38"/>
       <c r="H107" s="48"/>
       <c r="I107" s="49"/>
-      <c r="J107" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="K107" s="66"/>
-      <c r="L107" s="66"/>
-      <c r="M107" s="66"/>
-      <c r="N107" s="67"/>
+      <c r="J107" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="K107" s="84"/>
+      <c r="L107" s="84"/>
+      <c r="M107" s="84"/>
+      <c r="N107" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J52:N52"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G32:H32"/>
@@ -8864,62 +8915,11 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C5D13-2B96-4716-B6AD-D635669F57B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA99159-693C-4A87-A698-87528E741757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -1051,6 +1051,10 @@
   </si>
   <si>
     <t>Elasticity</t>
+  </si>
+  <si>
+    <t>EndMeteorInfo</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1873,6 +1877,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,6 +1904,27 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1908,45 +1951,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7066,8 +7070,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7077,13 +7081,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="18">
@@ -7345,16 +7349,16 @@
         <v>108</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="74"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="45" t="s">
@@ -7367,10 +7371,10 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="45" t="s">
@@ -7383,10 +7387,10 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="76"/>
+      <c r="H29" s="89"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="45" t="s">
@@ -7403,10 +7407,10 @@
         <v>116</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="76"/>
+      <c r="H30" s="89"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
@@ -7419,10 +7423,10 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="76"/>
+      <c r="H31" s="89"/>
     </row>
     <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="30" t="s">
@@ -7435,10 +7439,10 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="72"/>
+      <c r="H32" s="85"/>
     </row>
     <row r="33" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="9"/>
@@ -7626,24 +7630,24 @@
     </row>
     <row r="47" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="65" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="67"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="73"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="57" t="s">
@@ -7657,13 +7661,13 @@
       <c r="G49" s="58"/>
       <c r="H49" s="60"/>
       <c r="I49" s="61"/>
-      <c r="J49" s="77" t="s">
+      <c r="J49" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="76"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="s">
@@ -7681,13 +7685,13 @@
         <v>120</v>
       </c>
       <c r="I50" s="47"/>
-      <c r="J50" s="80" t="s">
+      <c r="J50" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="82"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="70"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="28"/>
@@ -7699,11 +7703,11 @@
       <c r="G51" s="21"/>
       <c r="H51" s="46"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="82"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="70"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="s">
@@ -7717,13 +7721,13 @@
       <c r="G52" s="21"/>
       <c r="H52" s="46"/>
       <c r="I52" s="47"/>
-      <c r="J52" s="80" t="s">
+      <c r="J52" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="82"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="70"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="s">
@@ -7745,13 +7749,13 @@
       <c r="I53" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="80" t="s">
+      <c r="J53" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="82"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="70"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="s">
@@ -7773,13 +7777,13 @@
       <c r="I54" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="80" t="s">
+      <c r="J54" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="82"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="70"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="s">
@@ -7801,13 +7805,13 @@
       <c r="I55" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J55" s="80" t="s">
+      <c r="J55" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="82"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="70"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="s">
@@ -7821,13 +7825,13 @@
       <c r="G56" s="21"/>
       <c r="H56" s="46"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="80" t="s">
+      <c r="J56" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="82"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="70"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="28"/>
@@ -7839,11 +7843,11 @@
       <c r="G57" s="21"/>
       <c r="H57" s="46"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="82"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="70"/>
     </row>
     <row r="58" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="31" t="s">
@@ -7857,36 +7861,36 @@
       <c r="G58" s="38"/>
       <c r="H58" s="48"/>
       <c r="I58" s="49"/>
-      <c r="J58" s="83" t="s">
+      <c r="J58" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="85"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="67"/>
     </row>
     <row r="59" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59"/>
     </row>
     <row r="60" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="65" t="s">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="67"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="73"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="57" t="s">
@@ -7900,13 +7904,13 @@
       <c r="G61" s="58"/>
       <c r="H61" s="60"/>
       <c r="I61" s="61"/>
-      <c r="J61" s="77" t="s">
+      <c r="J61" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="79"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="76"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
@@ -7924,13 +7928,13 @@
         <v>53</v>
       </c>
       <c r="I62" s="47"/>
-      <c r="J62" s="80" t="s">
+      <c r="J62" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="82"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="70"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="28"/>
@@ -7942,11 +7946,11 @@
       <c r="G63" s="21"/>
       <c r="H63" s="46"/>
       <c r="I63" s="47"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="82"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="70"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="s">
@@ -7962,13 +7966,13 @@
         <v>105</v>
       </c>
       <c r="I64" s="47"/>
-      <c r="J64" s="80" t="s">
+      <c r="J64" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="82"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="70"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="s">
@@ -7990,13 +7994,13 @@
       <c r="I65" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="80" t="s">
+      <c r="J65" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="81"/>
-      <c r="N65" s="82"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="70"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="s">
@@ -8018,13 +8022,13 @@
       <c r="I66" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="80" t="s">
+      <c r="J66" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="82"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="70"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="s">
@@ -8046,13 +8050,13 @@
       <c r="I67" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J67" s="80" t="s">
+      <c r="J67" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="81"/>
-      <c r="N67" s="82"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="70"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="s">
@@ -8066,13 +8070,13 @@
       <c r="G68" s="21"/>
       <c r="H68" s="46"/>
       <c r="I68" s="47"/>
-      <c r="J68" s="80" t="s">
+      <c r="J68" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="81"/>
-      <c r="N68" s="82"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="70"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="28"/>
@@ -8084,11 +8088,11 @@
       <c r="G69" s="21"/>
       <c r="H69" s="46"/>
       <c r="I69" s="47"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="82"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="70"/>
     </row>
     <row r="70" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="31" t="s">
@@ -8102,34 +8106,34 @@
       <c r="G70" s="38"/>
       <c r="H70" s="48"/>
       <c r="I70" s="49"/>
-      <c r="J70" s="83" t="s">
+      <c r="J70" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="85"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="67"/>
     </row>
     <row r="71" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="72" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="65" t="s">
+      <c r="A72" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="65" t="s">
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="67"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="73"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="57" t="s">
@@ -8143,13 +8147,13 @@
       <c r="G73" s="58"/>
       <c r="H73" s="60"/>
       <c r="I73" s="61"/>
-      <c r="J73" s="77" t="s">
+      <c r="J73" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="79"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="76"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="28" t="s">
@@ -8167,13 +8171,13 @@
         <v>53</v>
       </c>
       <c r="I74" s="47"/>
-      <c r="J74" s="80" t="s">
+      <c r="J74" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="81"/>
-      <c r="N74" s="82"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="70"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="28"/>
@@ -8185,11 +8189,11 @@
       <c r="G75" s="21"/>
       <c r="H75" s="46"/>
       <c r="I75" s="47"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="81"/>
-      <c r="M75" s="81"/>
-      <c r="N75" s="82"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="70"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="s">
@@ -8205,13 +8209,13 @@
         <v>105</v>
       </c>
       <c r="I76" s="47"/>
-      <c r="J76" s="80" t="s">
+      <c r="J76" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
-      <c r="M76" s="81"/>
-      <c r="N76" s="82"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="70"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="s">
@@ -8233,13 +8237,13 @@
       <c r="I77" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J77" s="80" t="s">
+      <c r="J77" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="M77" s="81"/>
-      <c r="N77" s="82"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="70"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="28" t="s">
@@ -8261,13 +8265,13 @@
       <c r="I78" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J78" s="80" t="s">
+      <c r="J78" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="K78" s="81"/>
-      <c r="L78" s="81"/>
-      <c r="M78" s="81"/>
-      <c r="N78" s="82"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="70"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="28" t="s">
@@ -8285,13 +8289,13 @@
         <v>77</v>
       </c>
       <c r="I79" s="47"/>
-      <c r="J79" s="80" t="s">
+      <c r="J79" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K79" s="81"/>
-      <c r="L79" s="81"/>
-      <c r="M79" s="81"/>
-      <c r="N79" s="82"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="70"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
@@ -8305,13 +8309,13 @@
       <c r="G80" s="21"/>
       <c r="H80" s="46"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="80" t="s">
+      <c r="J80" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K80" s="81"/>
-      <c r="L80" s="81"/>
-      <c r="M80" s="81"/>
-      <c r="N80" s="82"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="70"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="28"/>
@@ -8323,15 +8327,15 @@
       <c r="G81" s="21"/>
       <c r="H81" s="46"/>
       <c r="I81" s="47"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="81"/>
-      <c r="N81" s="82"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="31" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -8341,36 +8345,36 @@
       <c r="G82" s="38"/>
       <c r="H82" s="48"/>
       <c r="I82" s="49"/>
-      <c r="J82" s="83" t="s">
+      <c r="J82" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="85"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="67"/>
     </row>
     <row r="83" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83"/>
     </row>
     <row r="84" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="86" t="s">
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K84" s="87"/>
-      <c r="L84" s="87"/>
-      <c r="M84" s="87"/>
-      <c r="N84" s="88"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="80"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="57" t="s">
@@ -8384,13 +8388,13 @@
       <c r="G85" s="58"/>
       <c r="H85" s="60"/>
       <c r="I85" s="62"/>
-      <c r="J85" s="77" t="s">
+      <c r="J85" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="K85" s="78"/>
-      <c r="L85" s="78"/>
-      <c r="M85" s="78"/>
-      <c r="N85" s="79"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="76"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="28" t="s">
@@ -8408,13 +8412,13 @@
         <v>134</v>
       </c>
       <c r="I86" s="63"/>
-      <c r="J86" s="80" t="s">
+      <c r="J86" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K86" s="81"/>
-      <c r="L86" s="81"/>
-      <c r="M86" s="81"/>
-      <c r="N86" s="82"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="70"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="28"/>
@@ -8426,11 +8430,11 @@
       <c r="G87" s="21"/>
       <c r="H87" s="46"/>
       <c r="I87" s="63"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="82"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="70"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="28" t="s">
@@ -8444,13 +8448,13 @@
       <c r="G88" s="21"/>
       <c r="H88" s="46"/>
       <c r="I88" s="63"/>
-      <c r="J88" s="80" t="s">
+      <c r="J88" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K88" s="81"/>
-      <c r="L88" s="81"/>
-      <c r="M88" s="81"/>
-      <c r="N88" s="82"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="70"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="s">
@@ -8472,13 +8476,13 @@
       <c r="I89" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="J89" s="80" t="s">
+      <c r="J89" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K89" s="81"/>
-      <c r="L89" s="81"/>
-      <c r="M89" s="81"/>
-      <c r="N89" s="82"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="70"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="s">
@@ -8500,13 +8504,13 @@
       <c r="I90" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="J90" s="80" t="s">
+      <c r="J90" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="K90" s="81"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="81"/>
-      <c r="N90" s="82"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="70"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="s">
@@ -8528,13 +8532,13 @@
       <c r="I91" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="J91" s="80" t="s">
+      <c r="J91" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="K91" s="81"/>
-      <c r="L91" s="81"/>
-      <c r="M91" s="81"/>
-      <c r="N91" s="82"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="70"/>
     </row>
     <row r="92" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="s">
@@ -8552,13 +8556,13 @@
         <v>139</v>
       </c>
       <c r="I92" s="63"/>
-      <c r="J92" s="89" t="s">
+      <c r="J92" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="K92" s="81"/>
-      <c r="L92" s="81"/>
-      <c r="M92" s="81"/>
-      <c r="N92" s="82"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="70"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="s">
@@ -8572,13 +8576,13 @@
       <c r="G93" s="21"/>
       <c r="H93" s="46"/>
       <c r="I93" s="63"/>
-      <c r="J93" s="80" t="s">
+      <c r="J93" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K93" s="81"/>
-      <c r="L93" s="81"/>
-      <c r="M93" s="81"/>
-      <c r="N93" s="82"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="70"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="28"/>
@@ -8590,11 +8594,11 @@
       <c r="G94" s="21"/>
       <c r="H94" s="46"/>
       <c r="I94" s="63"/>
-      <c r="J94" s="80"/>
-      <c r="K94" s="81"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="81"/>
-      <c r="N94" s="82"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="70"/>
     </row>
     <row r="95" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="31" t="s">
@@ -8608,34 +8612,34 @@
       <c r="G95" s="38"/>
       <c r="H95" s="48"/>
       <c r="I95" s="64"/>
-      <c r="J95" s="83" t="s">
+      <c r="J95" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="85"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="67"/>
     </row>
     <row r="96" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="97" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="65" t="s">
+      <c r="A97" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="65" t="s">
+      <c r="B97" s="72"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="K97" s="66"/>
-      <c r="L97" s="66"/>
-      <c r="M97" s="66"/>
-      <c r="N97" s="67"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="73"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="57" t="s">
@@ -8649,13 +8653,13 @@
       <c r="G98" s="58"/>
       <c r="H98" s="60"/>
       <c r="I98" s="61"/>
-      <c r="J98" s="77" t="s">
+      <c r="J98" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="K98" s="78"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="79"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="76"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="28" t="s">
@@ -8673,13 +8677,13 @@
         <v>53</v>
       </c>
       <c r="I99" s="47"/>
-      <c r="J99" s="80" t="s">
+      <c r="J99" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K99" s="81"/>
-      <c r="L99" s="81"/>
-      <c r="M99" s="81"/>
-      <c r="N99" s="82"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="70"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="28"/>
@@ -8691,11 +8695,11 @@
       <c r="G100" s="21"/>
       <c r="H100" s="46"/>
       <c r="I100" s="47"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="81"/>
-      <c r="L100" s="81"/>
-      <c r="M100" s="81"/>
-      <c r="N100" s="82"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="69"/>
+      <c r="N100" s="70"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="28" t="s">
@@ -8709,13 +8713,13 @@
       <c r="G101" s="21"/>
       <c r="H101" s="46"/>
       <c r="I101" s="47"/>
-      <c r="J101" s="80" t="s">
+      <c r="J101" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="K101" s="81"/>
-      <c r="L101" s="81"/>
-      <c r="M101" s="81"/>
-      <c r="N101" s="82"/>
+      <c r="K101" s="69"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="69"/>
+      <c r="N101" s="70"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="s">
@@ -8737,13 +8741,13 @@
       <c r="I102" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="J102" s="80" t="s">
+      <c r="J102" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="K102" s="81"/>
-      <c r="L102" s="81"/>
-      <c r="M102" s="81"/>
-      <c r="N102" s="82"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="70"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="s">
@@ -8761,13 +8765,13 @@
         <v>103</v>
       </c>
       <c r="I103" s="47"/>
-      <c r="J103" s="80" t="s">
+      <c r="J103" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="K103" s="81"/>
-      <c r="L103" s="81"/>
-      <c r="M103" s="81"/>
-      <c r="N103" s="82"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
+      <c r="N103" s="70"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="s">
@@ -8785,13 +8789,13 @@
         <v>145</v>
       </c>
       <c r="I104" s="47"/>
-      <c r="J104" s="80" t="s">
+      <c r="J104" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="K104" s="81"/>
-      <c r="L104" s="81"/>
-      <c r="M104" s="81"/>
-      <c r="N104" s="82"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
+      <c r="M104" s="69"/>
+      <c r="N104" s="70"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="s">
@@ -8805,13 +8809,13 @@
       <c r="G105" s="21"/>
       <c r="H105" s="46"/>
       <c r="I105" s="47"/>
-      <c r="J105" s="80" t="s">
+      <c r="J105" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="K105" s="81"/>
-      <c r="L105" s="81"/>
-      <c r="M105" s="81"/>
-      <c r="N105" s="82"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
+      <c r="N105" s="70"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="28"/>
@@ -8823,11 +8827,11 @@
       <c r="G106" s="21"/>
       <c r="H106" s="46"/>
       <c r="I106" s="47"/>
-      <c r="J106" s="80"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="81"/>
-      <c r="N106" s="82"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="69"/>
+      <c r="N106" s="70"/>
     </row>
     <row r="107" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="31" t="s">
@@ -8841,72 +8845,21 @@
       <c r="G107" s="38"/>
       <c r="H107" s="48"/>
       <c r="I107" s="49"/>
-      <c r="J107" s="83" t="s">
+      <c r="J107" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="K107" s="84"/>
-      <c r="L107" s="84"/>
-      <c r="M107" s="84"/>
-      <c r="N107" s="85"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
+      <c r="N107" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J98:N98"/>
-    <mergeCell ref="J99:N99"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="J93:N93"/>
-    <mergeCell ref="J94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J80:N80"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="J79:N79"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="J74:N74"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J58:N58"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A97:I97"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="G32:H32"/>
@@ -8915,11 +8868,62 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="J70:N70"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="J80:N80"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="J93:N93"/>
+    <mergeCell ref="J94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J98:N98"/>
+    <mergeCell ref="J99:N99"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="J106:N106"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
